--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3522E1B-71CC-4FD5-B36F-A6E3CAB145D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0ABD1-4FB7-4DF4-9A34-3B054DB14A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="323">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1253,6 +1253,30 @@
   <si>
     <t>현상수배
 귀왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook97</t>
+  </si>
+  <si>
+    <t>magicBook98</t>
+  </si>
+  <si>
+    <t>만독귀의 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사령신군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+만독귀의에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+사령신군에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1797,11 +1821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG98"/>
+  <dimension ref="A1:AG100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11727,6 +11751,208 @@
       </c>
       <c r="AG98" s="28">
         <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="25">
+        <v>97</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D99" s="25">
+        <v>29</v>
+      </c>
+      <c r="E99" s="25">
+        <v>4</v>
+      </c>
+      <c r="F99" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G99" s="25">
+        <v>200</v>
+      </c>
+      <c r="H99" s="25">
+        <v>193</v>
+      </c>
+      <c r="I99" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" s="26">
+        <v>0</v>
+      </c>
+      <c r="K99" s="26">
+        <v>0</v>
+      </c>
+      <c r="L99" s="26">
+        <v>0</v>
+      </c>
+      <c r="M99" s="26">
+        <v>0</v>
+      </c>
+      <c r="N99" s="26">
+        <v>0</v>
+      </c>
+      <c r="O99" s="26">
+        <v>0</v>
+      </c>
+      <c r="P99" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="26">
+        <v>0</v>
+      </c>
+      <c r="R99" s="26">
+        <v>0</v>
+      </c>
+      <c r="S99" s="26">
+        <v>0</v>
+      </c>
+      <c r="T99" s="25">
+        <v>2</v>
+      </c>
+      <c r="U99" s="25">
+        <v>10</v>
+      </c>
+      <c r="V99" s="25">
+        <v>1</v>
+      </c>
+      <c r="W99" s="25">
+        <v>7</v>
+      </c>
+      <c r="X99" s="25">
+        <v>124000</v>
+      </c>
+      <c r="Y99" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z99" s="14">
+        <v>150000</v>
+      </c>
+      <c r="AA99" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB99" s="14">
+        <v>150000</v>
+      </c>
+      <c r="AC99" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="AF99" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG99" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="25">
+        <v>98</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D100" s="25">
+        <v>29</v>
+      </c>
+      <c r="E100" s="25">
+        <v>4</v>
+      </c>
+      <c r="F100" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G100" s="25">
+        <v>200</v>
+      </c>
+      <c r="H100" s="25">
+        <v>194</v>
+      </c>
+      <c r="I100" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" s="26">
+        <v>0</v>
+      </c>
+      <c r="K100" s="26">
+        <v>0</v>
+      </c>
+      <c r="L100" s="26">
+        <v>0</v>
+      </c>
+      <c r="M100" s="26">
+        <v>0</v>
+      </c>
+      <c r="N100" s="26">
+        <v>0</v>
+      </c>
+      <c r="O100" s="26">
+        <v>0</v>
+      </c>
+      <c r="P100" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="26">
+        <v>0</v>
+      </c>
+      <c r="R100" s="26">
+        <v>0</v>
+      </c>
+      <c r="S100" s="26">
+        <v>0</v>
+      </c>
+      <c r="T100" s="25">
+        <v>2</v>
+      </c>
+      <c r="U100" s="25">
+        <v>10</v>
+      </c>
+      <c r="V100" s="25">
+        <v>1</v>
+      </c>
+      <c r="W100" s="25">
+        <v>7</v>
+      </c>
+      <c r="X100" s="25">
+        <v>126000</v>
+      </c>
+      <c r="Y100" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z100" s="14">
+        <v>150000</v>
+      </c>
+      <c r="AA100" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB100" s="14">
+        <v>150000</v>
+      </c>
+      <c r="AC100" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="AF100" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG100" s="28">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0ABD1-4FB7-4DF4-9A34-3B054DB14A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8063B6F-6055-43DE-BBFD-AA5C697AB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="332">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1277,6 +1277,41 @@
   <si>
     <t>현상수배
 사령신군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook99</t>
+  </si>
+  <si>
+    <t>magicBook100</t>
+  </si>
+  <si>
+    <t>magicBook101</t>
+  </si>
+  <si>
+    <t>8월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+동악신로에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+음명진군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동악신로 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음명진군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1821,11 +1856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG100"/>
+  <dimension ref="A1:AG103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11649,7 +11684,7 @@
         <v>315</v>
       </c>
       <c r="AG97" s="28">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="33" x14ac:dyDescent="0.3">
@@ -11750,7 +11785,7 @@
         <v>316</v>
       </c>
       <c r="AG98" s="28">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
@@ -11851,7 +11886,7 @@
         <v>321</v>
       </c>
       <c r="AG99" s="28">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
@@ -11952,7 +11987,310 @@
         <v>322</v>
       </c>
       <c r="AG100" s="28">
-        <v>97</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="25">
+        <v>99</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="25">
+        <v>29</v>
+      </c>
+      <c r="E101" s="25">
+        <v>4</v>
+      </c>
+      <c r="F101" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G101" s="25">
+        <v>200</v>
+      </c>
+      <c r="H101" s="25">
+        <v>197</v>
+      </c>
+      <c r="I101" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" s="26">
+        <v>0</v>
+      </c>
+      <c r="K101" s="26">
+        <v>0</v>
+      </c>
+      <c r="L101" s="26">
+        <v>0</v>
+      </c>
+      <c r="M101" s="26">
+        <v>0</v>
+      </c>
+      <c r="N101" s="26">
+        <v>0</v>
+      </c>
+      <c r="O101" s="26">
+        <v>0</v>
+      </c>
+      <c r="P101" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="26">
+        <v>0</v>
+      </c>
+      <c r="R101" s="26">
+        <v>0</v>
+      </c>
+      <c r="S101" s="26">
+        <v>0</v>
+      </c>
+      <c r="T101" s="25">
+        <v>2</v>
+      </c>
+      <c r="U101" s="25">
+        <v>10</v>
+      </c>
+      <c r="V101" s="25">
+        <v>1</v>
+      </c>
+      <c r="W101" s="25">
+        <v>7</v>
+      </c>
+      <c r="X101" s="25">
+        <v>128000</v>
+      </c>
+      <c r="Y101" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z101" s="14">
+        <v>170000</v>
+      </c>
+      <c r="AA101" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB101" s="14">
+        <v>170000</v>
+      </c>
+      <c r="AC101" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD101" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="9">
+        <v>220000000</v>
+      </c>
+      <c r="AF101" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG101" s="28">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A102" s="25">
+        <v>100</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102" s="25">
+        <v>29</v>
+      </c>
+      <c r="E102" s="25">
+        <v>4</v>
+      </c>
+      <c r="F102" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G102" s="25">
+        <v>200</v>
+      </c>
+      <c r="H102" s="25">
+        <v>198</v>
+      </c>
+      <c r="I102" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" s="26">
+        <v>0</v>
+      </c>
+      <c r="K102" s="26">
+        <v>0</v>
+      </c>
+      <c r="L102" s="26">
+        <v>0</v>
+      </c>
+      <c r="M102" s="26">
+        <v>0</v>
+      </c>
+      <c r="N102" s="26">
+        <v>0</v>
+      </c>
+      <c r="O102" s="26">
+        <v>0</v>
+      </c>
+      <c r="P102" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="26">
+        <v>0</v>
+      </c>
+      <c r="R102" s="26">
+        <v>0</v>
+      </c>
+      <c r="S102" s="26">
+        <v>0</v>
+      </c>
+      <c r="T102" s="25">
+        <v>2</v>
+      </c>
+      <c r="U102" s="25">
+        <v>10</v>
+      </c>
+      <c r="V102" s="25">
+        <v>1</v>
+      </c>
+      <c r="W102" s="25">
+        <v>7</v>
+      </c>
+      <c r="X102" s="25">
+        <v>130000</v>
+      </c>
+      <c r="Y102" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z102" s="14">
+        <v>170000</v>
+      </c>
+      <c r="AA102" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB102" s="14">
+        <v>170000</v>
+      </c>
+      <c r="AC102" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD102" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="9">
+        <v>220000000</v>
+      </c>
+      <c r="AF102" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG102" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="25">
+        <v>101</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D103" s="10">
+        <v>9</v>
+      </c>
+      <c r="E103" s="10">
+        <v>4</v>
+      </c>
+      <c r="F103" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G103" s="10">
+        <v>200</v>
+      </c>
+      <c r="H103" s="10">
+        <v>75</v>
+      </c>
+      <c r="I103" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" s="11">
+        <v>0</v>
+      </c>
+      <c r="K103" s="11">
+        <v>0</v>
+      </c>
+      <c r="L103" s="11">
+        <v>0</v>
+      </c>
+      <c r="M103" s="11">
+        <v>0</v>
+      </c>
+      <c r="N103" s="11">
+        <v>0</v>
+      </c>
+      <c r="O103" s="11">
+        <v>0</v>
+      </c>
+      <c r="P103" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="11">
+        <v>0</v>
+      </c>
+      <c r="R103" s="11">
+        <v>0</v>
+      </c>
+      <c r="S103" s="11">
+        <v>0</v>
+      </c>
+      <c r="T103" s="10">
+        <v>2</v>
+      </c>
+      <c r="U103" s="10">
+        <v>10</v>
+      </c>
+      <c r="V103" s="10">
+        <v>1</v>
+      </c>
+      <c r="W103" s="10">
+        <v>7</v>
+      </c>
+      <c r="X103" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF103" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG103" s="28">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8063B6F-6055-43DE-BBFD-AA5C697AB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C0C43-3C7E-423A-BEE6-840B382E3EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="341">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,6 +1312,41 @@
   </si>
   <si>
     <t>8월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook102</t>
+  </si>
+  <si>
+    <t>magicBook103</t>
+  </si>
+  <si>
+    <t>magicBook104</t>
+  </si>
+  <si>
+    <t>투명 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십만대산 추천보상에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천귀사신 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마영독군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+천귀사신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+마영독군에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1856,11 +1891,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG103"/>
+  <dimension ref="A1:AG106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE104" sqref="AE104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12290,6 +12325,309 @@
         <v>331</v>
       </c>
       <c r="AG103" s="28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="25">
+        <v>102</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="D104" s="25">
+        <v>29</v>
+      </c>
+      <c r="E104" s="25">
+        <v>4</v>
+      </c>
+      <c r="F104" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G104" s="25">
+        <v>200</v>
+      </c>
+      <c r="H104" s="25">
+        <v>201</v>
+      </c>
+      <c r="I104" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" s="26">
+        <v>0</v>
+      </c>
+      <c r="K104" s="26">
+        <v>0</v>
+      </c>
+      <c r="L104" s="26">
+        <v>0</v>
+      </c>
+      <c r="M104" s="26">
+        <v>0</v>
+      </c>
+      <c r="N104" s="26">
+        <v>0</v>
+      </c>
+      <c r="O104" s="26">
+        <v>0</v>
+      </c>
+      <c r="P104" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="26">
+        <v>0</v>
+      </c>
+      <c r="R104" s="26">
+        <v>0</v>
+      </c>
+      <c r="S104" s="26">
+        <v>0</v>
+      </c>
+      <c r="T104" s="25">
+        <v>2</v>
+      </c>
+      <c r="U104" s="25">
+        <v>10</v>
+      </c>
+      <c r="V104" s="25">
+        <v>1</v>
+      </c>
+      <c r="W104" s="25">
+        <v>7</v>
+      </c>
+      <c r="X104" s="25">
+        <v>132000</v>
+      </c>
+      <c r="Y104" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z104" s="14">
+        <v>190000</v>
+      </c>
+      <c r="AA104" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB104" s="14">
+        <v>190000</v>
+      </c>
+      <c r="AC104" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="9">
+        <v>240000000</v>
+      </c>
+      <c r="AF104" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG104" s="28">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A105" s="25">
+        <v>103</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D105" s="25">
+        <v>29</v>
+      </c>
+      <c r="E105" s="25">
+        <v>4</v>
+      </c>
+      <c r="F105" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G105" s="25">
+        <v>200</v>
+      </c>
+      <c r="H105" s="25">
+        <v>202</v>
+      </c>
+      <c r="I105" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" s="26">
+        <v>0</v>
+      </c>
+      <c r="K105" s="26">
+        <v>0</v>
+      </c>
+      <c r="L105" s="26">
+        <v>0</v>
+      </c>
+      <c r="M105" s="26">
+        <v>0</v>
+      </c>
+      <c r="N105" s="26">
+        <v>0</v>
+      </c>
+      <c r="O105" s="26">
+        <v>0</v>
+      </c>
+      <c r="P105" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="26">
+        <v>0</v>
+      </c>
+      <c r="R105" s="26">
+        <v>0</v>
+      </c>
+      <c r="S105" s="26">
+        <v>0</v>
+      </c>
+      <c r="T105" s="25">
+        <v>2</v>
+      </c>
+      <c r="U105" s="25">
+        <v>10</v>
+      </c>
+      <c r="V105" s="25">
+        <v>1</v>
+      </c>
+      <c r="W105" s="25">
+        <v>7</v>
+      </c>
+      <c r="X105" s="25">
+        <v>134000</v>
+      </c>
+      <c r="Y105" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z105" s="14">
+        <v>190000</v>
+      </c>
+      <c r="AA105" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB105" s="14">
+        <v>190000</v>
+      </c>
+      <c r="AC105" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD105" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="9">
+        <v>240000000</v>
+      </c>
+      <c r="AF105" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG105" s="28">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="25">
+        <v>104</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D106" s="10">
+        <v>9</v>
+      </c>
+      <c r="E106" s="10">
+        <v>4</v>
+      </c>
+      <c r="F106" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G106" s="10">
+        <v>200</v>
+      </c>
+      <c r="H106" s="10">
+        <v>75</v>
+      </c>
+      <c r="I106" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" s="11">
+        <v>0</v>
+      </c>
+      <c r="K106" s="11">
+        <v>0</v>
+      </c>
+      <c r="L106" s="11">
+        <v>0</v>
+      </c>
+      <c r="M106" s="11">
+        <v>0</v>
+      </c>
+      <c r="N106" s="11">
+        <v>0</v>
+      </c>
+      <c r="O106" s="11">
+        <v>0</v>
+      </c>
+      <c r="P106" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="11">
+        <v>0</v>
+      </c>
+      <c r="R106" s="11">
+        <v>0</v>
+      </c>
+      <c r="S106" s="11">
+        <v>0</v>
+      </c>
+      <c r="T106" s="10">
+        <v>2</v>
+      </c>
+      <c r="U106" s="10">
+        <v>10</v>
+      </c>
+      <c r="V106" s="10">
+        <v>1</v>
+      </c>
+      <c r="W106" s="10">
+        <v>7</v>
+      </c>
+      <c r="X106" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD106" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF106" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="AG106" s="28">
         <v>101</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4C0C43-3C7E-423A-BEE6-840B382E3EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D6DCF7-CA77-4DFA-8927-DB92245809AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="347">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1347,6 +1347,29 @@
   <si>
     <t>현상수배
 마영독군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook105</t>
+  </si>
+  <si>
+    <t>magicBook106</t>
+  </si>
+  <si>
+    <t>9월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+독왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1891,11 +1914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG106"/>
+  <dimension ref="A1:AG108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE104" sqref="AE104"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12126,7 +12149,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>100</v>
       </c>
@@ -12628,7 +12651,209 @@
         <v>336</v>
       </c>
       <c r="AG106" s="28">
-        <v>101</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="A107" s="25">
+        <v>105</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D107" s="25">
+        <v>29</v>
+      </c>
+      <c r="E107" s="25">
+        <v>4</v>
+      </c>
+      <c r="F107" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G107" s="25">
+        <v>200</v>
+      </c>
+      <c r="H107" s="25">
+        <v>204</v>
+      </c>
+      <c r="I107" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" s="26">
+        <v>0</v>
+      </c>
+      <c r="K107" s="26">
+        <v>0</v>
+      </c>
+      <c r="L107" s="26">
+        <v>0</v>
+      </c>
+      <c r="M107" s="26">
+        <v>0</v>
+      </c>
+      <c r="N107" s="26">
+        <v>0</v>
+      </c>
+      <c r="O107" s="26">
+        <v>0</v>
+      </c>
+      <c r="P107" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="26">
+        <v>0</v>
+      </c>
+      <c r="R107" s="26">
+        <v>0</v>
+      </c>
+      <c r="S107" s="26">
+        <v>0</v>
+      </c>
+      <c r="T107" s="25">
+        <v>2</v>
+      </c>
+      <c r="U107" s="25">
+        <v>10</v>
+      </c>
+      <c r="V107" s="25">
+        <v>1</v>
+      </c>
+      <c r="W107" s="25">
+        <v>7</v>
+      </c>
+      <c r="X107" s="25">
+        <v>136000</v>
+      </c>
+      <c r="Y107" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z107" s="14">
+        <v>210000</v>
+      </c>
+      <c r="AA107" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB107" s="14">
+        <v>210000</v>
+      </c>
+      <c r="AC107" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD107" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="9">
+        <v>260000000</v>
+      </c>
+      <c r="AF107" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG107" s="28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="25">
+        <v>106</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" s="10">
+        <v>9</v>
+      </c>
+      <c r="E108" s="10">
+        <v>4</v>
+      </c>
+      <c r="F108" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G108" s="10">
+        <v>200</v>
+      </c>
+      <c r="H108" s="10">
+        <v>75</v>
+      </c>
+      <c r="I108" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" s="11">
+        <v>0</v>
+      </c>
+      <c r="K108" s="11">
+        <v>0</v>
+      </c>
+      <c r="L108" s="11">
+        <v>0</v>
+      </c>
+      <c r="M108" s="11">
+        <v>0</v>
+      </c>
+      <c r="N108" s="11">
+        <v>0</v>
+      </c>
+      <c r="O108" s="11">
+        <v>0</v>
+      </c>
+      <c r="P108" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="11">
+        <v>0</v>
+      </c>
+      <c r="R108" s="11">
+        <v>0</v>
+      </c>
+      <c r="S108" s="11">
+        <v>0</v>
+      </c>
+      <c r="T108" s="10">
+        <v>2</v>
+      </c>
+      <c r="U108" s="10">
+        <v>10</v>
+      </c>
+      <c r="V108" s="10">
+        <v>1</v>
+      </c>
+      <c r="W108" s="10">
+        <v>7</v>
+      </c>
+      <c r="X108" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD108" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF108" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG108" s="28">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D6DCF7-CA77-4DFA-8927-DB92245809AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47987643-620C-46AF-AE2D-2043A6572967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="353">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1370,6 +1370,30 @@
   <si>
     <t>현상수배
 독왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook107</t>
+  </si>
+  <si>
+    <t>magicBook108</t>
+  </si>
+  <si>
+    <t>백수뇌군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌제 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+백수뇌군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+뇌제에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1914,11 +1938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG108"/>
+  <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF109" sqref="AF109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12348,6 +12372,7 @@
         <v>331</v>
       </c>
       <c r="AG103" s="28">
+        <f t="shared" ref="AG103:AG108" si="0">ROW()-2</f>
         <v>101</v>
       </c>
     </row>
@@ -12449,6 +12474,7 @@
         <v>339</v>
       </c>
       <c r="AG104" s="28">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
     </row>
@@ -12550,6 +12576,7 @@
         <v>340</v>
       </c>
       <c r="AG105" s="28">
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
     </row>
@@ -12651,6 +12678,7 @@
         <v>336</v>
       </c>
       <c r="AG106" s="28">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
     </row>
@@ -12752,6 +12780,7 @@
         <v>346</v>
       </c>
       <c r="AG107" s="28">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
     </row>
@@ -12853,7 +12882,212 @@
         <v>344</v>
       </c>
       <c r="AG108" s="28">
+        <f t="shared" si="0"/>
         <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="25">
+        <v>107</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D109" s="25">
+        <v>29</v>
+      </c>
+      <c r="E109" s="25">
+        <v>4</v>
+      </c>
+      <c r="F109" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G109" s="25">
+        <v>200</v>
+      </c>
+      <c r="H109" s="25">
+        <v>206</v>
+      </c>
+      <c r="I109" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" s="26">
+        <v>0</v>
+      </c>
+      <c r="K109" s="26">
+        <v>0</v>
+      </c>
+      <c r="L109" s="26">
+        <v>0</v>
+      </c>
+      <c r="M109" s="26">
+        <v>0</v>
+      </c>
+      <c r="N109" s="26">
+        <v>0</v>
+      </c>
+      <c r="O109" s="26">
+        <v>0</v>
+      </c>
+      <c r="P109" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="26">
+        <v>0</v>
+      </c>
+      <c r="R109" s="26">
+        <v>0</v>
+      </c>
+      <c r="S109" s="26">
+        <v>0</v>
+      </c>
+      <c r="T109" s="25">
+        <v>2</v>
+      </c>
+      <c r="U109" s="25">
+        <v>10</v>
+      </c>
+      <c r="V109" s="25">
+        <v>1</v>
+      </c>
+      <c r="W109" s="25">
+        <v>7</v>
+      </c>
+      <c r="X109" s="25">
+        <v>138000</v>
+      </c>
+      <c r="Y109" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z109" s="14">
+        <v>230000</v>
+      </c>
+      <c r="AA109" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB109" s="14">
+        <v>230000</v>
+      </c>
+      <c r="AC109" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD109" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="9">
+        <v>280000000</v>
+      </c>
+      <c r="AF109" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="AG109" s="28">
+        <f>ROW()-2</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="A110" s="25">
+        <v>108</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D110" s="25">
+        <v>29</v>
+      </c>
+      <c r="E110" s="25">
+        <v>4</v>
+      </c>
+      <c r="F110" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G110" s="25">
+        <v>200</v>
+      </c>
+      <c r="H110" s="25">
+        <v>208</v>
+      </c>
+      <c r="I110" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" s="26">
+        <v>0</v>
+      </c>
+      <c r="K110" s="26">
+        <v>0</v>
+      </c>
+      <c r="L110" s="26">
+        <v>0</v>
+      </c>
+      <c r="M110" s="26">
+        <v>0</v>
+      </c>
+      <c r="N110" s="26">
+        <v>0</v>
+      </c>
+      <c r="O110" s="26">
+        <v>0</v>
+      </c>
+      <c r="P110" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="26">
+        <v>0</v>
+      </c>
+      <c r="R110" s="26">
+        <v>0</v>
+      </c>
+      <c r="S110" s="26">
+        <v>0</v>
+      </c>
+      <c r="T110" s="25">
+        <v>2</v>
+      </c>
+      <c r="U110" s="25">
+        <v>10</v>
+      </c>
+      <c r="V110" s="25">
+        <v>1</v>
+      </c>
+      <c r="W110" s="25">
+        <v>7</v>
+      </c>
+      <c r="X110" s="25">
+        <v>140000</v>
+      </c>
+      <c r="Y110" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z110" s="14">
+        <v>230000</v>
+      </c>
+      <c r="AA110" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB110" s="14">
+        <v>230000</v>
+      </c>
+      <c r="AC110" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD110" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="9">
+        <v>280000000</v>
+      </c>
+      <c r="AF110" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG110" s="28">
+        <f>ROW()-2</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47987643-620C-46AF-AE2D-2043A6572967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4631FEE1-B0DF-4541-9A78-41F6BEA9931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="358">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,6 +1394,25 @@
   <si>
     <t>현상수배
 뇌제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook109</t>
+  </si>
+  <si>
+    <t>magicBook110</t>
+  </si>
+  <si>
+    <t>10월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑묘살수 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+흑묘살수에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1938,11 +1957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG110"/>
+  <dimension ref="A1:AG112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF109" sqref="AF109"/>
+      <selection pane="bottomLeft" activeCell="AF111" sqref="AF111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13088,6 +13107,210 @@
       <c r="AG110" s="28">
         <f>ROW()-2</f>
         <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="25">
+        <v>109</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="D111" s="25">
+        <v>29</v>
+      </c>
+      <c r="E111" s="25">
+        <v>4</v>
+      </c>
+      <c r="F111" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G111" s="25">
+        <v>200</v>
+      </c>
+      <c r="H111" s="25">
+        <v>210</v>
+      </c>
+      <c r="I111" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" s="26">
+        <v>0</v>
+      </c>
+      <c r="K111" s="26">
+        <v>0</v>
+      </c>
+      <c r="L111" s="26">
+        <v>0</v>
+      </c>
+      <c r="M111" s="26">
+        <v>0</v>
+      </c>
+      <c r="N111" s="26">
+        <v>0</v>
+      </c>
+      <c r="O111" s="26">
+        <v>0</v>
+      </c>
+      <c r="P111" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="26">
+        <v>0</v>
+      </c>
+      <c r="R111" s="26">
+        <v>0</v>
+      </c>
+      <c r="S111" s="26">
+        <v>0</v>
+      </c>
+      <c r="T111" s="25">
+        <v>2</v>
+      </c>
+      <c r="U111" s="25">
+        <v>10</v>
+      </c>
+      <c r="V111" s="25">
+        <v>1</v>
+      </c>
+      <c r="W111" s="25">
+        <v>7</v>
+      </c>
+      <c r="X111" s="25">
+        <v>142000</v>
+      </c>
+      <c r="Y111" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z111" s="14">
+        <v>250000</v>
+      </c>
+      <c r="AA111" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB111" s="14">
+        <v>250000</v>
+      </c>
+      <c r="AC111" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD111" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="9">
+        <v>300000000</v>
+      </c>
+      <c r="AF111" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG111" s="28">
+        <f>ROW()-2</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="25">
+        <v>110</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D112" s="10">
+        <v>9</v>
+      </c>
+      <c r="E112" s="10">
+        <v>4</v>
+      </c>
+      <c r="F112" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G112" s="10">
+        <v>200</v>
+      </c>
+      <c r="H112" s="10">
+        <v>75</v>
+      </c>
+      <c r="I112" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11">
+        <v>0</v>
+      </c>
+      <c r="P112" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="11">
+        <v>0</v>
+      </c>
+      <c r="R112" s="11">
+        <v>0</v>
+      </c>
+      <c r="S112" s="11">
+        <v>0</v>
+      </c>
+      <c r="T112" s="10">
+        <v>2</v>
+      </c>
+      <c r="U112" s="10">
+        <v>10</v>
+      </c>
+      <c r="V112" s="10">
+        <v>1</v>
+      </c>
+      <c r="W112" s="10">
+        <v>7</v>
+      </c>
+      <c r="X112" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD112" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF112" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG112" s="28">
+        <f t="shared" ref="AG112" si="1">ROW()-2</f>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4631FEE1-B0DF-4541-9A78-41F6BEA9931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4598D1-0E04-4B4C-9216-AFFC764CE42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
-    <sheet name="Prob" sheetId="2" r:id="rId2"/>
+    <sheet name="TransBalance" sheetId="3" r:id="rId2"/>
+    <sheet name="Prob" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MagicBook!$A$1:$AE$60</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="472">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1413,6 +1414,360 @@
   <si>
     <t>현상수배
 흑묘살수에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook111</t>
+  </si>
+  <si>
+    <t>TransRequireValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransEffectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무 노리개</t>
+  </si>
+  <si>
+    <t>백호 노리개</t>
+  </si>
+  <si>
+    <t>주작 노리개</t>
+  </si>
+  <si>
+    <t>청룡 노리개</t>
+  </si>
+  <si>
+    <t>magicBook20</t>
+  </si>
+  <si>
+    <t>황룡 노리개</t>
+  </si>
+  <si>
+    <t>magicBook21</t>
+  </si>
+  <si>
+    <t>흑룡 노리개</t>
+  </si>
+  <si>
+    <t>magicBook22</t>
+  </si>
+  <si>
+    <t>해태 노리개</t>
+  </si>
+  <si>
+    <t>magicBook24</t>
+  </si>
+  <si>
+    <t>삼족오 노리개</t>
+  </si>
+  <si>
+    <t>magicBook25</t>
+  </si>
+  <si>
+    <t>기린 노리개</t>
+  </si>
+  <si>
+    <t>magicBook26</t>
+  </si>
+  <si>
+    <t>달토끼 노리개</t>
+  </si>
+  <si>
+    <t>magicBook27</t>
+  </si>
+  <si>
+    <t>삼목구 노리개</t>
+  </si>
+  <si>
+    <t>magicBook28</t>
+  </si>
+  <si>
+    <t>구미호 노리개</t>
+  </si>
+  <si>
+    <t>magicBook29</t>
+  </si>
+  <si>
+    <t>천마 노리개</t>
+  </si>
+  <si>
+    <t>차사 노리개</t>
+  </si>
+  <si>
+    <t>magicBook31</t>
+  </si>
+  <si>
+    <t>염라 노리개</t>
+  </si>
+  <si>
+    <t>여래 노리개</t>
+  </si>
+  <si>
+    <t>magicBook33</t>
+  </si>
+  <si>
+    <t>강림 노리개</t>
+  </si>
+  <si>
+    <t>magicBook34</t>
+  </si>
+  <si>
+    <t>불멸 노리개</t>
+  </si>
+  <si>
+    <t>적선녀 노리개</t>
+  </si>
+  <si>
+    <t>등선녀 노리개</t>
+  </si>
+  <si>
+    <t>황선녀 노리개</t>
+  </si>
+  <si>
+    <t>녹선녀 노리개</t>
+  </si>
+  <si>
+    <t>청선녀 노리개</t>
+  </si>
+  <si>
+    <t>남선녀 노리개</t>
+  </si>
+  <si>
+    <t>자선녀 노리개</t>
+  </si>
+  <si>
+    <t>혈량 노리개</t>
+  </si>
+  <si>
+    <t>뇌량 노리개</t>
+  </si>
+  <si>
+    <t>암량 노리개</t>
+  </si>
+  <si>
+    <t>화량 노리개</t>
+  </si>
+  <si>
+    <t>설량 노리개</t>
+  </si>
+  <si>
+    <t>미량 노리개</t>
+  </si>
+  <si>
+    <t>흑량 노리개</t>
+  </si>
+  <si>
+    <t>magicBook51</t>
+  </si>
+  <si>
+    <t>남량 노리개</t>
+  </si>
+  <si>
+    <t>magicBook52</t>
+  </si>
+  <si>
+    <t>여량 노리개</t>
+  </si>
+  <si>
+    <t>magicBook53</t>
+  </si>
+  <si>
+    <t>우량 노리개</t>
+  </si>
+  <si>
+    <t>지국천왕 노리개</t>
+  </si>
+  <si>
+    <t>magicBook55</t>
+  </si>
+  <si>
+    <t>광목천왕 노리개</t>
+  </si>
+  <si>
+    <t>magicBook57</t>
+  </si>
+  <si>
+    <t>증장천왕 노리개</t>
+  </si>
+  <si>
+    <t>magicBook58</t>
+  </si>
+  <si>
+    <t>다문천왕 노리개</t>
+  </si>
+  <si>
+    <t>아수라 노리개</t>
+  </si>
+  <si>
+    <t>인드라 노리개</t>
+  </si>
+  <si>
+    <t>아드라 노리개</t>
+  </si>
+  <si>
+    <t>일지매 노리개</t>
+  </si>
+  <si>
+    <t>임꺽정 노리개</t>
+  </si>
+  <si>
+    <t>전우치 노리개</t>
+  </si>
+  <si>
+    <t>홍길동 노리개</t>
+  </si>
+  <si>
+    <t>쿠노이치 노리개</t>
+  </si>
+  <si>
+    <t>시노비 노리개</t>
+  </si>
+  <si>
+    <t>카게 노리개</t>
+  </si>
+  <si>
+    <t>측천무후 노리개</t>
+  </si>
+  <si>
+    <t>항우 노리개</t>
+  </si>
+  <si>
+    <t>조조 노리개</t>
+  </si>
+  <si>
+    <t>진시황 노리개</t>
+  </si>
+  <si>
+    <t>magicBook75</t>
+  </si>
+  <si>
+    <t>무명무사 노리개</t>
+  </si>
+  <si>
+    <t>암흑무사 노리개</t>
+  </si>
+  <si>
+    <t>칠흑무사 노리개</t>
+  </si>
+  <si>
+    <t>타락무사 노리개</t>
+  </si>
+  <si>
+    <t>혼돈무사 노리개</t>
+  </si>
+  <si>
+    <t>무명왕 노리개</t>
+  </si>
+  <si>
+    <t>암흑왕 노리개</t>
+  </si>
+  <si>
+    <t>불사왕 노리개</t>
+  </si>
+  <si>
+    <t>방랑신선 노리개</t>
+  </si>
+  <si>
+    <t>광명신선 노리개</t>
+  </si>
+  <si>
+    <t>서월신선 노리개</t>
+  </si>
+  <si>
+    <t>화영신선 노리개</t>
+  </si>
+  <si>
+    <t>천명신선 노리개</t>
+  </si>
+  <si>
+    <t>암영천선 노리개</t>
+  </si>
+  <si>
+    <t>혈향천선 노리개</t>
+  </si>
+  <si>
+    <t>홍랑천선 노리개</t>
+  </si>
+  <si>
+    <t>설화천선 노리개</t>
+  </si>
+  <si>
+    <t>음혼마군 노리개</t>
+  </si>
+  <si>
+    <t>귀왕 노리개</t>
+  </si>
+  <si>
+    <t>만독귀의 노리개</t>
+  </si>
+  <si>
+    <t>사령신군 노리개</t>
+  </si>
+  <si>
+    <t>동악신로 노리개</t>
+  </si>
+  <si>
+    <t>음명진군 노리개</t>
+  </si>
+  <si>
+    <t>천귀사신 노리개</t>
+  </si>
+  <si>
+    <t>마영독군 노리개</t>
+  </si>
+  <si>
+    <t>투명 노리개</t>
+  </si>
+  <si>
+    <t>독왕 노리개</t>
+  </si>
+  <si>
+    <t>백수뇌군 노리개</t>
+  </si>
+  <si>
+    <t>뇌제 노리개</t>
+  </si>
+  <si>
+    <t>흑묘살수 노리개</t>
+  </si>
+  <si>
+    <t>magicBook111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+삼천왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼천왕 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1957,11 +2312,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG112"/>
+  <dimension ref="A1:AJ113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF111" sqref="AF111"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1989,9 +2344,12 @@
     <col min="30" max="30" width="19.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.75" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2091,8 +2449,17 @@
       <c r="AG1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2192,8 +2559,19 @@
       <c r="AG2" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH2" s="28">
+        <f>IFERROR(VLOOKUP(A2,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="28">
+        <f>IFERROR(VLOOKUP(A2,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2293,8 +2671,19 @@
       <c r="AG3" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3" s="28">
+        <f>IFERROR(VLOOKUP(A3,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="28">
+        <f>IFERROR(VLOOKUP(A3,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2394,8 +2783,19 @@
       <c r="AG4" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4" s="28">
+        <f>IFERROR(VLOOKUP(A4,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="28">
+        <f>IFERROR(VLOOKUP(A4,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2495,8 +2895,19 @@
       <c r="AG5" s="28">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH5" s="28">
+        <f>IFERROR(VLOOKUP(A5,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ5" s="28">
+        <f>IFERROR(VLOOKUP(A5,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2596,8 +3007,19 @@
       <c r="AG6" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH6" s="28">
+        <f>IFERROR(VLOOKUP(A6,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="28">
+        <f>IFERROR(VLOOKUP(A6,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2697,8 +3119,19 @@
       <c r="AG7" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH7" s="28">
+        <f>IFERROR(VLOOKUP(A7,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ7" s="28">
+        <f>IFERROR(VLOOKUP(A7,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2798,8 +3231,19 @@
       <c r="AG8" s="28">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH8" s="28">
+        <f>IFERROR(VLOOKUP(A8,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ8" s="28">
+        <f>IFERROR(VLOOKUP(A8,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2899,8 +3343,19 @@
       <c r="AG9" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH9" s="28">
+        <f>IFERROR(VLOOKUP(A9,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ9" s="28">
+        <f>IFERROR(VLOOKUP(A9,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -3000,8 +3455,19 @@
       <c r="AG10" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH10" s="28">
+        <f>IFERROR(VLOOKUP(A10,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ10" s="28">
+        <f>IFERROR(VLOOKUP(A10,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -3101,8 +3567,19 @@
       <c r="AG11" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH11" s="28">
+        <f>IFERROR(VLOOKUP(A11,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ11" s="28">
+        <f>IFERROR(VLOOKUP(A11,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3202,8 +3679,19 @@
       <c r="AG12" s="28">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH12" s="28">
+        <f>IFERROR(VLOOKUP(A12,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ12" s="28">
+        <f>IFERROR(VLOOKUP(A12,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3303,8 +3791,19 @@
       <c r="AG13" s="28">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH13" s="28">
+        <f>IFERROR(VLOOKUP(A13,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ13" s="28">
+        <f>IFERROR(VLOOKUP(A13,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3404,8 +3903,19 @@
       <c r="AG14" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH14" s="28">
+        <f>IFERROR(VLOOKUP(A14,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ14" s="28">
+        <f>IFERROR(VLOOKUP(A14,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3505,8 +4015,19 @@
       <c r="AG15" s="28">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH15" s="28">
+        <f>IFERROR(VLOOKUP(A15,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ15" s="28">
+        <f>IFERROR(VLOOKUP(A15,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3606,8 +4127,19 @@
       <c r="AG16" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH16" s="28">
+        <f>IFERROR(VLOOKUP(A16,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ16" s="28">
+        <f>IFERROR(VLOOKUP(A16,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3707,8 +4239,19 @@
       <c r="AG17" s="28">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH17" s="28">
+        <f>IFERROR(VLOOKUP(A17,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ17" s="28">
+        <f>IFERROR(VLOOKUP(A17,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -3808,8 +4351,19 @@
       <c r="AG18" s="28">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH18" s="28">
+        <f>IFERROR(VLOOKUP(A18,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI18" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ18" s="28">
+        <f>IFERROR(VLOOKUP(A18,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -3909,8 +4463,19 @@
       <c r="AG19" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH19" s="28">
+        <f>IFERROR(VLOOKUP(A19,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI19" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ19" s="28">
+        <f>IFERROR(VLOOKUP(A19,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -4010,8 +4575,19 @@
       <c r="AG20" s="28">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH20" s="28">
+        <f>IFERROR(VLOOKUP(A20,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI20" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ20" s="28">
+        <f>IFERROR(VLOOKUP(A20,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -4111,8 +4687,19 @@
       <c r="AG21" s="28">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH21" s="28">
+        <f>IFERROR(VLOOKUP(A21,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI21" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ21" s="28">
+        <f>IFERROR(VLOOKUP(A21,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -4212,8 +4799,19 @@
       <c r="AG22" s="28">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AH22" s="28">
+        <f>IFERROR(VLOOKUP(A22,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI22" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ22" s="28">
+        <f>IFERROR(VLOOKUP(A22,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -4313,8 +4911,19 @@
       <c r="AG23" s="28">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH23" s="28">
+        <f>IFERROR(VLOOKUP(A23,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI23" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ23" s="28">
+        <f>IFERROR(VLOOKUP(A23,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -4414,8 +5023,19 @@
       <c r="AG24" s="28">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH24" s="28">
+        <f>IFERROR(VLOOKUP(A24,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI24" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ24" s="28">
+        <f>IFERROR(VLOOKUP(A24,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -4515,8 +5135,19 @@
       <c r="AG25" s="28">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH25" s="28">
+        <f>IFERROR(VLOOKUP(A25,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ25" s="28">
+        <f>IFERROR(VLOOKUP(A25,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>24</v>
       </c>
@@ -4616,8 +5247,19 @@
       <c r="AG26" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:33" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH26" s="28">
+        <f>IFERROR(VLOOKUP(A26,TransBalance!D:J,6,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI26" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ26" s="28">
+        <f>IFERROR(VLOOKUP(A26,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -4717,8 +5359,19 @@
       <c r="AG27" s="28">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH27" s="28">
+        <f>IFERROR(VLOOKUP(A27,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI27" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ27" s="28">
+        <f>IFERROR(VLOOKUP(A27,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -4818,8 +5471,19 @@
       <c r="AG28" s="28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH28" s="28">
+        <f>IFERROR(VLOOKUP(A28,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI28" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ28" s="28">
+        <f>IFERROR(VLOOKUP(A28,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -4919,8 +5583,19 @@
       <c r="AG29" s="28">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH29" s="28">
+        <f>IFERROR(VLOOKUP(A29,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI29" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ29" s="28">
+        <f>IFERROR(VLOOKUP(A29,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -5020,8 +5695,19 @@
       <c r="AG30" s="28">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH30" s="28">
+        <f>IFERROR(VLOOKUP(A30,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI30" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ30" s="28">
+        <f>IFERROR(VLOOKUP(A30,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -5121,8 +5807,19 @@
       <c r="AG31" s="28">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH31" s="28">
+        <f>IFERROR(VLOOKUP(A31,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI31" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ31" s="28">
+        <f>IFERROR(VLOOKUP(A31,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>30</v>
       </c>
@@ -5222,8 +5919,19 @@
       <c r="AG32" s="28">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH32" s="28">
+        <f>IFERROR(VLOOKUP(A32,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI32" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ32" s="28">
+        <f>IFERROR(VLOOKUP(A32,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -5323,8 +6031,19 @@
       <c r="AG33" s="28">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH33" s="28">
+        <f>IFERROR(VLOOKUP(A33,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI33" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ33" s="28">
+        <f>IFERROR(VLOOKUP(A33,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5424,8 +6143,19 @@
       <c r="AG34" s="28">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH34" s="28">
+        <f>IFERROR(VLOOKUP(A34,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI34" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ34" s="28">
+        <f>IFERROR(VLOOKUP(A34,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -5525,8 +6255,19 @@
       <c r="AG35" s="28">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH35" s="28">
+        <f>IFERROR(VLOOKUP(A35,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI35" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ35" s="28">
+        <f>IFERROR(VLOOKUP(A35,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>34</v>
       </c>
@@ -5626,8 +6367,19 @@
       <c r="AG36" s="28">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH36" s="28">
+        <f>IFERROR(VLOOKUP(A36,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI36" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ36" s="28">
+        <f>IFERROR(VLOOKUP(A36,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>35</v>
       </c>
@@ -5727,8 +6479,19 @@
       <c r="AG37" s="28">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH37" s="28">
+        <f>IFERROR(VLOOKUP(A37,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI37" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ37" s="28">
+        <f>IFERROR(VLOOKUP(A37,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>36</v>
       </c>
@@ -5828,8 +6591,19 @@
       <c r="AG38" s="28">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH38" s="28">
+        <f>IFERROR(VLOOKUP(A38,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI38" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ38" s="28">
+        <f>IFERROR(VLOOKUP(A38,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -5929,8 +6703,19 @@
       <c r="AG39" s="28">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH39" s="28">
+        <f>IFERROR(VLOOKUP(A39,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI39" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ39" s="28">
+        <f>IFERROR(VLOOKUP(A39,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -6030,8 +6815,19 @@
       <c r="AG40" s="28">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH40" s="28">
+        <f>IFERROR(VLOOKUP(A40,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI40" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ40" s="28">
+        <f>IFERROR(VLOOKUP(A40,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -6131,8 +6927,19 @@
       <c r="AG41" s="28">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH41" s="28">
+        <f>IFERROR(VLOOKUP(A41,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI41" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ41" s="28">
+        <f>IFERROR(VLOOKUP(A41,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -6232,8 +7039,19 @@
       <c r="AG42" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH42" s="28">
+        <f>IFERROR(VLOOKUP(A42,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI42" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ42" s="28">
+        <f>IFERROR(VLOOKUP(A42,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>41</v>
       </c>
@@ -6333,8 +7151,19 @@
       <c r="AG43" s="28">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH43" s="28">
+        <f>IFERROR(VLOOKUP(A43,TransBalance!D:J,6,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI43" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ43" s="28">
+        <f>IFERROR(VLOOKUP(A43,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>42</v>
       </c>
@@ -6434,8 +7263,19 @@
       <c r="AG44" s="28">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH44" s="28">
+        <f>IFERROR(VLOOKUP(A44,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI44" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ44" s="28">
+        <f>IFERROR(VLOOKUP(A44,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>43</v>
       </c>
@@ -6535,8 +7375,19 @@
       <c r="AG45" s="28">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH45" s="28">
+        <f>IFERROR(VLOOKUP(A45,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI45" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ45" s="28">
+        <f>IFERROR(VLOOKUP(A45,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>44</v>
       </c>
@@ -6636,8 +7487,19 @@
       <c r="AG46" s="28">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH46" s="28">
+        <f>IFERROR(VLOOKUP(A46,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI46" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ46" s="28">
+        <f>IFERROR(VLOOKUP(A46,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -6737,8 +7599,19 @@
       <c r="AG47" s="28">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH47" s="28">
+        <f>IFERROR(VLOOKUP(A47,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ47" s="28">
+        <f>IFERROR(VLOOKUP(A47,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>46</v>
       </c>
@@ -6838,8 +7711,19 @@
       <c r="AG48" s="28">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH48" s="28">
+        <f>IFERROR(VLOOKUP(A48,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI48" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ48" s="28">
+        <f>IFERROR(VLOOKUP(A48,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>47</v>
       </c>
@@ -6939,8 +7823,19 @@
       <c r="AG49" s="28">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH49" s="28">
+        <f>IFERROR(VLOOKUP(A49,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI49" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ49" s="28">
+        <f>IFERROR(VLOOKUP(A49,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>48</v>
       </c>
@@ -7040,8 +7935,19 @@
       <c r="AG50" s="28">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH50" s="28">
+        <f>IFERROR(VLOOKUP(A50,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI50" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ50" s="28">
+        <f>IFERROR(VLOOKUP(A50,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>49</v>
       </c>
@@ -7141,8 +8047,19 @@
       <c r="AG51" s="28">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH51" s="28">
+        <f>IFERROR(VLOOKUP(A51,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI51" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ51" s="28">
+        <f>IFERROR(VLOOKUP(A51,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -7242,8 +8159,19 @@
       <c r="AG52" s="28">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH52" s="28">
+        <f>IFERROR(VLOOKUP(A52,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI52" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ52" s="28">
+        <f>IFERROR(VLOOKUP(A52,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>51</v>
       </c>
@@ -7343,8 +8271,19 @@
       <c r="AG53" s="28">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH53" s="28">
+        <f>IFERROR(VLOOKUP(A53,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI53" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ53" s="28">
+        <f>IFERROR(VLOOKUP(A53,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>52</v>
       </c>
@@ -7444,8 +8383,19 @@
       <c r="AG54" s="28">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH54" s="28">
+        <f>IFERROR(VLOOKUP(A54,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI54" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ54" s="28">
+        <f>IFERROR(VLOOKUP(A54,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>53</v>
       </c>
@@ -7545,8 +8495,19 @@
       <c r="AG55" s="28">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:33" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH55" s="28">
+        <f>IFERROR(VLOOKUP(A55,TransBalance!D:J,6,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="AI55" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ55" s="28">
+        <f>IFERROR(VLOOKUP(A55,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>54</v>
       </c>
@@ -7646,8 +8607,19 @@
       <c r="AG56" s="28">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:33" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH56" s="28">
+        <f>IFERROR(VLOOKUP(A56,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AI56" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ56" s="28">
+        <f>IFERROR(VLOOKUP(A56,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>55</v>
       </c>
@@ -7747,8 +8719,19 @@
       <c r="AG57" s="28">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH57" s="28">
+        <f>IFERROR(VLOOKUP(A57,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AI57" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ57" s="28">
+        <f>IFERROR(VLOOKUP(A57,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -7848,8 +8831,19 @@
       <c r="AG58" s="28">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH58" s="28">
+        <f>IFERROR(VLOOKUP(A58,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI58" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ58" s="28">
+        <f>IFERROR(VLOOKUP(A58,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>57</v>
       </c>
@@ -7949,8 +8943,19 @@
       <c r="AG59" s="28">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH59" s="28">
+        <f>IFERROR(VLOOKUP(A59,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AI59" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ59" s="28">
+        <f>IFERROR(VLOOKUP(A59,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>58</v>
       </c>
@@ -8050,8 +9055,19 @@
       <c r="AG60" s="28">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH60" s="28">
+        <f>IFERROR(VLOOKUP(A60,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AI60" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ60" s="28">
+        <f>IFERROR(VLOOKUP(A60,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>59</v>
       </c>
@@ -8151,8 +9167,19 @@
       <c r="AG61" s="28">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH61" s="28">
+        <f>IFERROR(VLOOKUP(A61,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AI61" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ61" s="28">
+        <f>IFERROR(VLOOKUP(A61,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>60</v>
       </c>
@@ -8252,8 +9279,19 @@
       <c r="AG62" s="28">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH62" s="28">
+        <f>IFERROR(VLOOKUP(A62,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AI62" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ62" s="28">
+        <f>IFERROR(VLOOKUP(A62,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>61</v>
       </c>
@@ -8353,8 +9391,19 @@
       <c r="AG63" s="28">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH63" s="28">
+        <f>IFERROR(VLOOKUP(A63,TransBalance!D:J,6,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="AI63" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ63" s="28">
+        <f>IFERROR(VLOOKUP(A63,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -8454,8 +9503,19 @@
       <c r="AG64" s="28">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH64" s="28">
+        <f>IFERROR(VLOOKUP(A64,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI64" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ64" s="28">
+        <f>IFERROR(VLOOKUP(A64,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>63</v>
       </c>
@@ -8555,8 +9615,19 @@
       <c r="AG65" s="28">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH65" s="28">
+        <f>IFERROR(VLOOKUP(A65,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI65" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ65" s="28">
+        <f>IFERROR(VLOOKUP(A65,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="25">
         <v>64</v>
       </c>
@@ -8656,8 +9727,19 @@
       <c r="AG66" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH66" s="28">
+        <f>IFERROR(VLOOKUP(A66,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI66" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ66" s="28">
+        <f>IFERROR(VLOOKUP(A66,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>65</v>
       </c>
@@ -8757,8 +9839,19 @@
       <c r="AG67" s="28">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH67" s="28">
+        <f>IFERROR(VLOOKUP(A67,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI67" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ67" s="28">
+        <f>IFERROR(VLOOKUP(A67,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>66</v>
       </c>
@@ -8858,8 +9951,19 @@
       <c r="AG68" s="28">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH68" s="28">
+        <f>IFERROR(VLOOKUP(A68,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI68" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ68" s="28">
+        <f>IFERROR(VLOOKUP(A68,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>67</v>
       </c>
@@ -8959,8 +10063,19 @@
       <c r="AG69" s="28">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH69" s="28">
+        <f>IFERROR(VLOOKUP(A69,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI69" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ69" s="28">
+        <f>IFERROR(VLOOKUP(A69,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>68</v>
       </c>
@@ -9060,8 +10175,19 @@
       <c r="AG70" s="28">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH70" s="28">
+        <f>IFERROR(VLOOKUP(A70,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI70" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ70" s="28">
+        <f>IFERROR(VLOOKUP(A70,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>69</v>
       </c>
@@ -9161,8 +10287,19 @@
       <c r="AG71" s="28">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH71" s="28">
+        <f>IFERROR(VLOOKUP(A71,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI71" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ71" s="28">
+        <f>IFERROR(VLOOKUP(A71,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>70</v>
       </c>
@@ -9262,8 +10399,19 @@
       <c r="AG72" s="28">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH72" s="28">
+        <f>IFERROR(VLOOKUP(A72,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI72" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ72" s="28">
+        <f>IFERROR(VLOOKUP(A72,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>71</v>
       </c>
@@ -9363,8 +10511,19 @@
       <c r="AG73" s="28">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH73" s="28">
+        <f>IFERROR(VLOOKUP(A73,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI73" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ73" s="28">
+        <f>IFERROR(VLOOKUP(A73,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>72</v>
       </c>
@@ -9464,8 +10623,19 @@
       <c r="AG74" s="28">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH74" s="28">
+        <f>IFERROR(VLOOKUP(A74,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI74" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ74" s="28">
+        <f>IFERROR(VLOOKUP(A74,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>73</v>
       </c>
@@ -9565,8 +10735,19 @@
       <c r="AG75" s="28">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH75" s="28">
+        <f>IFERROR(VLOOKUP(A75,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI75" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ75" s="28">
+        <f>IFERROR(VLOOKUP(A75,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>74</v>
       </c>
@@ -9666,8 +10847,19 @@
       <c r="AG76" s="28">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH76" s="28">
+        <f>IFERROR(VLOOKUP(A76,TransBalance!D:J,6,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="AI76" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ76" s="28">
+        <f>IFERROR(VLOOKUP(A76,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>75</v>
       </c>
@@ -9767,8 +10959,19 @@
       <c r="AG77" s="28">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH77" s="28">
+        <f>IFERROR(VLOOKUP(A77,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI77" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ77" s="28">
+        <f>IFERROR(VLOOKUP(A77,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>76</v>
       </c>
@@ -9868,8 +11071,19 @@
       <c r="AG78" s="28">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH78" s="28">
+        <f>IFERROR(VLOOKUP(A78,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI78" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ78" s="28">
+        <f>IFERROR(VLOOKUP(A78,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>77</v>
       </c>
@@ -9969,8 +11183,19 @@
       <c r="AG79" s="28">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH79" s="28">
+        <f>IFERROR(VLOOKUP(A79,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI79" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ79" s="28">
+        <f>IFERROR(VLOOKUP(A79,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>78</v>
       </c>
@@ -10070,8 +11295,19 @@
       <c r="AG80" s="28">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH80" s="28">
+        <f>IFERROR(VLOOKUP(A80,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI80" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ80" s="28">
+        <f>IFERROR(VLOOKUP(A80,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>79</v>
       </c>
@@ -10171,8 +11407,19 @@
       <c r="AG81" s="28">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH81" s="28">
+        <f>IFERROR(VLOOKUP(A81,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI81" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ81" s="28">
+        <f>IFERROR(VLOOKUP(A81,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>80</v>
       </c>
@@ -10272,8 +11519,19 @@
       <c r="AG82" s="28">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH82" s="28">
+        <f>IFERROR(VLOOKUP(A82,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI82" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ82" s="28">
+        <f>IFERROR(VLOOKUP(A82,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>81</v>
       </c>
@@ -10373,8 +11631,19 @@
       <c r="AG83" s="28">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH83" s="28">
+        <f>IFERROR(VLOOKUP(A83,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI83" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ83" s="28">
+        <f>IFERROR(VLOOKUP(A83,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>82</v>
       </c>
@@ -10474,8 +11743,19 @@
       <c r="AG84" s="28">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH84" s="28">
+        <f>IFERROR(VLOOKUP(A84,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI84" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ84" s="28">
+        <f>IFERROR(VLOOKUP(A84,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>83</v>
       </c>
@@ -10575,8 +11855,19 @@
       <c r="AG85" s="28">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH85" s="28">
+        <f>IFERROR(VLOOKUP(A85,TransBalance!D:J,6,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="AI85" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ85" s="28">
+        <f>IFERROR(VLOOKUP(A85,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>84</v>
       </c>
@@ -10676,8 +11967,19 @@
       <c r="AG86" s="28">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH86" s="28">
+        <f>IFERROR(VLOOKUP(A86,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI86" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ86" s="28">
+        <f>IFERROR(VLOOKUP(A86,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>85</v>
       </c>
@@ -10777,8 +12079,19 @@
       <c r="AG87" s="28">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH87" s="28">
+        <f>IFERROR(VLOOKUP(A87,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI87" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ87" s="28">
+        <f>IFERROR(VLOOKUP(A87,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>86</v>
       </c>
@@ -10878,8 +12191,19 @@
       <c r="AG88" s="28">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH88" s="28">
+        <f>IFERROR(VLOOKUP(A88,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI88" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ88" s="28">
+        <f>IFERROR(VLOOKUP(A88,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>87</v>
       </c>
@@ -10979,8 +12303,19 @@
       <c r="AG89" s="28">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH89" s="28">
+        <f>IFERROR(VLOOKUP(A89,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI89" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ89" s="28">
+        <f>IFERROR(VLOOKUP(A89,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>88</v>
       </c>
@@ -11080,8 +12415,19 @@
       <c r="AG90" s="28">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH90" s="28">
+        <f>IFERROR(VLOOKUP(A90,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI90" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ90" s="28">
+        <f>IFERROR(VLOOKUP(A90,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>89</v>
       </c>
@@ -11181,8 +12527,19 @@
       <c r="AG91" s="28">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH91" s="28">
+        <f>IFERROR(VLOOKUP(A91,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI91" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ91" s="28">
+        <f>IFERROR(VLOOKUP(A91,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>90</v>
       </c>
@@ -11282,8 +12639,19 @@
       <c r="AG92" s="28">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH92" s="28">
+        <f>IFERROR(VLOOKUP(A92,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI92" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ92" s="28">
+        <f>IFERROR(VLOOKUP(A92,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>91</v>
       </c>
@@ -11383,8 +12751,19 @@
       <c r="AG93" s="28">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH93" s="28">
+        <f>IFERROR(VLOOKUP(A93,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI93" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ93" s="28">
+        <f>IFERROR(VLOOKUP(A93,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>92</v>
       </c>
@@ -11484,8 +12863,19 @@
       <c r="AG94" s="28">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH94" s="28">
+        <f>IFERROR(VLOOKUP(A94,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI94" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ94" s="28">
+        <f>IFERROR(VLOOKUP(A94,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>93</v>
       </c>
@@ -11585,8 +12975,19 @@
       <c r="AG95" s="28">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH95" s="28">
+        <f>IFERROR(VLOOKUP(A95,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI95" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ95" s="28">
+        <f>IFERROR(VLOOKUP(A95,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>94</v>
       </c>
@@ -11686,8 +13087,19 @@
       <c r="AG96" s="28">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH96" s="28">
+        <f>IFERROR(VLOOKUP(A96,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI96" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ96" s="28">
+        <f>IFERROR(VLOOKUP(A96,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>95</v>
       </c>
@@ -11787,8 +13199,19 @@
       <c r="AG97" s="28">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH97" s="28">
+        <f>IFERROR(VLOOKUP(A97,TransBalance!D:J,6,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="AI97" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ97" s="28">
+        <f>IFERROR(VLOOKUP(A97,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>96</v>
       </c>
@@ -11888,8 +13311,19 @@
       <c r="AG98" s="28">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH98" s="28">
+        <f>IFERROR(VLOOKUP(A98,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI98" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ98" s="28">
+        <f>IFERROR(VLOOKUP(A98,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>97</v>
       </c>
@@ -11989,8 +13423,19 @@
       <c r="AG99" s="28">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH99" s="28">
+        <f>IFERROR(VLOOKUP(A99,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI99" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ99" s="28">
+        <f>IFERROR(VLOOKUP(A99,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>98</v>
       </c>
@@ -12090,8 +13535,19 @@
       <c r="AG100" s="28">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH100" s="28">
+        <f>IFERROR(VLOOKUP(A100,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI100" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ100" s="28">
+        <f>IFERROR(VLOOKUP(A100,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>99</v>
       </c>
@@ -12191,8 +13647,19 @@
       <c r="AG101" s="28">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH101" s="28">
+        <f>IFERROR(VLOOKUP(A101,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI101" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ101" s="28">
+        <f>IFERROR(VLOOKUP(A101,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>100</v>
       </c>
@@ -12292,8 +13759,19 @@
       <c r="AG102" s="28">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH102" s="28">
+        <f>IFERROR(VLOOKUP(A102,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI102" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ102" s="28">
+        <f>IFERROR(VLOOKUP(A102,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>101</v>
       </c>
@@ -12394,8 +13872,19 @@
         <f t="shared" ref="AG103:AG108" si="0">ROW()-2</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH103" s="28">
+        <f>IFERROR(VLOOKUP(A103,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI103" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ103" s="28">
+        <f>IFERROR(VLOOKUP(A103,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>102</v>
       </c>
@@ -12496,8 +13985,19 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH104" s="28">
+        <f>IFERROR(VLOOKUP(A104,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI104" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ104" s="28">
+        <f>IFERROR(VLOOKUP(A104,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>103</v>
       </c>
@@ -12598,8 +14098,19 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH105" s="28">
+        <f>IFERROR(VLOOKUP(A105,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI105" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ105" s="28">
+        <f>IFERROR(VLOOKUP(A105,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25">
         <v>104</v>
       </c>
@@ -12700,8 +14211,19 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH106" s="28">
+        <f>IFERROR(VLOOKUP(A106,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI106" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ106" s="28">
+        <f>IFERROR(VLOOKUP(A106,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>105</v>
       </c>
@@ -12802,8 +14324,19 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH107" s="28">
+        <f>IFERROR(VLOOKUP(A107,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI107" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ107" s="28">
+        <f>IFERROR(VLOOKUP(A107,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>106</v>
       </c>
@@ -12904,8 +14437,19 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH108" s="28">
+        <f>IFERROR(VLOOKUP(A108,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI108" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ108" s="28">
+        <f>IFERROR(VLOOKUP(A108,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>107</v>
       </c>
@@ -13006,8 +14550,19 @@
         <f>ROW()-2</f>
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="AH109" s="28">
+        <f>IFERROR(VLOOKUP(A109,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI109" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ109" s="28">
+        <f>IFERROR(VLOOKUP(A109,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>108</v>
       </c>
@@ -13108,8 +14663,19 @@
         <f>ROW()-2</f>
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AH110" s="28">
+        <f>IFERROR(VLOOKUP(A110,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI110" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ110" s="28">
+        <f>IFERROR(VLOOKUP(A110,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>109</v>
       </c>
@@ -13210,8 +14776,19 @@
         <f>ROW()-2</f>
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AH111" s="28">
+        <f>IFERROR(VLOOKUP(A111,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI111" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ111" s="28">
+        <f>IFERROR(VLOOKUP(A111,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>110</v>
       </c>
@@ -13306,11 +14883,135 @@
         <v>1000000</v>
       </c>
       <c r="AF112" s="27" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="AG112" s="28">
         <f t="shared" ref="AG112" si="1">ROW()-2</f>
         <v>110</v>
+      </c>
+      <c r="AH112" s="28">
+        <f>IFERROR(VLOOKUP(A112,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI112" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ112" s="28">
+        <f>IFERROR(VLOOKUP(A112,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+      <c r="A113" s="25">
+        <v>111</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="D113" s="25">
+        <v>30</v>
+      </c>
+      <c r="E113" s="25">
+        <v>4</v>
+      </c>
+      <c r="F113" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G113" s="25">
+        <v>200</v>
+      </c>
+      <c r="H113" s="25">
+        <v>212</v>
+      </c>
+      <c r="I113" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" s="26">
+        <v>0</v>
+      </c>
+      <c r="K113" s="26">
+        <v>0</v>
+      </c>
+      <c r="L113" s="26">
+        <v>0</v>
+      </c>
+      <c r="M113" s="26">
+        <v>0</v>
+      </c>
+      <c r="N113" s="26">
+        <v>0</v>
+      </c>
+      <c r="O113" s="26">
+        <v>0</v>
+      </c>
+      <c r="P113" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="26">
+        <v>0</v>
+      </c>
+      <c r="R113" s="26">
+        <v>0</v>
+      </c>
+      <c r="S113" s="26">
+        <v>0</v>
+      </c>
+      <c r="T113" s="25">
+        <v>2</v>
+      </c>
+      <c r="U113" s="25">
+        <v>10</v>
+      </c>
+      <c r="V113" s="25">
+        <v>1</v>
+      </c>
+      <c r="W113" s="25">
+        <v>7</v>
+      </c>
+      <c r="X113" s="25">
+        <v>144000</v>
+      </c>
+      <c r="Y113" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z113" s="14">
+        <v>270000</v>
+      </c>
+      <c r="AA113" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB113" s="14">
+        <v>270000</v>
+      </c>
+      <c r="AC113" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD113" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE113" s="9">
+        <v>320000000</v>
+      </c>
+      <c r="AF113" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG113" s="28">
+        <f>ROW()-2</f>
+        <v>111</v>
+      </c>
+      <c r="AH113" s="28">
+        <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,6,FALSE),0)</f>
+        <v>18</v>
+      </c>
+      <c r="AI113" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ113" s="28">
+        <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -13322,6 +15023,2654 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C73BDB-9CA1-44C6-A39D-E74748BAE04F}">
+  <dimension ref="C1:K85"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="38.375" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>366</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>G2/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>J2/I2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">G3/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="1">J3/I3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F10" t="s">
+        <v>379</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" t="s">
+        <v>381</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>382</v>
+      </c>
+      <c r="F12" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" t="s">
+        <v>387</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>388</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>391</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F18" t="s">
+        <v>393</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>394</v>
+      </c>
+      <c r="F19" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>397</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>398</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>399</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>400</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" t="s">
+        <v>402</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>403</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>12</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>405</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" t="s">
+        <v>406</v>
+      </c>
+      <c r="G30">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>407</v>
+      </c>
+      <c r="G31">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I31">
+        <v>6</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>408</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>12</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
+        <v>409</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" t="s">
+        <v>411</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>12</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>412</v>
+      </c>
+      <c r="F35" t="s">
+        <v>413</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>12</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>414</v>
+      </c>
+      <c r="F36" t="s">
+        <v>415</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>12</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>416</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" t="s">
+        <v>418</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>57</v>
+      </c>
+      <c r="E39" t="s">
+        <v>419</v>
+      </c>
+      <c r="F39" t="s">
+        <v>420</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>421</v>
+      </c>
+      <c r="F40" t="s">
+        <v>422</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" t="s">
+        <v>423</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>60</v>
+      </c>
+      <c r="E42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" t="s">
+        <v>424</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" t="s">
+        <v>425</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>63</v>
+      </c>
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+      <c r="F44" t="s">
+        <v>426</v>
+      </c>
+      <c r="G44">
+        <v>22</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>427</v>
+      </c>
+      <c r="G45">
+        <v>22</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F46" t="s">
+        <v>428</v>
+      </c>
+      <c r="G46">
+        <v>22</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>20</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47">
+        <v>22</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48">
+        <v>22</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>20</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I49">
+        <v>10</v>
+      </c>
+      <c r="J49">
+        <v>20</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>69</v>
+      </c>
+      <c r="E50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F50" t="s">
+        <v>432</v>
+      </c>
+      <c r="G50">
+        <v>22</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>20</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>71</v>
+      </c>
+      <c r="E51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51">
+        <v>22</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>20</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F52" t="s">
+        <v>434</v>
+      </c>
+      <c r="G52">
+        <v>22</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" t="s">
+        <v>435</v>
+      </c>
+      <c r="G53">
+        <v>22</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>20</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>74</v>
+      </c>
+      <c r="E54" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" t="s">
+        <v>436</v>
+      </c>
+      <c r="G54">
+        <v>22</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>75</v>
+      </c>
+      <c r="E55" t="s">
+        <v>437</v>
+      </c>
+      <c r="F55" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55">
+        <v>23</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I55">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>26</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>76</v>
+      </c>
+      <c r="E56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" t="s">
+        <v>439</v>
+      </c>
+      <c r="G56">
+        <v>23</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I56">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>26</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>246</v>
+      </c>
+      <c r="F57" t="s">
+        <v>440</v>
+      </c>
+      <c r="G57">
+        <v>23</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>26</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" t="s">
+        <v>441</v>
+      </c>
+      <c r="G58">
+        <v>23</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I58">
+        <v>12</v>
+      </c>
+      <c r="J58">
+        <v>26</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59">
+        <v>23</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <v>26</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>81</v>
+      </c>
+      <c r="E60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F60" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60">
+        <v>23</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>26</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>82</v>
+      </c>
+      <c r="E61" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" t="s">
+        <v>444</v>
+      </c>
+      <c r="G61">
+        <v>23</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>26</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>83</v>
+      </c>
+      <c r="E62" t="s">
+        <v>268</v>
+      </c>
+      <c r="F62" t="s">
+        <v>445</v>
+      </c>
+      <c r="G62">
+        <v>23</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I62">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <v>26</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" t="s">
+        <v>446</v>
+      </c>
+      <c r="G63">
+        <v>24</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="I63">
+        <v>14</v>
+      </c>
+      <c r="J63">
+        <v>32</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>85</v>
+      </c>
+      <c r="E64" t="s">
+        <v>276</v>
+      </c>
+      <c r="F64" t="s">
+        <v>447</v>
+      </c>
+      <c r="G64">
+        <v>24</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="I64">
+        <v>14</v>
+      </c>
+      <c r="J64">
+        <v>32</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>86</v>
+      </c>
+      <c r="E65" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" t="s">
+        <v>448</v>
+      </c>
+      <c r="G65">
+        <v>24</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="I65">
+        <v>14</v>
+      </c>
+      <c r="J65">
+        <v>32</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" t="s">
+        <v>449</v>
+      </c>
+      <c r="G66">
+        <v>24</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="I66">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>32</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>89</v>
+      </c>
+      <c r="E67" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" t="s">
+        <v>450</v>
+      </c>
+      <c r="G67">
+        <v>24</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H84" si="2">G67/10</f>
+        <v>2.4</v>
+      </c>
+      <c r="I67">
+        <v>14</v>
+      </c>
+      <c r="J67">
+        <v>32</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K84" si="3">J67/I67</f>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>90</v>
+      </c>
+      <c r="E68" t="s">
+        <v>292</v>
+      </c>
+      <c r="F68" t="s">
+        <v>451</v>
+      </c>
+      <c r="G68">
+        <v>24</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="I68">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>32</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>91</v>
+      </c>
+      <c r="E69" t="s">
+        <v>299</v>
+      </c>
+      <c r="F69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G69">
+        <v>24</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="I69">
+        <v>14</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>92</v>
+      </c>
+      <c r="E70" t="s">
+        <v>300</v>
+      </c>
+      <c r="F70" t="s">
+        <v>453</v>
+      </c>
+      <c r="G70">
+        <v>24</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="I70">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <v>32</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>93</v>
+      </c>
+      <c r="E71" t="s">
+        <v>301</v>
+      </c>
+      <c r="F71" t="s">
+        <v>454</v>
+      </c>
+      <c r="G71">
+        <v>24</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>2.4</v>
+      </c>
+      <c r="I71">
+        <v>14</v>
+      </c>
+      <c r="J71">
+        <v>32</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>95</v>
+      </c>
+      <c r="E72" t="s">
+        <v>311</v>
+      </c>
+      <c r="F72" t="s">
+        <v>455</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I72">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <v>32</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>96</v>
+      </c>
+      <c r="E73" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" t="s">
+        <v>456</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I73">
+        <v>16</v>
+      </c>
+      <c r="J73">
+        <v>36</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>317</v>
+      </c>
+      <c r="F74" t="s">
+        <v>457</v>
+      </c>
+      <c r="G74">
+        <v>25</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I74">
+        <v>16</v>
+      </c>
+      <c r="J74">
+        <v>36</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>98</v>
+      </c>
+      <c r="E75" t="s">
+        <v>318</v>
+      </c>
+      <c r="F75" t="s">
+        <v>458</v>
+      </c>
+      <c r="G75">
+        <v>25</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I75">
+        <v>16</v>
+      </c>
+      <c r="J75">
+        <v>36</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>99</v>
+      </c>
+      <c r="E76" t="s">
+        <v>323</v>
+      </c>
+      <c r="F76" t="s">
+        <v>459</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I76">
+        <v>16</v>
+      </c>
+      <c r="J76">
+        <v>36</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77" t="s">
+        <v>324</v>
+      </c>
+      <c r="F77" t="s">
+        <v>460</v>
+      </c>
+      <c r="G77">
+        <v>25</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I77">
+        <v>16</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>102</v>
+      </c>
+      <c r="E78" t="s">
+        <v>332</v>
+      </c>
+      <c r="F78" t="s">
+        <v>461</v>
+      </c>
+      <c r="G78">
+        <v>25</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I78">
+        <v>16</v>
+      </c>
+      <c r="J78">
+        <v>36</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>103</v>
+      </c>
+      <c r="E79" t="s">
+        <v>333</v>
+      </c>
+      <c r="F79" t="s">
+        <v>462</v>
+      </c>
+      <c r="G79">
+        <v>25</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I79">
+        <v>16</v>
+      </c>
+      <c r="J79">
+        <v>36</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>104</v>
+      </c>
+      <c r="E80" t="s">
+        <v>334</v>
+      </c>
+      <c r="F80" t="s">
+        <v>463</v>
+      </c>
+      <c r="G80">
+        <v>25</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I80">
+        <v>16</v>
+      </c>
+      <c r="J80">
+        <v>36</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>105</v>
+      </c>
+      <c r="E81" t="s">
+        <v>341</v>
+      </c>
+      <c r="F81" t="s">
+        <v>464</v>
+      </c>
+      <c r="G81">
+        <v>25</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I81">
+        <v>16</v>
+      </c>
+      <c r="J81">
+        <v>36</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>107</v>
+      </c>
+      <c r="E82" t="s">
+        <v>347</v>
+      </c>
+      <c r="F82" t="s">
+        <v>465</v>
+      </c>
+      <c r="G82">
+        <v>25</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I82">
+        <v>16</v>
+      </c>
+      <c r="J82">
+        <v>36</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>108</v>
+      </c>
+      <c r="E83" t="s">
+        <v>348</v>
+      </c>
+      <c r="F83" t="s">
+        <v>466</v>
+      </c>
+      <c r="G83">
+        <v>25</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I83">
+        <v>16</v>
+      </c>
+      <c r="J83">
+        <v>36</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>109</v>
+      </c>
+      <c r="E84" t="s">
+        <v>353</v>
+      </c>
+      <c r="F84" t="s">
+        <v>467</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="I84">
+        <v>16</v>
+      </c>
+      <c r="J84">
+        <v>36</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>111</v>
+      </c>
+      <c r="E85" t="s">
+        <v>468</v>
+      </c>
+      <c r="F85" t="s">
+        <v>469</v>
+      </c>
+      <c r="G85">
+        <v>25</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ref="H85" si="4">G85/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I85">
+        <v>18</v>
+      </c>
+      <c r="J85">
+        <v>42</v>
+      </c>
+      <c r="K85">
+        <f t="shared" ref="K85" si="5">J85/I85</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87642AC0-D34C-4503-8EAA-51DAE7E8B9DA}">
   <dimension ref="A1:O30"/>
   <sheetViews>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4598D1-0E04-4B4C-9216-AFFC764CE42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC24F9-7C16-40BE-92E5-5CA7333850D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="476">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1758,16 +1758,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용인 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용인계
 삼천왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>삼천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook112</t>
+  </si>
+  <si>
+    <t>장군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼대장 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용자매 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+용자매에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2312,11 +2328,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ113"/>
+  <dimension ref="A1:AJ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14909,7 +14925,7 @@
         <v>359</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D113" s="25">
         <v>30</v>
@@ -14996,7 +15012,7 @@
         <v>320000000</v>
       </c>
       <c r="AF113" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG113" s="28">
         <f>ROW()-2</f>
@@ -15011,6 +15027,119 @@
       </c>
       <c r="AJ113" s="28">
         <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+      <c r="A114" s="25">
+        <v>112</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="D114" s="25">
+        <v>30</v>
+      </c>
+      <c r="E114" s="25">
+        <v>4</v>
+      </c>
+      <c r="F114" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G114" s="25">
+        <v>200</v>
+      </c>
+      <c r="H114" s="25">
+        <v>214</v>
+      </c>
+      <c r="I114" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" s="26">
+        <v>0</v>
+      </c>
+      <c r="K114" s="26">
+        <v>0</v>
+      </c>
+      <c r="L114" s="26">
+        <v>0</v>
+      </c>
+      <c r="M114" s="26">
+        <v>0</v>
+      </c>
+      <c r="N114" s="26">
+        <v>0</v>
+      </c>
+      <c r="O114" s="26">
+        <v>0</v>
+      </c>
+      <c r="P114" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="26">
+        <v>0</v>
+      </c>
+      <c r="R114" s="26">
+        <v>0</v>
+      </c>
+      <c r="S114" s="26">
+        <v>0</v>
+      </c>
+      <c r="T114" s="25">
+        <v>2</v>
+      </c>
+      <c r="U114" s="25">
+        <v>10</v>
+      </c>
+      <c r="V114" s="25">
+        <v>1</v>
+      </c>
+      <c r="W114" s="25">
+        <v>7</v>
+      </c>
+      <c r="X114" s="25">
+        <v>146000</v>
+      </c>
+      <c r="Y114" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z114" s="14">
+        <v>290000</v>
+      </c>
+      <c r="AA114" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB114" s="14">
+        <v>290000</v>
+      </c>
+      <c r="AC114" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD114" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="9">
+        <v>340000000</v>
+      </c>
+      <c r="AF114" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG114" s="28">
+        <f>ROW()-2</f>
+        <v>112</v>
+      </c>
+      <c r="AH114" s="28">
+        <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,6,FALSE),0)</f>
+        <v>18</v>
+      </c>
+      <c r="AI114" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ114" s="28">
+        <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.42</v>
       </c>
     </row>
@@ -15024,10 +15153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C73BDB-9CA1-44C6-A39D-E74748BAE04F}">
-  <dimension ref="C1:K85"/>
+  <dimension ref="C1:K86"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17644,7 +17773,7 @@
         <v>468</v>
       </c>
       <c r="F85" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G85">
         <v>25</v>
@@ -17661,6 +17790,34 @@
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="5">J85/I85</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>112</v>
+      </c>
+      <c r="E86" t="s">
+        <v>471</v>
+      </c>
+      <c r="F86" t="s">
+        <v>472</v>
+      </c>
+      <c r="G86">
+        <v>26</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86" si="6">G86/10</f>
+        <v>2.6</v>
+      </c>
+      <c r="I86">
+        <v>18</v>
+      </c>
+      <c r="J86">
+        <v>42</v>
+      </c>
+      <c r="K86">
+        <f t="shared" ref="K86" si="7">J86/I86</f>
         <v>2.3333333333333335</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FC24F9-7C16-40BE-92E5-5CA7333850D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832DEB3-285F-486B-9850-07AE5BB54F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="482">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1784,6 +1784,31 @@
   <si>
     <t>용인계
 용자매에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용술사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+용술사에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2328,11 +2353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ114"/>
+  <dimension ref="A1:AJ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE115" sqref="AE115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15020,14 +15045,14 @@
       </c>
       <c r="AH113" s="28">
         <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,6,FALSE),0)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI113" s="28">
         <v>76</v>
       </c>
       <c r="AJ113" s="28">
         <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,7,FALSE),0)/100</f>
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="114" spans="1:36" ht="33" x14ac:dyDescent="0.3">
@@ -15133,14 +15158,242 @@
       </c>
       <c r="AH114" s="28">
         <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,6,FALSE),0)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI114" s="28">
         <v>76</v>
       </c>
       <c r="AJ114" s="28">
         <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,7,FALSE),0)/100</f>
-        <v>0.42</v>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+      <c r="A115" s="25">
+        <f>ROW()-2</f>
+        <v>113</v>
+      </c>
+      <c r="B115" s="25" t="str">
+        <f>"magicBook"&amp;A115</f>
+        <v>magicBook113</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D115" s="25">
+        <v>30</v>
+      </c>
+      <c r="E115" s="25">
+        <v>4</v>
+      </c>
+      <c r="F115" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G115" s="25">
+        <v>200</v>
+      </c>
+      <c r="H115" s="25">
+        <v>216</v>
+      </c>
+      <c r="I115" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" s="26">
+        <v>0</v>
+      </c>
+      <c r="K115" s="26">
+        <v>0</v>
+      </c>
+      <c r="L115" s="26">
+        <v>0</v>
+      </c>
+      <c r="M115" s="26">
+        <v>0</v>
+      </c>
+      <c r="N115" s="26">
+        <v>0</v>
+      </c>
+      <c r="O115" s="26">
+        <v>0</v>
+      </c>
+      <c r="P115" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="26">
+        <v>0</v>
+      </c>
+      <c r="R115" s="26">
+        <v>0</v>
+      </c>
+      <c r="S115" s="26">
+        <v>0</v>
+      </c>
+      <c r="T115" s="25">
+        <v>2</v>
+      </c>
+      <c r="U115" s="25">
+        <v>10</v>
+      </c>
+      <c r="V115" s="25">
+        <v>1</v>
+      </c>
+      <c r="W115" s="25">
+        <v>7</v>
+      </c>
+      <c r="X115" s="25">
+        <v>148000</v>
+      </c>
+      <c r="Y115" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z115" s="14">
+        <v>310000</v>
+      </c>
+      <c r="AA115" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB115" s="14">
+        <v>310000</v>
+      </c>
+      <c r="AC115" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD115" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="9">
+        <v>360000000</v>
+      </c>
+      <c r="AF115" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG115" s="28">
+        <f>ROW()-2</f>
+        <v>113</v>
+      </c>
+      <c r="AH115" s="28">
+        <f>IFERROR(VLOOKUP(A115,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI115" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ115" s="28">
+        <f>IFERROR(VLOOKUP(A115,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="25">
+        <v>114</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D116" s="10">
+        <v>9</v>
+      </c>
+      <c r="E116" s="10">
+        <v>4</v>
+      </c>
+      <c r="F116" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G116" s="10">
+        <v>200</v>
+      </c>
+      <c r="H116" s="10">
+        <v>75</v>
+      </c>
+      <c r="I116" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" s="11">
+        <v>0</v>
+      </c>
+      <c r="K116" s="11">
+        <v>0</v>
+      </c>
+      <c r="L116" s="11">
+        <v>0</v>
+      </c>
+      <c r="M116" s="11">
+        <v>0</v>
+      </c>
+      <c r="N116" s="11">
+        <v>0</v>
+      </c>
+      <c r="O116" s="11">
+        <v>0</v>
+      </c>
+      <c r="P116" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="11">
+        <v>0</v>
+      </c>
+      <c r="R116" s="11">
+        <v>0</v>
+      </c>
+      <c r="S116" s="11">
+        <v>0</v>
+      </c>
+      <c r="T116" s="10">
+        <v>2</v>
+      </c>
+      <c r="U116" s="10">
+        <v>10</v>
+      </c>
+      <c r="V116" s="10">
+        <v>1</v>
+      </c>
+      <c r="W116" s="10">
+        <v>7</v>
+      </c>
+      <c r="X116" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD116" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF116" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="AG116" s="28">
+        <f t="shared" ref="AG116" si="2">ROW()-2</f>
+        <v>114</v>
+      </c>
+      <c r="AH116" s="28">
+        <f>IFERROR(VLOOKUP(A116,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI116" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ116" s="28">
+        <f>IFERROR(VLOOKUP(A116,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15153,10 +15406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C73BDB-9CA1-44C6-A39D-E74748BAE04F}">
-  <dimension ref="C1:K86"/>
+  <dimension ref="C1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17766,6 +18019,9 @@
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C85">
+        <v>84</v>
+      </c>
       <c r="D85">
         <v>111</v>
       </c>
@@ -17783,17 +18039,20 @@
         <v>2.5</v>
       </c>
       <c r="I85">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J85">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="5">J85/I85</f>
-        <v>2.3333333333333335</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>85</v>
+      </c>
       <c r="D86">
         <v>112</v>
       </c>
@@ -17804,21 +18063,52 @@
         <v>472</v>
       </c>
       <c r="G86">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H86">
-        <f t="shared" ref="H86" si="6">G86/10</f>
-        <v>2.6</v>
+        <f t="shared" ref="H86:H88" si="6">G86/10</f>
+        <v>2.5</v>
       </c>
       <c r="I86">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J86">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K86">
-        <f t="shared" ref="K86" si="7">J86/I86</f>
-        <v>2.3333333333333335</v>
+        <f t="shared" ref="K86:K88" si="7">J86/I86</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>113</v>
+      </c>
+      <c r="E87" t="s">
+        <v>478</v>
+      </c>
+      <c r="F87" t="s">
+        <v>467</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="I87">
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <v>36</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832DEB3-285F-486B-9850-07AE5BB54F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49825C8F-32FA-45A5-B374-995FC14E6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="485">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1809,6 +1809,19 @@
   </si>
   <si>
     <t>11월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용무제 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인계
+용무제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2353,11 +2366,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ116"/>
+  <dimension ref="A1:AJ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE115" sqref="AE115"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15396,6 +15409,121 @@
         <v>0</v>
       </c>
     </row>
+    <row r="117" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+      <c r="A117" s="25">
+        <f>ROW()-2</f>
+        <v>115</v>
+      </c>
+      <c r="B117" s="25" t="str">
+        <f>"magicBook"&amp;A117</f>
+        <v>magicBook115</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="D117" s="25">
+        <v>30</v>
+      </c>
+      <c r="E117" s="25">
+        <v>4</v>
+      </c>
+      <c r="F117" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G117" s="25">
+        <v>200</v>
+      </c>
+      <c r="H117" s="25">
+        <v>218</v>
+      </c>
+      <c r="I117" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" s="26">
+        <v>0</v>
+      </c>
+      <c r="K117" s="26">
+        <v>0</v>
+      </c>
+      <c r="L117" s="26">
+        <v>0</v>
+      </c>
+      <c r="M117" s="26">
+        <v>0</v>
+      </c>
+      <c r="N117" s="26">
+        <v>0</v>
+      </c>
+      <c r="O117" s="26">
+        <v>0</v>
+      </c>
+      <c r="P117" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="26">
+        <v>0</v>
+      </c>
+      <c r="R117" s="26">
+        <v>0</v>
+      </c>
+      <c r="S117" s="26">
+        <v>0</v>
+      </c>
+      <c r="T117" s="25">
+        <v>2</v>
+      </c>
+      <c r="U117" s="25">
+        <v>10</v>
+      </c>
+      <c r="V117" s="25">
+        <v>1</v>
+      </c>
+      <c r="W117" s="25">
+        <v>7</v>
+      </c>
+      <c r="X117" s="25">
+        <v>150000</v>
+      </c>
+      <c r="Y117" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z117" s="14">
+        <v>330000</v>
+      </c>
+      <c r="AA117" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB117" s="14">
+        <v>330000</v>
+      </c>
+      <c r="AC117" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD117" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE117" s="9">
+        <v>380000000</v>
+      </c>
+      <c r="AF117" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG117" s="28">
+        <f>ROW()-2</f>
+        <v>115</v>
+      </c>
+      <c r="AH117" s="28">
+        <f>IFERROR(VLOOKUP(A117,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI117" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ117" s="28">
+        <f>IFERROR(VLOOKUP(A117,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE60" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15406,10 +15534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C73BDB-9CA1-44C6-A39D-E74748BAE04F}">
-  <dimension ref="C1:K87"/>
+  <dimension ref="C1:K88"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88:L88"/>
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18107,6 +18235,37 @@
         <v>36</v>
       </c>
       <c r="K87">
+        <f t="shared" si="7"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <v>115</v>
+      </c>
+      <c r="E88" t="s">
+        <v>484</v>
+      </c>
+      <c r="F88" t="s">
+        <v>482</v>
+      </c>
+      <c r="G88">
+        <v>25</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="I88">
+        <v>16</v>
+      </c>
+      <c r="J88">
+        <v>36</v>
+      </c>
+      <c r="K88">
         <f t="shared" si="7"/>
         <v>2.25</v>
       </c>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49825C8F-32FA-45A5-B374-995FC14E6072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED605C50-EC67-4283-AA10-D3C63234AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="488">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1800,10 +1800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>magicBook114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11월 패스 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1822,6 +1818,23 @@
   </si>
   <si>
     <t>magicBook115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무대회
+비무상점에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2366,11 +2379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ117"/>
+  <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15183,7 +15196,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f>ROW()-2</f>
+        <f t="shared" ref="A115:A118" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -15298,13 +15311,15 @@
     </row>
     <row r="116" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="25" t="str">
+        <f t="shared" ref="B116:B119" si="3">"magicBook"&amp;A116</f>
+        <v>magicBook114</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>479</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>480</v>
       </c>
       <c r="D116" s="10">
         <v>9</v>
@@ -15391,10 +15406,10 @@
         <v>1000000</v>
       </c>
       <c r="AF116" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AG116" s="28">
-        <f t="shared" ref="AG116" si="2">ROW()-2</f>
+        <f t="shared" ref="AG116:AG119" si="4">ROW()-2</f>
         <v>114</v>
       </c>
       <c r="AH116" s="28">
@@ -15411,15 +15426,15 @@
     </row>
     <row r="117" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
-        <f>ROW()-2</f>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B117" s="25" t="str">
-        <f>"magicBook"&amp;A117</f>
+        <f t="shared" si="3"/>
         <v>magicBook115</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D117" s="25">
         <v>30</v>
@@ -15506,7 +15521,7 @@
         <v>380000000</v>
       </c>
       <c r="AF117" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG117" s="28">
         <f>ROW()-2</f>
@@ -15522,6 +15537,236 @@
       <c r="AJ117" s="28">
         <f>IFERROR(VLOOKUP(A117,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="25">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>magicBook116</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D118" s="10">
+        <v>9</v>
+      </c>
+      <c r="E118" s="10">
+        <v>4</v>
+      </c>
+      <c r="F118" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G118" s="10">
+        <v>200</v>
+      </c>
+      <c r="H118" s="10">
+        <v>224</v>
+      </c>
+      <c r="I118" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" s="11">
+        <v>0</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
+      </c>
+      <c r="L118" s="11">
+        <v>0</v>
+      </c>
+      <c r="M118" s="11">
+        <v>0</v>
+      </c>
+      <c r="N118" s="11">
+        <v>0</v>
+      </c>
+      <c r="O118" s="11">
+        <v>0</v>
+      </c>
+      <c r="P118" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="11">
+        <v>0</v>
+      </c>
+      <c r="R118" s="11">
+        <v>0</v>
+      </c>
+      <c r="S118" s="11">
+        <v>0</v>
+      </c>
+      <c r="T118" s="10">
+        <v>2</v>
+      </c>
+      <c r="U118" s="10">
+        <v>10</v>
+      </c>
+      <c r="V118" s="10">
+        <v>1</v>
+      </c>
+      <c r="W118" s="10">
+        <v>7</v>
+      </c>
+      <c r="X118" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD118" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE118" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF118" s="27" t="s">
+        <v>487</v>
+      </c>
+      <c r="AG118" s="28">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="AH118" s="28">
+        <f>IFERROR(VLOOKUP(A118,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI118" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ118" s="28">
+        <f>IFERROR(VLOOKUP(A118,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="25">
+        <f>ROW()-2</f>
+        <v>117</v>
+      </c>
+      <c r="B119" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>magicBook117</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D119" s="10">
+        <v>9</v>
+      </c>
+      <c r="E119" s="10">
+        <v>4</v>
+      </c>
+      <c r="F119" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G119" s="10">
+        <v>200</v>
+      </c>
+      <c r="H119" s="10">
+        <v>224</v>
+      </c>
+      <c r="I119" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" s="11">
+        <v>0</v>
+      </c>
+      <c r="K119" s="11">
+        <v>0</v>
+      </c>
+      <c r="L119" s="11">
+        <v>0</v>
+      </c>
+      <c r="M119" s="11">
+        <v>0</v>
+      </c>
+      <c r="N119" s="11">
+        <v>0</v>
+      </c>
+      <c r="O119" s="11">
+        <v>0</v>
+      </c>
+      <c r="P119" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="11">
+        <v>0</v>
+      </c>
+      <c r="R119" s="11">
+        <v>0</v>
+      </c>
+      <c r="S119" s="11">
+        <v>0</v>
+      </c>
+      <c r="T119" s="10">
+        <v>2</v>
+      </c>
+      <c r="U119" s="10">
+        <v>10</v>
+      </c>
+      <c r="V119" s="10">
+        <v>1</v>
+      </c>
+      <c r="W119" s="10">
+        <v>7</v>
+      </c>
+      <c r="X119" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD119" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE119" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF119" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG119" s="28">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="AH119" s="28">
+        <f>IFERROR(VLOOKUP(A119,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI119" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ119" s="28">
+        <f>IFERROR(VLOOKUP(A119,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -18247,10 +18492,10 @@
         <v>115</v>
       </c>
       <c r="E88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F88" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G88">
         <v>25</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED605C50-EC67-4283-AA10-D3C63234AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B2BA2-AD1B-46D3-BF55-32CA917FB0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="496">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1835,6 +1835,39 @@
   <si>
     <t>비무대회
 비무상점에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑해태자 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광해태자 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook117</t>
+  </si>
+  <si>
+    <t>magicBook119</t>
+  </si>
+  <si>
+    <t>용궁
+흑해태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+광해태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 이벤트
+크리스마스 출석체크로 획득가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2061,7 +2094,28 @@
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2379,11 +2433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ119"/>
+  <dimension ref="A1:AJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF122" sqref="AF122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15196,7 +15250,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A118" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A122" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -15315,7 +15369,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="25" t="str">
-        <f t="shared" ref="B116:B119" si="3">"magicBook"&amp;A116</f>
+        <f t="shared" ref="B116:B121" si="3">"magicBook"&amp;A116</f>
         <v>magicBook114</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -15769,9 +15823,360 @@
         <v>0</v>
       </c>
     </row>
+    <row r="120" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="25">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>magicBook118</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="D120" s="25">
+        <v>31</v>
+      </c>
+      <c r="E120" s="25">
+        <v>4</v>
+      </c>
+      <c r="F120" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G120" s="25">
+        <v>200</v>
+      </c>
+      <c r="H120" s="25">
+        <v>228</v>
+      </c>
+      <c r="I120" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" s="26">
+        <v>0</v>
+      </c>
+      <c r="K120" s="26">
+        <v>0</v>
+      </c>
+      <c r="L120" s="26">
+        <v>0</v>
+      </c>
+      <c r="M120" s="26">
+        <v>0</v>
+      </c>
+      <c r="N120" s="26">
+        <v>0</v>
+      </c>
+      <c r="O120" s="26">
+        <v>0</v>
+      </c>
+      <c r="P120" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="26">
+        <v>0</v>
+      </c>
+      <c r="R120" s="26">
+        <v>0</v>
+      </c>
+      <c r="S120" s="26">
+        <v>0</v>
+      </c>
+      <c r="T120" s="25">
+        <v>2</v>
+      </c>
+      <c r="U120" s="25">
+        <v>10</v>
+      </c>
+      <c r="V120" s="25">
+        <v>1</v>
+      </c>
+      <c r="W120" s="25">
+        <v>7</v>
+      </c>
+      <c r="X120" s="25">
+        <v>152000</v>
+      </c>
+      <c r="Y120" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z120" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AA120" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB120" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AC120" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD120" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE120" s="9">
+        <v>400000000</v>
+      </c>
+      <c r="AF120" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="AG120" s="28">
+        <f>ROW()-2</f>
+        <v>118</v>
+      </c>
+      <c r="AH120" s="28">
+        <f>IFERROR(VLOOKUP(A120,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI120" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ120" s="28">
+        <f>IFERROR(VLOOKUP(A120,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A121" s="25">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>magicBook119</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="D121" s="25">
+        <v>31</v>
+      </c>
+      <c r="E121" s="25">
+        <v>4</v>
+      </c>
+      <c r="F121" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G121" s="25">
+        <v>200</v>
+      </c>
+      <c r="H121" s="25">
+        <v>229</v>
+      </c>
+      <c r="I121" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="26">
+        <v>0</v>
+      </c>
+      <c r="K121" s="26">
+        <v>0</v>
+      </c>
+      <c r="L121" s="26">
+        <v>0</v>
+      </c>
+      <c r="M121" s="26">
+        <v>0</v>
+      </c>
+      <c r="N121" s="26">
+        <v>0</v>
+      </c>
+      <c r="O121" s="26">
+        <v>0</v>
+      </c>
+      <c r="P121" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="26">
+        <v>0</v>
+      </c>
+      <c r="R121" s="26">
+        <v>0</v>
+      </c>
+      <c r="S121" s="26">
+        <v>0</v>
+      </c>
+      <c r="T121" s="25">
+        <v>2</v>
+      </c>
+      <c r="U121" s="25">
+        <v>10</v>
+      </c>
+      <c r="V121" s="25">
+        <v>1</v>
+      </c>
+      <c r="W121" s="25">
+        <v>7</v>
+      </c>
+      <c r="X121" s="25">
+        <v>154000</v>
+      </c>
+      <c r="Y121" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z121" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AA121" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB121" s="14">
+        <v>350000</v>
+      </c>
+      <c r="AC121" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD121" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE121" s="9">
+        <v>420000000</v>
+      </c>
+      <c r="AF121" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="AG121" s="28">
+        <f>ROW()-2</f>
+        <v>119</v>
+      </c>
+      <c r="AH121" s="28">
+        <f>IFERROR(VLOOKUP(A121,TransBalance!D:J,6,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="AI121" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ121" s="28">
+        <f>IFERROR(VLOOKUP(A121,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="25">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="25" t="str">
+        <f t="shared" ref="B122" si="5">"magicBook"&amp;A122</f>
+        <v>magicBook120</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D122" s="10">
+        <v>9</v>
+      </c>
+      <c r="E122" s="10">
+        <v>4</v>
+      </c>
+      <c r="F122" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G122" s="10">
+        <v>200</v>
+      </c>
+      <c r="H122" s="10">
+        <v>230</v>
+      </c>
+      <c r="I122" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" s="11">
+        <v>0</v>
+      </c>
+      <c r="K122" s="11">
+        <v>0</v>
+      </c>
+      <c r="L122" s="11">
+        <v>0</v>
+      </c>
+      <c r="M122" s="11">
+        <v>0</v>
+      </c>
+      <c r="N122" s="11">
+        <v>0</v>
+      </c>
+      <c r="O122" s="11">
+        <v>0</v>
+      </c>
+      <c r="P122" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="11">
+        <v>0</v>
+      </c>
+      <c r="R122" s="11">
+        <v>0</v>
+      </c>
+      <c r="S122" s="11">
+        <v>0</v>
+      </c>
+      <c r="T122" s="10">
+        <v>2</v>
+      </c>
+      <c r="U122" s="10">
+        <v>10</v>
+      </c>
+      <c r="V122" s="10">
+        <v>1</v>
+      </c>
+      <c r="W122" s="10">
+        <v>7</v>
+      </c>
+      <c r="X122" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD122" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE122" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF122" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="AG122" s="28">
+        <f t="shared" ref="AG122" si="6">ROW()-2</f>
+        <v>120</v>
+      </c>
+      <c r="AH122" s="28">
+        <f>IFERROR(VLOOKUP(A122,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI122" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ122" s="28">
+        <f>IFERROR(VLOOKUP(A122,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE60" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1048576 H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -15779,10 +16184,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C73BDB-9CA1-44C6-A39D-E74748BAE04F}">
-  <dimension ref="C1:K88"/>
+  <dimension ref="C1:K90"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18512,6 +18917,68 @@
       </c>
       <c r="K88">
         <f t="shared" si="7"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>118</v>
+      </c>
+      <c r="E89" t="s">
+        <v>491</v>
+      </c>
+      <c r="F89" t="s">
+        <v>488</v>
+      </c>
+      <c r="G89">
+        <v>25</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ref="H89:H90" si="8">G89/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I89">
+        <v>16</v>
+      </c>
+      <c r="J89">
+        <v>36</v>
+      </c>
+      <c r="K89">
+        <f t="shared" ref="K89:K90" si="9">J89/I89</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>119</v>
+      </c>
+      <c r="E90" t="s">
+        <v>492</v>
+      </c>
+      <c r="F90" t="s">
+        <v>489</v>
+      </c>
+      <c r="G90">
+        <v>25</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="I90">
+        <v>16</v>
+      </c>
+      <c r="J90">
+        <v>36</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57B2BA2-AD1B-46D3-BF55-32CA917FB0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4AB0AC-BB42-4385-9AB4-F168927D291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="502">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1868,6 +1868,33 @@
   <si>
     <t>크리스마스 이벤트
 크리스마스 출석체크로 획득가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여울태자 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가람태자 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+여울태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+가람태자에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+01월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2433,11 +2460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ122"/>
+  <dimension ref="A1:AJ125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF122" sqref="AF122"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF125" sqref="AF125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15250,7 +15277,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A122" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A124" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -16059,7 +16086,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="25" t="str">
-        <f t="shared" ref="B122" si="5">"magicBook"&amp;A122</f>
+        <f t="shared" ref="B122:B125" si="5">"magicBook"&amp;A122</f>
         <v>magicBook120</v>
       </c>
       <c r="C122" s="10" t="s">
@@ -16165,6 +16192,347 @@
       </c>
       <c r="AJ122" s="28">
         <f>IFERROR(VLOOKUP(A122,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A123" s="25">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>magicBook121</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="D123" s="25">
+        <v>31</v>
+      </c>
+      <c r="E123" s="25">
+        <v>4</v>
+      </c>
+      <c r="F123" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G123" s="25">
+        <v>200</v>
+      </c>
+      <c r="H123" s="25">
+        <v>233</v>
+      </c>
+      <c r="I123" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" s="26">
+        <v>0</v>
+      </c>
+      <c r="K123" s="26">
+        <v>0</v>
+      </c>
+      <c r="L123" s="26">
+        <v>0</v>
+      </c>
+      <c r="M123" s="26">
+        <v>0</v>
+      </c>
+      <c r="N123" s="26">
+        <v>0</v>
+      </c>
+      <c r="O123" s="26">
+        <v>0</v>
+      </c>
+      <c r="P123" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="26">
+        <v>0</v>
+      </c>
+      <c r="R123" s="26">
+        <v>0</v>
+      </c>
+      <c r="S123" s="26">
+        <v>0</v>
+      </c>
+      <c r="T123" s="25">
+        <v>2</v>
+      </c>
+      <c r="U123" s="25">
+        <v>10</v>
+      </c>
+      <c r="V123" s="25">
+        <v>1</v>
+      </c>
+      <c r="W123" s="25">
+        <v>7</v>
+      </c>
+      <c r="X123" s="25">
+        <v>156000</v>
+      </c>
+      <c r="Y123" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z123" s="14">
+        <v>370000</v>
+      </c>
+      <c r="AA123" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB123" s="14">
+        <v>370000</v>
+      </c>
+      <c r="AC123" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD123" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE123" s="9">
+        <v>440000000</v>
+      </c>
+      <c r="AF123" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG123" s="28">
+        <f>ROW()-2</f>
+        <v>121</v>
+      </c>
+      <c r="AH123" s="28">
+        <v>16</v>
+      </c>
+      <c r="AI123" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ123" s="28">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A124" s="25">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>magicBook122</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="D124" s="25">
+        <v>31</v>
+      </c>
+      <c r="E124" s="25">
+        <v>4</v>
+      </c>
+      <c r="F124" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G124" s="25">
+        <v>200</v>
+      </c>
+      <c r="H124" s="25">
+        <v>234</v>
+      </c>
+      <c r="I124" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" s="26">
+        <v>0</v>
+      </c>
+      <c r="K124" s="26">
+        <v>0</v>
+      </c>
+      <c r="L124" s="26">
+        <v>0</v>
+      </c>
+      <c r="M124" s="26">
+        <v>0</v>
+      </c>
+      <c r="N124" s="26">
+        <v>0</v>
+      </c>
+      <c r="O124" s="26">
+        <v>0</v>
+      </c>
+      <c r="P124" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="26">
+        <v>0</v>
+      </c>
+      <c r="R124" s="26">
+        <v>0</v>
+      </c>
+      <c r="S124" s="26">
+        <v>0</v>
+      </c>
+      <c r="T124" s="25">
+        <v>2</v>
+      </c>
+      <c r="U124" s="25">
+        <v>10</v>
+      </c>
+      <c r="V124" s="25">
+        <v>1</v>
+      </c>
+      <c r="W124" s="25">
+        <v>7</v>
+      </c>
+      <c r="X124" s="25">
+        <v>158000</v>
+      </c>
+      <c r="Y124" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z124" s="14">
+        <v>370000</v>
+      </c>
+      <c r="AA124" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB124" s="14">
+        <v>370000</v>
+      </c>
+      <c r="AC124" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD124" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE124" s="9">
+        <v>460000000</v>
+      </c>
+      <c r="AF124" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="AG124" s="28">
+        <f>ROW()-2</f>
+        <v>122</v>
+      </c>
+      <c r="AH124" s="28">
+        <v>16</v>
+      </c>
+      <c r="AI124" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ124" s="28">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="25">
+        <f>ROW()-2</f>
+        <v>123</v>
+      </c>
+      <c r="B125" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v>magicBook123</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D125" s="10">
+        <v>9</v>
+      </c>
+      <c r="E125" s="10">
+        <v>4</v>
+      </c>
+      <c r="F125" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G125" s="10">
+        <v>200</v>
+      </c>
+      <c r="H125" s="10">
+        <v>75</v>
+      </c>
+      <c r="I125" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" s="11">
+        <v>0</v>
+      </c>
+      <c r="K125" s="11">
+        <v>0</v>
+      </c>
+      <c r="L125" s="11">
+        <v>0</v>
+      </c>
+      <c r="M125" s="11">
+        <v>0</v>
+      </c>
+      <c r="N125" s="11">
+        <v>0</v>
+      </c>
+      <c r="O125" s="11">
+        <v>0</v>
+      </c>
+      <c r="P125" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="11">
+        <v>0</v>
+      </c>
+      <c r="R125" s="11">
+        <v>0</v>
+      </c>
+      <c r="S125" s="11">
+        <v>0</v>
+      </c>
+      <c r="T125" s="10">
+        <v>2</v>
+      </c>
+      <c r="U125" s="10">
+        <v>10</v>
+      </c>
+      <c r="V125" s="10">
+        <v>1</v>
+      </c>
+      <c r="W125" s="10">
+        <v>7</v>
+      </c>
+      <c r="X125" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD125" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE125" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF125" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="AG125" s="28">
+        <f t="shared" ref="AG125" si="7">ROW()-2</f>
+        <v>123</v>
+      </c>
+      <c r="AH125" s="28">
+        <f>IFERROR(VLOOKUP(A125,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI125" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ125" s="28">
+        <f>IFERROR(VLOOKUP(A125,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4AB0AC-BB42-4385-9AB4-F168927D291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699159F4-6438-4ECB-920A-FD1DF7B155C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="507">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1825,10 +1825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>싸움왕 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1895,6 +1891,32 @@
   <si>
     <t>2024
 01월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무신 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서해장군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동해장군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+서해장군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+동해장군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비무왕 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2460,11 +2482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ125"/>
+  <dimension ref="A1:AJ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF125" sqref="AF125"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15277,7 +15299,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A124" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A128" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -15630,7 +15652,7 @@
         <v>magicBook116</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="D118" s="10">
         <v>9</v>
@@ -15717,7 +15739,7 @@
         <v>1000000</v>
       </c>
       <c r="AF118" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AG118" s="28">
         <f t="shared" si="4"/>
@@ -15832,7 +15854,7 @@
         <v>1000000</v>
       </c>
       <c r="AF119" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG119" s="28">
         <f t="shared" si="4"/>
@@ -15860,7 +15882,7 @@
         <v>magicBook118</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D120" s="25">
         <v>31</v>
@@ -15947,7 +15969,7 @@
         <v>400000000</v>
       </c>
       <c r="AF120" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG120" s="28">
         <f>ROW()-2</f>
@@ -15975,7 +15997,7 @@
         <v>magicBook119</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D121" s="25">
         <v>31</v>
@@ -16062,7 +16084,7 @@
         <v>420000000</v>
       </c>
       <c r="AF121" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG121" s="28">
         <f>ROW()-2</f>
@@ -16090,7 +16112,7 @@
         <v>magicBook120</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D122" s="10">
         <v>9</v>
@@ -16177,7 +16199,7 @@
         <v>1000000</v>
       </c>
       <c r="AF122" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG122" s="28">
         <f t="shared" ref="AG122" si="6">ROW()-2</f>
@@ -16205,7 +16227,7 @@
         <v>magicBook121</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D123" s="25">
         <v>31</v>
@@ -16292,7 +16314,7 @@
         <v>440000000</v>
       </c>
       <c r="AF123" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG123" s="28">
         <f>ROW()-2</f>
@@ -16318,7 +16340,7 @@
         <v>magicBook122</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D124" s="25">
         <v>31</v>
@@ -16405,7 +16427,7 @@
         <v>460000000</v>
       </c>
       <c r="AF124" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG124" s="28">
         <f>ROW()-2</f>
@@ -16431,7 +16453,7 @@
         <v>magicBook123</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D125" s="10">
         <v>9</v>
@@ -16518,7 +16540,7 @@
         <v>1000000</v>
       </c>
       <c r="AF125" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG125" s="28">
         <f t="shared" ref="AG125" si="7">ROW()-2</f>
@@ -16533,6 +16555,347 @@
       </c>
       <c r="AJ125" s="28">
         <f>IFERROR(VLOOKUP(A125,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A126" s="25">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="25" t="str">
+        <f t="shared" ref="B126:B128" si="8">"magicBook"&amp;A126</f>
+        <v>magicBook124</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="D126" s="25">
+        <v>31</v>
+      </c>
+      <c r="E126" s="25">
+        <v>4</v>
+      </c>
+      <c r="F126" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G126" s="25">
+        <v>200</v>
+      </c>
+      <c r="H126" s="25">
+        <v>237</v>
+      </c>
+      <c r="I126" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" s="26">
+        <v>0</v>
+      </c>
+      <c r="K126" s="26">
+        <v>0</v>
+      </c>
+      <c r="L126" s="26">
+        <v>0</v>
+      </c>
+      <c r="M126" s="26">
+        <v>0</v>
+      </c>
+      <c r="N126" s="26">
+        <v>0</v>
+      </c>
+      <c r="O126" s="26">
+        <v>0</v>
+      </c>
+      <c r="P126" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="26">
+        <v>0</v>
+      </c>
+      <c r="R126" s="26">
+        <v>0</v>
+      </c>
+      <c r="S126" s="26">
+        <v>0</v>
+      </c>
+      <c r="T126" s="25">
+        <v>2</v>
+      </c>
+      <c r="U126" s="25">
+        <v>10</v>
+      </c>
+      <c r="V126" s="25">
+        <v>1</v>
+      </c>
+      <c r="W126" s="25">
+        <v>7</v>
+      </c>
+      <c r="X126" s="25">
+        <v>160000</v>
+      </c>
+      <c r="Y126" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z126" s="14">
+        <v>390000</v>
+      </c>
+      <c r="AA126" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB126" s="14">
+        <v>390000</v>
+      </c>
+      <c r="AC126" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD126" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE126" s="9">
+        <v>480000000</v>
+      </c>
+      <c r="AF126" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG126" s="28">
+        <f>ROW()-2</f>
+        <v>124</v>
+      </c>
+      <c r="AH126" s="28">
+        <v>16</v>
+      </c>
+      <c r="AI126" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ126" s="28">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A127" s="25">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>magicBook125</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="D127" s="25">
+        <v>31</v>
+      </c>
+      <c r="E127" s="25">
+        <v>4</v>
+      </c>
+      <c r="F127" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G127" s="25">
+        <v>200</v>
+      </c>
+      <c r="H127" s="25">
+        <v>238</v>
+      </c>
+      <c r="I127" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" s="26">
+        <v>0</v>
+      </c>
+      <c r="K127" s="26">
+        <v>0</v>
+      </c>
+      <c r="L127" s="26">
+        <v>0</v>
+      </c>
+      <c r="M127" s="26">
+        <v>0</v>
+      </c>
+      <c r="N127" s="26">
+        <v>0</v>
+      </c>
+      <c r="O127" s="26">
+        <v>0</v>
+      </c>
+      <c r="P127" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="26">
+        <v>0</v>
+      </c>
+      <c r="R127" s="26">
+        <v>0</v>
+      </c>
+      <c r="S127" s="26">
+        <v>0</v>
+      </c>
+      <c r="T127" s="25">
+        <v>2</v>
+      </c>
+      <c r="U127" s="25">
+        <v>10</v>
+      </c>
+      <c r="V127" s="25">
+        <v>1</v>
+      </c>
+      <c r="W127" s="25">
+        <v>7</v>
+      </c>
+      <c r="X127" s="25">
+        <v>162000</v>
+      </c>
+      <c r="Y127" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z127" s="14">
+        <v>390000</v>
+      </c>
+      <c r="AA127" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB127" s="14">
+        <v>390000</v>
+      </c>
+      <c r="AC127" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD127" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE127" s="9">
+        <v>500000000</v>
+      </c>
+      <c r="AF127" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="AG127" s="28">
+        <f>ROW()-2</f>
+        <v>125</v>
+      </c>
+      <c r="AH127" s="28">
+        <v>16</v>
+      </c>
+      <c r="AI127" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ127" s="28">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="25">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v>magicBook126</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="D128" s="10">
+        <v>9</v>
+      </c>
+      <c r="E128" s="10">
+        <v>4</v>
+      </c>
+      <c r="F128" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G128" s="10">
+        <v>200</v>
+      </c>
+      <c r="H128" s="10">
+        <v>224</v>
+      </c>
+      <c r="I128" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" s="11">
+        <v>0</v>
+      </c>
+      <c r="K128" s="11">
+        <v>0</v>
+      </c>
+      <c r="L128" s="11">
+        <v>0</v>
+      </c>
+      <c r="M128" s="11">
+        <v>0</v>
+      </c>
+      <c r="N128" s="11">
+        <v>0</v>
+      </c>
+      <c r="O128" s="11">
+        <v>0</v>
+      </c>
+      <c r="P128" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="11">
+        <v>0</v>
+      </c>
+      <c r="R128" s="11">
+        <v>0</v>
+      </c>
+      <c r="S128" s="11">
+        <v>0</v>
+      </c>
+      <c r="T128" s="10">
+        <v>2</v>
+      </c>
+      <c r="U128" s="10">
+        <v>10</v>
+      </c>
+      <c r="V128" s="10">
+        <v>1</v>
+      </c>
+      <c r="W128" s="10">
+        <v>7</v>
+      </c>
+      <c r="X128" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD128" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE128" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF128" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="AG128" s="28">
+        <f t="shared" ref="AG128" si="9">ROW()-2</f>
+        <v>126</v>
+      </c>
+      <c r="AH128" s="28">
+        <f>IFERROR(VLOOKUP(A128,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI128" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ128" s="28">
+        <f>IFERROR(VLOOKUP(A128,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -19296,10 +19659,10 @@
         <v>118</v>
       </c>
       <c r="E89" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F89" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G89">
         <v>25</v>
@@ -19327,10 +19690,10 @@
         <v>119</v>
       </c>
       <c r="E90" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F90" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G90">
         <v>25</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699159F4-6438-4ECB-920A-FD1DF7B155C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD50C8-B22C-4C6A-A6CD-68E075DE894F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="513">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1917,6 +1917,32 @@
   </si>
   <si>
     <t>비무왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윷가락 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용궁
+용왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+02월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윷놀이 이벤트에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2482,11 +2508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ128"/>
+  <dimension ref="A1:AJ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE131" sqref="AE131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15299,7 +15325,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A128" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A131" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -16896,6 +16922,349 @@
       </c>
       <c r="AJ128" s="28">
         <f>IFERROR(VLOOKUP(A128,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+      <c r="A129" s="25">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="25" t="str">
+        <f t="shared" ref="B129:B131" si="10">"magicBook"&amp;A129</f>
+        <v>magicBook127</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D129" s="25">
+        <v>31</v>
+      </c>
+      <c r="E129" s="25">
+        <v>4</v>
+      </c>
+      <c r="F129" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G129" s="25">
+        <v>200</v>
+      </c>
+      <c r="H129" s="25">
+        <v>240</v>
+      </c>
+      <c r="I129" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" s="26">
+        <v>0</v>
+      </c>
+      <c r="K129" s="26">
+        <v>0</v>
+      </c>
+      <c r="L129" s="26">
+        <v>0</v>
+      </c>
+      <c r="M129" s="26">
+        <v>0</v>
+      </c>
+      <c r="N129" s="26">
+        <v>0</v>
+      </c>
+      <c r="O129" s="26">
+        <v>0</v>
+      </c>
+      <c r="P129" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="26">
+        <v>0</v>
+      </c>
+      <c r="R129" s="26">
+        <v>0</v>
+      </c>
+      <c r="S129" s="26">
+        <v>0</v>
+      </c>
+      <c r="T129" s="25">
+        <v>2</v>
+      </c>
+      <c r="U129" s="25">
+        <v>10</v>
+      </c>
+      <c r="V129" s="25">
+        <v>1</v>
+      </c>
+      <c r="W129" s="25">
+        <v>7</v>
+      </c>
+      <c r="X129" s="25">
+        <v>164000</v>
+      </c>
+      <c r="Y129" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z129" s="14">
+        <v>410000</v>
+      </c>
+      <c r="AA129" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB129" s="14">
+        <v>410000</v>
+      </c>
+      <c r="AC129" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD129" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE129" s="9">
+        <v>520000000</v>
+      </c>
+      <c r="AF129" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="AG129" s="28">
+        <f>ROW()-2</f>
+        <v>127</v>
+      </c>
+      <c r="AH129" s="28">
+        <v>16</v>
+      </c>
+      <c r="AI129" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ129" s="28">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="25">
+        <f>ROW()-2</f>
+        <v>128</v>
+      </c>
+      <c r="B130" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>magicBook128</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D130" s="10">
+        <v>9</v>
+      </c>
+      <c r="E130" s="10">
+        <v>4</v>
+      </c>
+      <c r="F130" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G130" s="10">
+        <v>200</v>
+      </c>
+      <c r="H130" s="10">
+        <v>75</v>
+      </c>
+      <c r="I130" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" s="11">
+        <v>0</v>
+      </c>
+      <c r="K130" s="11">
+        <v>0</v>
+      </c>
+      <c r="L130" s="11">
+        <v>0</v>
+      </c>
+      <c r="M130" s="11">
+        <v>0</v>
+      </c>
+      <c r="N130" s="11">
+        <v>0</v>
+      </c>
+      <c r="O130" s="11">
+        <v>0</v>
+      </c>
+      <c r="P130" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="11">
+        <v>0</v>
+      </c>
+      <c r="R130" s="11">
+        <v>0</v>
+      </c>
+      <c r="S130" s="11">
+        <v>0</v>
+      </c>
+      <c r="T130" s="10">
+        <v>2</v>
+      </c>
+      <c r="U130" s="10">
+        <v>10</v>
+      </c>
+      <c r="V130" s="10">
+        <v>1</v>
+      </c>
+      <c r="W130" s="10">
+        <v>7</v>
+      </c>
+      <c r="X130" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD130" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE130" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF130" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG130" s="28">
+        <f t="shared" ref="AG130:AG131" si="11">ROW()-2</f>
+        <v>128</v>
+      </c>
+      <c r="AH130" s="28">
+        <f>IFERROR(VLOOKUP(A130,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI130" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ130" s="28">
+        <f>IFERROR(VLOOKUP(A130,TransBalance!D:J,7,FALSE),0)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="25">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>magicBook129</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D131" s="10">
+        <v>9</v>
+      </c>
+      <c r="E131" s="10">
+        <v>4</v>
+      </c>
+      <c r="F131" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G131" s="10">
+        <v>200</v>
+      </c>
+      <c r="H131" s="10">
+        <v>75</v>
+      </c>
+      <c r="I131" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" s="11">
+        <v>0</v>
+      </c>
+      <c r="K131" s="11">
+        <v>0</v>
+      </c>
+      <c r="L131" s="11">
+        <v>0</v>
+      </c>
+      <c r="M131" s="11">
+        <v>0</v>
+      </c>
+      <c r="N131" s="11">
+        <v>0</v>
+      </c>
+      <c r="O131" s="11">
+        <v>0</v>
+      </c>
+      <c r="P131" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="11">
+        <v>0</v>
+      </c>
+      <c r="R131" s="11">
+        <v>0</v>
+      </c>
+      <c r="S131" s="11">
+        <v>0</v>
+      </c>
+      <c r="T131" s="10">
+        <v>2</v>
+      </c>
+      <c r="U131" s="10">
+        <v>10</v>
+      </c>
+      <c r="V131" s="10">
+        <v>1</v>
+      </c>
+      <c r="W131" s="10">
+        <v>7</v>
+      </c>
+      <c r="X131" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD131" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF131" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="AG131" s="28">
+        <f t="shared" si="11"/>
+        <v>129</v>
+      </c>
+      <c r="AH131" s="28">
+        <f>IFERROR(VLOOKUP(A131,TransBalance!D:J,6,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI131" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ131" s="28">
+        <f>IFERROR(VLOOKUP(A131,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD50C8-B22C-4C6A-A6CD-68E075DE894F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EFD301-6BFB-499C-8E53-63FC7E5527B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="517">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1943,6 +1943,24 @@
   </si>
   <si>
     <t>윷놀이 이벤트에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+백의대군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+천세상제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백의대군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천세상제 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2508,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ131"/>
+  <dimension ref="A1:AJ133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE131" sqref="AE131"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2756,14 +2774,12 @@
         <v>0</v>
       </c>
       <c r="AH2" s="28">
-        <f>IFERROR(VLOOKUP(A2,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="28">
         <v>76</v>
       </c>
       <c r="AJ2" s="28">
-        <f>IFERROR(VLOOKUP(A2,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -2868,14 +2884,12 @@
         <v>1</v>
       </c>
       <c r="AH3" s="28">
-        <f>IFERROR(VLOOKUP(A3,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="28">
         <v>76</v>
       </c>
       <c r="AJ3" s="28">
-        <f>IFERROR(VLOOKUP(A3,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -2980,14 +2994,12 @@
         <v>2</v>
       </c>
       <c r="AH4" s="28">
-        <f>IFERROR(VLOOKUP(A4,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="28">
         <v>76</v>
       </c>
       <c r="AJ4" s="28">
-        <f>IFERROR(VLOOKUP(A4,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3092,14 +3104,12 @@
         <v>3</v>
       </c>
       <c r="AH5" s="28">
-        <f>IFERROR(VLOOKUP(A5,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI5" s="28">
         <v>76</v>
       </c>
       <c r="AJ5" s="28">
-        <f>IFERROR(VLOOKUP(A5,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3204,14 +3214,12 @@
         <v>4</v>
       </c>
       <c r="AH6" s="28">
-        <f>IFERROR(VLOOKUP(A6,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="28">
         <v>76</v>
       </c>
       <c r="AJ6" s="28">
-        <f>IFERROR(VLOOKUP(A6,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3316,14 +3324,12 @@
         <v>5</v>
       </c>
       <c r="AH7" s="28">
-        <f>IFERROR(VLOOKUP(A7,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="28">
         <v>76</v>
       </c>
       <c r="AJ7" s="28">
-        <f>IFERROR(VLOOKUP(A7,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3428,14 +3434,12 @@
         <v>6</v>
       </c>
       <c r="AH8" s="28">
-        <f>IFERROR(VLOOKUP(A8,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="28">
         <v>76</v>
       </c>
       <c r="AJ8" s="28">
-        <f>IFERROR(VLOOKUP(A8,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3540,14 +3544,12 @@
         <v>7</v>
       </c>
       <c r="AH9" s="28">
-        <f>IFERROR(VLOOKUP(A9,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI9" s="28">
         <v>76</v>
       </c>
       <c r="AJ9" s="28">
-        <f>IFERROR(VLOOKUP(A9,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3652,14 +3654,12 @@
         <v>8</v>
       </c>
       <c r="AH10" s="28">
-        <f>IFERROR(VLOOKUP(A10,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="28">
         <v>76</v>
       </c>
       <c r="AJ10" s="28">
-        <f>IFERROR(VLOOKUP(A10,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3764,14 +3764,12 @@
         <v>9</v>
       </c>
       <c r="AH11" s="28">
-        <f>IFERROR(VLOOKUP(A11,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="28">
         <v>76</v>
       </c>
       <c r="AJ11" s="28">
-        <f>IFERROR(VLOOKUP(A11,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3876,14 +3874,12 @@
         <v>10</v>
       </c>
       <c r="AH12" s="28">
-        <f>IFERROR(VLOOKUP(A12,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="28">
         <v>76</v>
       </c>
       <c r="AJ12" s="28">
-        <f>IFERROR(VLOOKUP(A12,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -3988,14 +3984,12 @@
         <v>11</v>
       </c>
       <c r="AH13" s="28">
-        <f>IFERROR(VLOOKUP(A13,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI13" s="28">
         <v>76</v>
       </c>
       <c r="AJ13" s="28">
-        <f>IFERROR(VLOOKUP(A13,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -4100,14 +4094,12 @@
         <v>12</v>
       </c>
       <c r="AH14" s="28">
-        <f>IFERROR(VLOOKUP(A14,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="28">
         <v>76</v>
       </c>
       <c r="AJ14" s="28">
-        <f>IFERROR(VLOOKUP(A14,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -4212,14 +4204,12 @@
         <v>13</v>
       </c>
       <c r="AH15" s="28">
-        <f>IFERROR(VLOOKUP(A15,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI15" s="28">
         <v>76</v>
       </c>
       <c r="AJ15" s="28">
-        <f>IFERROR(VLOOKUP(A15,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -4324,14 +4314,12 @@
         <v>14</v>
       </c>
       <c r="AH16" s="28">
-        <f>IFERROR(VLOOKUP(A16,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="28">
         <v>76</v>
       </c>
       <c r="AJ16" s="28">
-        <f>IFERROR(VLOOKUP(A16,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -4436,14 +4424,12 @@
         <v>15</v>
       </c>
       <c r="AH17" s="28">
-        <f>IFERROR(VLOOKUP(A17,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI17" s="28">
         <v>76</v>
       </c>
       <c r="AJ17" s="28">
-        <f>IFERROR(VLOOKUP(A17,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -4548,14 +4534,12 @@
         <v>16</v>
       </c>
       <c r="AH18" s="28">
-        <f>IFERROR(VLOOKUP(A18,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI18" s="28">
         <v>76</v>
       </c>
       <c r="AJ18" s="28">
-        <f>IFERROR(VLOOKUP(A18,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -4660,14 +4644,12 @@
         <v>17</v>
       </c>
       <c r="AH19" s="28">
-        <f>IFERROR(VLOOKUP(A19,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI19" s="28">
         <v>76</v>
       </c>
       <c r="AJ19" s="28">
-        <f>IFERROR(VLOOKUP(A19,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -4772,14 +4754,12 @@
         <v>18</v>
       </c>
       <c r="AH20" s="28">
-        <f>IFERROR(VLOOKUP(A20,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI20" s="28">
         <v>76</v>
       </c>
       <c r="AJ20" s="28">
-        <f>IFERROR(VLOOKUP(A20,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -4884,14 +4864,12 @@
         <v>19</v>
       </c>
       <c r="AH21" s="28">
-        <f>IFERROR(VLOOKUP(A21,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI21" s="28">
         <v>76</v>
       </c>
       <c r="AJ21" s="28">
-        <f>IFERROR(VLOOKUP(A21,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -4996,14 +4974,12 @@
         <v>20</v>
       </c>
       <c r="AH22" s="28">
-        <f>IFERROR(VLOOKUP(A22,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI22" s="28">
         <v>76</v>
       </c>
       <c r="AJ22" s="28">
-        <f>IFERROR(VLOOKUP(A22,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -5108,14 +5084,12 @@
         <v>21</v>
       </c>
       <c r="AH23" s="28">
-        <f>IFERROR(VLOOKUP(A23,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI23" s="28">
         <v>76</v>
       </c>
       <c r="AJ23" s="28">
-        <f>IFERROR(VLOOKUP(A23,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -5220,14 +5194,12 @@
         <v>22</v>
       </c>
       <c r="AH24" s="28">
-        <f>IFERROR(VLOOKUP(A24,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI24" s="28">
         <v>76</v>
       </c>
       <c r="AJ24" s="28">
-        <f>IFERROR(VLOOKUP(A24,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -5332,14 +5304,12 @@
         <v>23</v>
       </c>
       <c r="AH25" s="28">
-        <f>IFERROR(VLOOKUP(A25,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="28">
         <v>76</v>
       </c>
       <c r="AJ25" s="28">
-        <f>IFERROR(VLOOKUP(A25,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -5444,14 +5414,12 @@
         <v>24</v>
       </c>
       <c r="AH26" s="28">
-        <f>IFERROR(VLOOKUP(A26,TransBalance!D:J,6,FALSE),0)</f>
         <v>2</v>
       </c>
       <c r="AI26" s="28">
         <v>76</v>
       </c>
       <c r="AJ26" s="28">
-        <f>IFERROR(VLOOKUP(A26,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.04</v>
       </c>
     </row>
@@ -5556,14 +5524,12 @@
         <v>25</v>
       </c>
       <c r="AH27" s="28">
-        <f>IFERROR(VLOOKUP(A27,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI27" s="28">
         <v>76</v>
       </c>
       <c r="AJ27" s="28">
-        <f>IFERROR(VLOOKUP(A27,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -5668,14 +5634,12 @@
         <v>26</v>
       </c>
       <c r="AH28" s="28">
-        <f>IFERROR(VLOOKUP(A28,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI28" s="28">
         <v>76</v>
       </c>
       <c r="AJ28" s="28">
-        <f>IFERROR(VLOOKUP(A28,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -5780,14 +5744,12 @@
         <v>27</v>
       </c>
       <c r="AH29" s="28">
-        <f>IFERROR(VLOOKUP(A29,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI29" s="28">
         <v>76</v>
       </c>
       <c r="AJ29" s="28">
-        <f>IFERROR(VLOOKUP(A29,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -5892,14 +5854,12 @@
         <v>28</v>
       </c>
       <c r="AH30" s="28">
-        <f>IFERROR(VLOOKUP(A30,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI30" s="28">
         <v>76</v>
       </c>
       <c r="AJ30" s="28">
-        <f>IFERROR(VLOOKUP(A30,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6004,14 +5964,12 @@
         <v>29</v>
       </c>
       <c r="AH31" s="28">
-        <f>IFERROR(VLOOKUP(A31,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI31" s="28">
         <v>76</v>
       </c>
       <c r="AJ31" s="28">
-        <f>IFERROR(VLOOKUP(A31,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6116,14 +6074,12 @@
         <v>30</v>
       </c>
       <c r="AH32" s="28">
-        <f>IFERROR(VLOOKUP(A32,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI32" s="28">
         <v>76</v>
       </c>
       <c r="AJ32" s="28">
-        <f>IFERROR(VLOOKUP(A32,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6228,14 +6184,12 @@
         <v>31</v>
       </c>
       <c r="AH33" s="28">
-        <f>IFERROR(VLOOKUP(A33,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI33" s="28">
         <v>76</v>
       </c>
       <c r="AJ33" s="28">
-        <f>IFERROR(VLOOKUP(A33,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6340,14 +6294,12 @@
         <v>32</v>
       </c>
       <c r="AH34" s="28">
-        <f>IFERROR(VLOOKUP(A34,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI34" s="28">
         <v>76</v>
       </c>
       <c r="AJ34" s="28">
-        <f>IFERROR(VLOOKUP(A34,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6452,14 +6404,12 @@
         <v>33</v>
       </c>
       <c r="AH35" s="28">
-        <f>IFERROR(VLOOKUP(A35,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI35" s="28">
         <v>76</v>
       </c>
       <c r="AJ35" s="28">
-        <f>IFERROR(VLOOKUP(A35,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6564,14 +6514,12 @@
         <v>34</v>
       </c>
       <c r="AH36" s="28">
-        <f>IFERROR(VLOOKUP(A36,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI36" s="28">
         <v>76</v>
       </c>
       <c r="AJ36" s="28">
-        <f>IFERROR(VLOOKUP(A36,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6676,14 +6624,12 @@
         <v>35</v>
       </c>
       <c r="AH37" s="28">
-        <f>IFERROR(VLOOKUP(A37,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI37" s="28">
         <v>76</v>
       </c>
       <c r="AJ37" s="28">
-        <f>IFERROR(VLOOKUP(A37,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6788,14 +6734,12 @@
         <v>36</v>
       </c>
       <c r="AH38" s="28">
-        <f>IFERROR(VLOOKUP(A38,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI38" s="28">
         <v>76</v>
       </c>
       <c r="AJ38" s="28">
-        <f>IFERROR(VLOOKUP(A38,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -6900,14 +6844,12 @@
         <v>37</v>
       </c>
       <c r="AH39" s="28">
-        <f>IFERROR(VLOOKUP(A39,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI39" s="28">
         <v>76</v>
       </c>
       <c r="AJ39" s="28">
-        <f>IFERROR(VLOOKUP(A39,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -7012,14 +6954,12 @@
         <v>38</v>
       </c>
       <c r="AH40" s="28">
-        <f>IFERROR(VLOOKUP(A40,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI40" s="28">
         <v>76</v>
       </c>
       <c r="AJ40" s="28">
-        <f>IFERROR(VLOOKUP(A40,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -7124,14 +7064,12 @@
         <v>39</v>
       </c>
       <c r="AH41" s="28">
-        <f>IFERROR(VLOOKUP(A41,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI41" s="28">
         <v>76</v>
       </c>
       <c r="AJ41" s="28">
-        <f>IFERROR(VLOOKUP(A41,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -7236,14 +7174,12 @@
         <v>40</v>
       </c>
       <c r="AH42" s="28">
-        <f>IFERROR(VLOOKUP(A42,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI42" s="28">
         <v>76</v>
       </c>
       <c r="AJ42" s="28">
-        <f>IFERROR(VLOOKUP(A42,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -7348,14 +7284,12 @@
         <v>41</v>
       </c>
       <c r="AH43" s="28">
-        <f>IFERROR(VLOOKUP(A43,TransBalance!D:J,6,FALSE),0)</f>
         <v>4</v>
       </c>
       <c r="AI43" s="28">
         <v>76</v>
       </c>
       <c r="AJ43" s="28">
-        <f>IFERROR(VLOOKUP(A43,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.08</v>
       </c>
     </row>
@@ -7460,14 +7394,12 @@
         <v>42</v>
       </c>
       <c r="AH44" s="28">
-        <f>IFERROR(VLOOKUP(A44,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI44" s="28">
         <v>76</v>
       </c>
       <c r="AJ44" s="28">
-        <f>IFERROR(VLOOKUP(A44,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -7572,14 +7504,12 @@
         <v>43</v>
       </c>
       <c r="AH45" s="28">
-        <f>IFERROR(VLOOKUP(A45,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI45" s="28">
         <v>76</v>
       </c>
       <c r="AJ45" s="28">
-        <f>IFERROR(VLOOKUP(A45,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -7684,14 +7614,12 @@
         <v>44</v>
       </c>
       <c r="AH46" s="28">
-        <f>IFERROR(VLOOKUP(A46,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI46" s="28">
         <v>76</v>
       </c>
       <c r="AJ46" s="28">
-        <f>IFERROR(VLOOKUP(A46,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -7796,14 +7724,12 @@
         <v>45</v>
       </c>
       <c r="AH47" s="28">
-        <f>IFERROR(VLOOKUP(A47,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI47" s="28">
         <v>76</v>
       </c>
       <c r="AJ47" s="28">
-        <f>IFERROR(VLOOKUP(A47,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -7908,14 +7834,12 @@
         <v>46</v>
       </c>
       <c r="AH48" s="28">
-        <f>IFERROR(VLOOKUP(A48,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI48" s="28">
         <v>76</v>
       </c>
       <c r="AJ48" s="28">
-        <f>IFERROR(VLOOKUP(A48,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -8020,14 +7944,12 @@
         <v>47</v>
       </c>
       <c r="AH49" s="28">
-        <f>IFERROR(VLOOKUP(A49,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI49" s="28">
         <v>76</v>
       </c>
       <c r="AJ49" s="28">
-        <f>IFERROR(VLOOKUP(A49,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -8132,14 +8054,12 @@
         <v>48</v>
       </c>
       <c r="AH50" s="28">
-        <f>IFERROR(VLOOKUP(A50,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI50" s="28">
         <v>76</v>
       </c>
       <c r="AJ50" s="28">
-        <f>IFERROR(VLOOKUP(A50,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -8244,14 +8164,12 @@
         <v>49</v>
       </c>
       <c r="AH51" s="28">
-        <f>IFERROR(VLOOKUP(A51,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI51" s="28">
         <v>76</v>
       </c>
       <c r="AJ51" s="28">
-        <f>IFERROR(VLOOKUP(A51,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -8356,14 +8274,12 @@
         <v>50</v>
       </c>
       <c r="AH52" s="28">
-        <f>IFERROR(VLOOKUP(A52,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI52" s="28">
         <v>76</v>
       </c>
       <c r="AJ52" s="28">
-        <f>IFERROR(VLOOKUP(A52,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -8468,14 +8384,12 @@
         <v>51</v>
       </c>
       <c r="AH53" s="28">
-        <f>IFERROR(VLOOKUP(A53,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI53" s="28">
         <v>76</v>
       </c>
       <c r="AJ53" s="28">
-        <f>IFERROR(VLOOKUP(A53,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -8580,14 +8494,12 @@
         <v>52</v>
       </c>
       <c r="AH54" s="28">
-        <f>IFERROR(VLOOKUP(A54,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI54" s="28">
         <v>76</v>
       </c>
       <c r="AJ54" s="28">
-        <f>IFERROR(VLOOKUP(A54,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -8692,14 +8604,12 @@
         <v>53</v>
       </c>
       <c r="AH55" s="28">
-        <f>IFERROR(VLOOKUP(A55,TransBalance!D:J,6,FALSE),0)</f>
         <v>6</v>
       </c>
       <c r="AI55" s="28">
         <v>76</v>
       </c>
       <c r="AJ55" s="28">
-        <f>IFERROR(VLOOKUP(A55,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.12</v>
       </c>
     </row>
@@ -8804,14 +8714,12 @@
         <v>54</v>
       </c>
       <c r="AH56" s="28">
-        <f>IFERROR(VLOOKUP(A56,TransBalance!D:J,6,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="AI56" s="28">
         <v>76</v>
       </c>
       <c r="AJ56" s="28">
-        <f>IFERROR(VLOOKUP(A56,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.16</v>
       </c>
     </row>
@@ -8916,14 +8824,12 @@
         <v>55</v>
       </c>
       <c r="AH57" s="28">
-        <f>IFERROR(VLOOKUP(A57,TransBalance!D:J,6,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="AI57" s="28">
         <v>76</v>
       </c>
       <c r="AJ57" s="28">
-        <f>IFERROR(VLOOKUP(A57,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.16</v>
       </c>
     </row>
@@ -9028,14 +8934,12 @@
         <v>56</v>
       </c>
       <c r="AH58" s="28">
-        <f>IFERROR(VLOOKUP(A58,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI58" s="28">
         <v>76</v>
       </c>
       <c r="AJ58" s="28">
-        <f>IFERROR(VLOOKUP(A58,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -9140,14 +9044,12 @@
         <v>57</v>
       </c>
       <c r="AH59" s="28">
-        <f>IFERROR(VLOOKUP(A59,TransBalance!D:J,6,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="AI59" s="28">
         <v>76</v>
       </c>
       <c r="AJ59" s="28">
-        <f>IFERROR(VLOOKUP(A59,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.16</v>
       </c>
     </row>
@@ -9252,14 +9154,12 @@
         <v>58</v>
       </c>
       <c r="AH60" s="28">
-        <f>IFERROR(VLOOKUP(A60,TransBalance!D:J,6,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="AI60" s="28">
         <v>76</v>
       </c>
       <c r="AJ60" s="28">
-        <f>IFERROR(VLOOKUP(A60,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.16</v>
       </c>
     </row>
@@ -9364,14 +9264,12 @@
         <v>59</v>
       </c>
       <c r="AH61" s="28">
-        <f>IFERROR(VLOOKUP(A61,TransBalance!D:J,6,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="AI61" s="28">
         <v>76</v>
       </c>
       <c r="AJ61" s="28">
-        <f>IFERROR(VLOOKUP(A61,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.16</v>
       </c>
     </row>
@@ -9476,14 +9374,12 @@
         <v>60</v>
       </c>
       <c r="AH62" s="28">
-        <f>IFERROR(VLOOKUP(A62,TransBalance!D:J,6,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="AI62" s="28">
         <v>76</v>
       </c>
       <c r="AJ62" s="28">
-        <f>IFERROR(VLOOKUP(A62,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.16</v>
       </c>
     </row>
@@ -9588,14 +9484,12 @@
         <v>61</v>
       </c>
       <c r="AH63" s="28">
-        <f>IFERROR(VLOOKUP(A63,TransBalance!D:J,6,FALSE),0)</f>
         <v>8</v>
       </c>
       <c r="AI63" s="28">
         <v>76</v>
       </c>
       <c r="AJ63" s="28">
-        <f>IFERROR(VLOOKUP(A63,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.16</v>
       </c>
     </row>
@@ -9700,14 +9594,12 @@
         <v>62</v>
       </c>
       <c r="AH64" s="28">
-        <f>IFERROR(VLOOKUP(A64,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI64" s="28">
         <v>76</v>
       </c>
       <c r="AJ64" s="28">
-        <f>IFERROR(VLOOKUP(A64,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -9812,14 +9704,12 @@
         <v>63</v>
       </c>
       <c r="AH65" s="28">
-        <f>IFERROR(VLOOKUP(A65,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI65" s="28">
         <v>76</v>
       </c>
       <c r="AJ65" s="28">
-        <f>IFERROR(VLOOKUP(A65,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -9924,14 +9814,12 @@
         <v>64</v>
       </c>
       <c r="AH66" s="28">
-        <f>IFERROR(VLOOKUP(A66,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI66" s="28">
         <v>76</v>
       </c>
       <c r="AJ66" s="28">
-        <f>IFERROR(VLOOKUP(A66,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10036,14 +9924,12 @@
         <v>65</v>
       </c>
       <c r="AH67" s="28">
-        <f>IFERROR(VLOOKUP(A67,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI67" s="28">
         <v>76</v>
       </c>
       <c r="AJ67" s="28">
-        <f>IFERROR(VLOOKUP(A67,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10148,14 +10034,12 @@
         <v>66</v>
       </c>
       <c r="AH68" s="28">
-        <f>IFERROR(VLOOKUP(A68,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI68" s="28">
         <v>76</v>
       </c>
       <c r="AJ68" s="28">
-        <f>IFERROR(VLOOKUP(A68,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10260,14 +10144,12 @@
         <v>67</v>
       </c>
       <c r="AH69" s="28">
-        <f>IFERROR(VLOOKUP(A69,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI69" s="28">
         <v>76</v>
       </c>
       <c r="AJ69" s="28">
-        <f>IFERROR(VLOOKUP(A69,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10372,14 +10254,12 @@
         <v>68</v>
       </c>
       <c r="AH70" s="28">
-        <f>IFERROR(VLOOKUP(A70,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI70" s="28">
         <v>76</v>
       </c>
       <c r="AJ70" s="28">
-        <f>IFERROR(VLOOKUP(A70,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10484,14 +10364,12 @@
         <v>69</v>
       </c>
       <c r="AH71" s="28">
-        <f>IFERROR(VLOOKUP(A71,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI71" s="28">
         <v>76</v>
       </c>
       <c r="AJ71" s="28">
-        <f>IFERROR(VLOOKUP(A71,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10596,14 +10474,12 @@
         <v>70</v>
       </c>
       <c r="AH72" s="28">
-        <f>IFERROR(VLOOKUP(A72,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI72" s="28">
         <v>76</v>
       </c>
       <c r="AJ72" s="28">
-        <f>IFERROR(VLOOKUP(A72,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -10708,14 +10584,12 @@
         <v>71</v>
       </c>
       <c r="AH73" s="28">
-        <f>IFERROR(VLOOKUP(A73,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI73" s="28">
         <v>76</v>
       </c>
       <c r="AJ73" s="28">
-        <f>IFERROR(VLOOKUP(A73,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10820,14 +10694,12 @@
         <v>72</v>
       </c>
       <c r="AH74" s="28">
-        <f>IFERROR(VLOOKUP(A74,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI74" s="28">
         <v>76</v>
       </c>
       <c r="AJ74" s="28">
-        <f>IFERROR(VLOOKUP(A74,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -10932,14 +10804,12 @@
         <v>73</v>
       </c>
       <c r="AH75" s="28">
-        <f>IFERROR(VLOOKUP(A75,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI75" s="28">
         <v>76</v>
       </c>
       <c r="AJ75" s="28">
-        <f>IFERROR(VLOOKUP(A75,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -11044,14 +10914,12 @@
         <v>74</v>
       </c>
       <c r="AH76" s="28">
-        <f>IFERROR(VLOOKUP(A76,TransBalance!D:J,6,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="AI76" s="28">
         <v>76</v>
       </c>
       <c r="AJ76" s="28">
-        <f>IFERROR(VLOOKUP(A76,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.2</v>
       </c>
     </row>
@@ -11156,14 +11024,12 @@
         <v>75</v>
       </c>
       <c r="AH77" s="28">
-        <f>IFERROR(VLOOKUP(A77,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI77" s="28">
         <v>76</v>
       </c>
       <c r="AJ77" s="28">
-        <f>IFERROR(VLOOKUP(A77,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -11268,14 +11134,12 @@
         <v>76</v>
       </c>
       <c r="AH78" s="28">
-        <f>IFERROR(VLOOKUP(A78,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI78" s="28">
         <v>76</v>
       </c>
       <c r="AJ78" s="28">
-        <f>IFERROR(VLOOKUP(A78,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -11380,14 +11244,12 @@
         <v>77</v>
       </c>
       <c r="AH79" s="28">
-        <f>IFERROR(VLOOKUP(A79,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI79" s="28">
         <v>76</v>
       </c>
       <c r="AJ79" s="28">
-        <f>IFERROR(VLOOKUP(A79,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -11492,14 +11354,12 @@
         <v>78</v>
       </c>
       <c r="AH80" s="28">
-        <f>IFERROR(VLOOKUP(A80,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI80" s="28">
         <v>76</v>
       </c>
       <c r="AJ80" s="28">
-        <f>IFERROR(VLOOKUP(A80,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -11604,14 +11464,12 @@
         <v>79</v>
       </c>
       <c r="AH81" s="28">
-        <f>IFERROR(VLOOKUP(A81,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI81" s="28">
         <v>76</v>
       </c>
       <c r="AJ81" s="28">
-        <f>IFERROR(VLOOKUP(A81,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -11716,14 +11574,12 @@
         <v>80</v>
       </c>
       <c r="AH82" s="28">
-        <f>IFERROR(VLOOKUP(A82,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI82" s="28">
         <v>76</v>
       </c>
       <c r="AJ82" s="28">
-        <f>IFERROR(VLOOKUP(A82,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -11828,14 +11684,12 @@
         <v>81</v>
       </c>
       <c r="AH83" s="28">
-        <f>IFERROR(VLOOKUP(A83,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI83" s="28">
         <v>76</v>
       </c>
       <c r="AJ83" s="28">
-        <f>IFERROR(VLOOKUP(A83,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -11940,14 +11794,12 @@
         <v>82</v>
       </c>
       <c r="AH84" s="28">
-        <f>IFERROR(VLOOKUP(A84,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI84" s="28">
         <v>76</v>
       </c>
       <c r="AJ84" s="28">
-        <f>IFERROR(VLOOKUP(A84,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -12052,14 +11904,12 @@
         <v>83</v>
       </c>
       <c r="AH85" s="28">
-        <f>IFERROR(VLOOKUP(A85,TransBalance!D:J,6,FALSE),0)</f>
         <v>12</v>
       </c>
       <c r="AI85" s="28">
         <v>76</v>
       </c>
       <c r="AJ85" s="28">
-        <f>IFERROR(VLOOKUP(A85,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.26</v>
       </c>
     </row>
@@ -12164,14 +12014,12 @@
         <v>84</v>
       </c>
       <c r="AH86" s="28">
-        <f>IFERROR(VLOOKUP(A86,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI86" s="28">
         <v>76</v>
       </c>
       <c r="AJ86" s="28">
-        <f>IFERROR(VLOOKUP(A86,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -12276,14 +12124,12 @@
         <v>85</v>
       </c>
       <c r="AH87" s="28">
-        <f>IFERROR(VLOOKUP(A87,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI87" s="28">
         <v>76</v>
       </c>
       <c r="AJ87" s="28">
-        <f>IFERROR(VLOOKUP(A87,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -12388,14 +12234,12 @@
         <v>86</v>
       </c>
       <c r="AH88" s="28">
-        <f>IFERROR(VLOOKUP(A88,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI88" s="28">
         <v>76</v>
       </c>
       <c r="AJ88" s="28">
-        <f>IFERROR(VLOOKUP(A88,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -12500,14 +12344,12 @@
         <v>87</v>
       </c>
       <c r="AH89" s="28">
-        <f>IFERROR(VLOOKUP(A89,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI89" s="28">
         <v>76</v>
       </c>
       <c r="AJ89" s="28">
-        <f>IFERROR(VLOOKUP(A89,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -12612,14 +12454,12 @@
         <v>88</v>
       </c>
       <c r="AH90" s="28">
-        <f>IFERROR(VLOOKUP(A90,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI90" s="28">
         <v>76</v>
       </c>
       <c r="AJ90" s="28">
-        <f>IFERROR(VLOOKUP(A90,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -12724,14 +12564,12 @@
         <v>89</v>
       </c>
       <c r="AH91" s="28">
-        <f>IFERROR(VLOOKUP(A91,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI91" s="28">
         <v>76</v>
       </c>
       <c r="AJ91" s="28">
-        <f>IFERROR(VLOOKUP(A91,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -12836,14 +12674,12 @@
         <v>90</v>
       </c>
       <c r="AH92" s="28">
-        <f>IFERROR(VLOOKUP(A92,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI92" s="28">
         <v>76</v>
       </c>
       <c r="AJ92" s="28">
-        <f>IFERROR(VLOOKUP(A92,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -12948,14 +12784,12 @@
         <v>91</v>
       </c>
       <c r="AH93" s="28">
-        <f>IFERROR(VLOOKUP(A93,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI93" s="28">
         <v>76</v>
       </c>
       <c r="AJ93" s="28">
-        <f>IFERROR(VLOOKUP(A93,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -13060,14 +12894,12 @@
         <v>92</v>
       </c>
       <c r="AH94" s="28">
-        <f>IFERROR(VLOOKUP(A94,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI94" s="28">
         <v>76</v>
       </c>
       <c r="AJ94" s="28">
-        <f>IFERROR(VLOOKUP(A94,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -13172,14 +13004,12 @@
         <v>93</v>
       </c>
       <c r="AH95" s="28">
-        <f>IFERROR(VLOOKUP(A95,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI95" s="28">
         <v>76</v>
       </c>
       <c r="AJ95" s="28">
-        <f>IFERROR(VLOOKUP(A95,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -13284,14 +13114,12 @@
         <v>94</v>
       </c>
       <c r="AH96" s="28">
-        <f>IFERROR(VLOOKUP(A96,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI96" s="28">
         <v>76</v>
       </c>
       <c r="AJ96" s="28">
-        <f>IFERROR(VLOOKUP(A96,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -13396,14 +13224,12 @@
         <v>95</v>
       </c>
       <c r="AH97" s="28">
-        <f>IFERROR(VLOOKUP(A97,TransBalance!D:J,6,FALSE),0)</f>
         <v>14</v>
       </c>
       <c r="AI97" s="28">
         <v>76</v>
       </c>
       <c r="AJ97" s="28">
-        <f>IFERROR(VLOOKUP(A97,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.32</v>
       </c>
     </row>
@@ -13508,14 +13334,12 @@
         <v>96</v>
       </c>
       <c r="AH98" s="28">
-        <f>IFERROR(VLOOKUP(A98,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI98" s="28">
         <v>76</v>
       </c>
       <c r="AJ98" s="28">
-        <f>IFERROR(VLOOKUP(A98,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -13620,14 +13444,12 @@
         <v>97</v>
       </c>
       <c r="AH99" s="28">
-        <f>IFERROR(VLOOKUP(A99,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI99" s="28">
         <v>76</v>
       </c>
       <c r="AJ99" s="28">
-        <f>IFERROR(VLOOKUP(A99,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -13732,14 +13554,12 @@
         <v>98</v>
       </c>
       <c r="AH100" s="28">
-        <f>IFERROR(VLOOKUP(A100,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI100" s="28">
         <v>76</v>
       </c>
       <c r="AJ100" s="28">
-        <f>IFERROR(VLOOKUP(A100,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -13844,14 +13664,12 @@
         <v>99</v>
       </c>
       <c r="AH101" s="28">
-        <f>IFERROR(VLOOKUP(A101,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI101" s="28">
         <v>76</v>
       </c>
       <c r="AJ101" s="28">
-        <f>IFERROR(VLOOKUP(A101,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -13956,14 +13774,12 @@
         <v>100</v>
       </c>
       <c r="AH102" s="28">
-        <f>IFERROR(VLOOKUP(A102,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI102" s="28">
         <v>76</v>
       </c>
       <c r="AJ102" s="28">
-        <f>IFERROR(VLOOKUP(A102,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -14069,14 +13885,12 @@
         <v>101</v>
       </c>
       <c r="AH103" s="28">
-        <f>IFERROR(VLOOKUP(A103,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI103" s="28">
         <v>76</v>
       </c>
       <c r="AJ103" s="28">
-        <f>IFERROR(VLOOKUP(A103,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -14182,14 +13996,12 @@
         <v>102</v>
       </c>
       <c r="AH104" s="28">
-        <f>IFERROR(VLOOKUP(A104,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI104" s="28">
         <v>76</v>
       </c>
       <c r="AJ104" s="28">
-        <f>IFERROR(VLOOKUP(A104,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -14295,14 +14107,12 @@
         <v>103</v>
       </c>
       <c r="AH105" s="28">
-        <f>IFERROR(VLOOKUP(A105,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI105" s="28">
         <v>76</v>
       </c>
       <c r="AJ105" s="28">
-        <f>IFERROR(VLOOKUP(A105,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -14408,14 +14218,12 @@
         <v>104</v>
       </c>
       <c r="AH106" s="28">
-        <f>IFERROR(VLOOKUP(A106,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI106" s="28">
         <v>76</v>
       </c>
       <c r="AJ106" s="28">
-        <f>IFERROR(VLOOKUP(A106,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -14521,14 +14329,12 @@
         <v>105</v>
       </c>
       <c r="AH107" s="28">
-        <f>IFERROR(VLOOKUP(A107,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI107" s="28">
         <v>76</v>
       </c>
       <c r="AJ107" s="28">
-        <f>IFERROR(VLOOKUP(A107,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -14634,14 +14440,12 @@
         <v>106</v>
       </c>
       <c r="AH108" s="28">
-        <f>IFERROR(VLOOKUP(A108,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI108" s="28">
         <v>76</v>
       </c>
       <c r="AJ108" s="28">
-        <f>IFERROR(VLOOKUP(A108,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -14747,14 +14551,12 @@
         <v>107</v>
       </c>
       <c r="AH109" s="28">
-        <f>IFERROR(VLOOKUP(A109,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI109" s="28">
         <v>76</v>
       </c>
       <c r="AJ109" s="28">
-        <f>IFERROR(VLOOKUP(A109,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -14860,14 +14662,12 @@
         <v>108</v>
       </c>
       <c r="AH110" s="28">
-        <f>IFERROR(VLOOKUP(A110,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI110" s="28">
         <v>76</v>
       </c>
       <c r="AJ110" s="28">
-        <f>IFERROR(VLOOKUP(A110,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -14973,14 +14773,12 @@
         <v>109</v>
       </c>
       <c r="AH111" s="28">
-        <f>IFERROR(VLOOKUP(A111,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI111" s="28">
         <v>76</v>
       </c>
       <c r="AJ111" s="28">
-        <f>IFERROR(VLOOKUP(A111,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -15086,14 +14884,12 @@
         <v>110</v>
       </c>
       <c r="AH112" s="28">
-        <f>IFERROR(VLOOKUP(A112,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI112" s="28">
         <v>76</v>
       </c>
       <c r="AJ112" s="28">
-        <f>IFERROR(VLOOKUP(A112,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -15199,14 +14995,12 @@
         <v>111</v>
       </c>
       <c r="AH113" s="28">
-        <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI113" s="28">
         <v>76</v>
       </c>
       <c r="AJ113" s="28">
-        <f>IFERROR(VLOOKUP(A113,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -15312,20 +15106,18 @@
         <v>112</v>
       </c>
       <c r="AH114" s="28">
-        <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI114" s="28">
         <v>76</v>
       </c>
       <c r="AJ114" s="28">
-        <f>IFERROR(VLOOKUP(A114,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A131" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A133" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -15427,14 +15219,12 @@
         <v>113</v>
       </c>
       <c r="AH115" s="28">
-        <f>IFERROR(VLOOKUP(A115,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI115" s="28">
         <v>76</v>
       </c>
       <c r="AJ115" s="28">
-        <f>IFERROR(VLOOKUP(A115,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -15542,14 +15332,12 @@
         <v>114</v>
       </c>
       <c r="AH116" s="28">
-        <f>IFERROR(VLOOKUP(A116,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI116" s="28">
         <v>76</v>
       </c>
       <c r="AJ116" s="28">
-        <f>IFERROR(VLOOKUP(A116,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -15657,14 +15445,12 @@
         <v>115</v>
       </c>
       <c r="AH117" s="28">
-        <f>IFERROR(VLOOKUP(A117,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI117" s="28">
         <v>76</v>
       </c>
       <c r="AJ117" s="28">
-        <f>IFERROR(VLOOKUP(A117,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -15772,14 +15558,12 @@
         <v>116</v>
       </c>
       <c r="AH118" s="28">
-        <f>IFERROR(VLOOKUP(A118,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI118" s="28">
         <v>76</v>
       </c>
       <c r="AJ118" s="28">
-        <f>IFERROR(VLOOKUP(A118,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -15887,14 +15671,12 @@
         <v>117</v>
       </c>
       <c r="AH119" s="28">
-        <f>IFERROR(VLOOKUP(A119,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI119" s="28">
         <v>76</v>
       </c>
       <c r="AJ119" s="28">
-        <f>IFERROR(VLOOKUP(A119,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -16002,14 +15784,12 @@
         <v>118</v>
       </c>
       <c r="AH120" s="28">
-        <f>IFERROR(VLOOKUP(A120,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI120" s="28">
         <v>76</v>
       </c>
       <c r="AJ120" s="28">
-        <f>IFERROR(VLOOKUP(A120,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -16117,14 +15897,12 @@
         <v>119</v>
       </c>
       <c r="AH121" s="28">
-        <f>IFERROR(VLOOKUP(A121,TransBalance!D:J,6,FALSE),0)</f>
         <v>16</v>
       </c>
       <c r="AI121" s="28">
         <v>76</v>
       </c>
       <c r="AJ121" s="28">
-        <f>IFERROR(VLOOKUP(A121,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0.36</v>
       </c>
     </row>
@@ -16232,14 +16010,12 @@
         <v>120</v>
       </c>
       <c r="AH122" s="28">
-        <f>IFERROR(VLOOKUP(A122,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI122" s="28">
         <v>76</v>
       </c>
       <c r="AJ122" s="28">
-        <f>IFERROR(VLOOKUP(A122,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -16573,14 +16349,12 @@
         <v>123</v>
       </c>
       <c r="AH125" s="28">
-        <f>IFERROR(VLOOKUP(A125,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI125" s="28">
         <v>76</v>
       </c>
       <c r="AJ125" s="28">
-        <f>IFERROR(VLOOKUP(A125,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -16914,14 +16688,12 @@
         <v>126</v>
       </c>
       <c r="AH128" s="28">
-        <f>IFERROR(VLOOKUP(A128,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI128" s="28">
         <v>76</v>
       </c>
       <c r="AJ128" s="28">
-        <f>IFERROR(VLOOKUP(A128,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -16931,7 +16703,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="25" t="str">
-        <f t="shared" ref="B129:B131" si="10">"magicBook"&amp;A129</f>
+        <f t="shared" ref="B129:B133" si="10">"magicBook"&amp;A129</f>
         <v>magicBook127</v>
       </c>
       <c r="C129" s="23" t="s">
@@ -17142,14 +16914,12 @@
         <v>128</v>
       </c>
       <c r="AH130" s="28">
-        <f>IFERROR(VLOOKUP(A130,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI130" s="28">
         <v>76</v>
       </c>
       <c r="AJ130" s="28">
-        <f>IFERROR(VLOOKUP(A130,TransBalance!D:J,7,FALSE),0)/100</f>
         <v>0</v>
       </c>
     </row>
@@ -17257,25 +17027,249 @@
         <v>129</v>
       </c>
       <c r="AH131" s="28">
-        <f>IFERROR(VLOOKUP(A131,TransBalance!D:J,6,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="AI131" s="28">
         <v>76</v>
       </c>
       <c r="AJ131" s="28">
-        <f>IFERROR(VLOOKUP(A131,TransBalance!D:J,7,FALSE),0)/100</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A132" s="25">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="B132" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>magicBook130</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="D132" s="25">
+        <v>31</v>
+      </c>
+      <c r="E132" s="25">
+        <v>4</v>
+      </c>
+      <c r="F132" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G132" s="25">
+        <v>200</v>
+      </c>
+      <c r="H132" s="25">
+        <v>243</v>
+      </c>
+      <c r="I132" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" s="26">
+        <v>0</v>
+      </c>
+      <c r="K132" s="26">
+        <v>0</v>
+      </c>
+      <c r="L132" s="26">
+        <v>0</v>
+      </c>
+      <c r="M132" s="26">
+        <v>0</v>
+      </c>
+      <c r="N132" s="26">
+        <v>0</v>
+      </c>
+      <c r="O132" s="26">
+        <v>0</v>
+      </c>
+      <c r="P132" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="26">
+        <v>0</v>
+      </c>
+      <c r="R132" s="26">
+        <v>0</v>
+      </c>
+      <c r="S132" s="26">
+        <v>0</v>
+      </c>
+      <c r="T132" s="25">
+        <v>2</v>
+      </c>
+      <c r="U132" s="25">
+        <v>10</v>
+      </c>
+      <c r="V132" s="25">
+        <v>1</v>
+      </c>
+      <c r="W132" s="25">
+        <v>7</v>
+      </c>
+      <c r="X132" s="25">
+        <v>166000</v>
+      </c>
+      <c r="Y132" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z132" s="14">
+        <v>430000</v>
+      </c>
+      <c r="AA132" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB132" s="14">
+        <v>430000</v>
+      </c>
+      <c r="AC132" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD132" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE132" s="9">
+        <v>540000000</v>
+      </c>
+      <c r="AF132" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="AG132" s="28">
+        <f>ROW()-2</f>
+        <v>130</v>
+      </c>
+      <c r="AH132" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI132" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ132" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="25">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="25" t="str">
+        <f t="shared" si="10"/>
+        <v>magicBook131</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="D133" s="25">
+        <v>31</v>
+      </c>
+      <c r="E133" s="25">
+        <v>4</v>
+      </c>
+      <c r="F133" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G133" s="25">
+        <v>200</v>
+      </c>
+      <c r="H133" s="25">
+        <v>244</v>
+      </c>
+      <c r="I133" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" s="26">
+        <v>0</v>
+      </c>
+      <c r="K133" s="26">
+        <v>0</v>
+      </c>
+      <c r="L133" s="26">
+        <v>0</v>
+      </c>
+      <c r="M133" s="26">
+        <v>0</v>
+      </c>
+      <c r="N133" s="26">
+        <v>0</v>
+      </c>
+      <c r="O133" s="26">
+        <v>0</v>
+      </c>
+      <c r="P133" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="26">
+        <v>0</v>
+      </c>
+      <c r="R133" s="26">
+        <v>0</v>
+      </c>
+      <c r="S133" s="26">
+        <v>0</v>
+      </c>
+      <c r="T133" s="25">
+        <v>2</v>
+      </c>
+      <c r="U133" s="25">
+        <v>10</v>
+      </c>
+      <c r="V133" s="25">
+        <v>1</v>
+      </c>
+      <c r="W133" s="25">
+        <v>7</v>
+      </c>
+      <c r="X133" s="25">
+        <v>168000</v>
+      </c>
+      <c r="Y133" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z133" s="14">
+        <v>430000</v>
+      </c>
+      <c r="AA133" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB133" s="14">
+        <v>430000</v>
+      </c>
+      <c r="AC133" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD133" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE133" s="9">
+        <v>560000000</v>
+      </c>
+      <c r="AF133" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="AG133" s="28">
+        <f>ROW()-2</f>
+        <v>131</v>
+      </c>
+      <c r="AH133" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI133" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ133" s="28">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE60" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576 X1:X1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576 H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EFD301-6BFB-499C-8E53-63FC7E5527B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19613120-1A29-4DCF-ADF5-7D649842762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="520">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1961,6 +1961,20 @@
   </si>
   <si>
     <t>천세상제 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천세왕후 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+천세왕후에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+03월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2526,11 +2540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ133"/>
+  <dimension ref="A1:AJ135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15117,7 +15131,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A133" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A134" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -17049,7 +17063,7 @@
         <v>515</v>
       </c>
       <c r="D132" s="25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E132" s="25">
         <v>4</v>
@@ -17162,7 +17176,7 @@
         <v>516</v>
       </c>
       <c r="D133" s="25">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E133" s="25">
         <v>4</v>
@@ -17260,6 +17274,232 @@
       </c>
       <c r="AJ133" s="28">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A134" s="25">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="25" t="str">
+        <f t="shared" ref="B134:B135" si="12">"magicBook"&amp;A134</f>
+        <v>magicBook132</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" s="25">
+        <v>34</v>
+      </c>
+      <c r="E134" s="25">
+        <v>4</v>
+      </c>
+      <c r="F134" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G134" s="25">
+        <v>200</v>
+      </c>
+      <c r="H134" s="25">
+        <v>248</v>
+      </c>
+      <c r="I134" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" s="26">
+        <v>0</v>
+      </c>
+      <c r="K134" s="26">
+        <v>0</v>
+      </c>
+      <c r="L134" s="26">
+        <v>0</v>
+      </c>
+      <c r="M134" s="26">
+        <v>0</v>
+      </c>
+      <c r="N134" s="26">
+        <v>0</v>
+      </c>
+      <c r="O134" s="26">
+        <v>0</v>
+      </c>
+      <c r="P134" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q134" s="26">
+        <v>0</v>
+      </c>
+      <c r="R134" s="26">
+        <v>0</v>
+      </c>
+      <c r="S134" s="26">
+        <v>0</v>
+      </c>
+      <c r="T134" s="25">
+        <v>2</v>
+      </c>
+      <c r="U134" s="25">
+        <v>10</v>
+      </c>
+      <c r="V134" s="25">
+        <v>1</v>
+      </c>
+      <c r="W134" s="25">
+        <v>7</v>
+      </c>
+      <c r="X134" s="25">
+        <v>170000</v>
+      </c>
+      <c r="Y134" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z134" s="14">
+        <v>450000</v>
+      </c>
+      <c r="AA134" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB134" s="14">
+        <v>450000</v>
+      </c>
+      <c r="AC134" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD134" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE134" s="9">
+        <v>580000000</v>
+      </c>
+      <c r="AF134" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="AG134" s="28">
+        <f>ROW()-2</f>
+        <v>132</v>
+      </c>
+      <c r="AH134" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI134" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ134" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="25">
+        <f>ROW()-2</f>
+        <v>133</v>
+      </c>
+      <c r="B135" s="25" t="str">
+        <f t="shared" si="12"/>
+        <v>magicBook133</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135" s="10">
+        <v>9</v>
+      </c>
+      <c r="E135" s="10">
+        <v>4</v>
+      </c>
+      <c r="F135" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G135" s="10">
+        <v>200</v>
+      </c>
+      <c r="H135" s="10">
+        <v>75</v>
+      </c>
+      <c r="I135" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" s="11">
+        <v>0</v>
+      </c>
+      <c r="K135" s="11">
+        <v>0</v>
+      </c>
+      <c r="L135" s="11">
+        <v>0</v>
+      </c>
+      <c r="M135" s="11">
+        <v>0</v>
+      </c>
+      <c r="N135" s="11">
+        <v>0</v>
+      </c>
+      <c r="O135" s="11">
+        <v>0</v>
+      </c>
+      <c r="P135" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="11">
+        <v>0</v>
+      </c>
+      <c r="R135" s="11">
+        <v>0</v>
+      </c>
+      <c r="S135" s="11">
+        <v>0</v>
+      </c>
+      <c r="T135" s="10">
+        <v>2</v>
+      </c>
+      <c r="U135" s="10">
+        <v>10</v>
+      </c>
+      <c r="V135" s="10">
+        <v>1</v>
+      </c>
+      <c r="W135" s="10">
+        <v>7</v>
+      </c>
+      <c r="X135" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD135" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF135" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG135" s="28">
+        <f t="shared" ref="AG135" si="13">ROW()-2</f>
+        <v>133</v>
+      </c>
+      <c r="AH135" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ135" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19613120-1A29-4DCF-ADF5-7D649842762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF61B4A4-4A3E-40EE-9A44-848AED90AB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="522">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1975,6 +1975,15 @@
   <si>
     <t>2024
 03월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온화천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+온화천왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2244,9 +2253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2284,7 +2293,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2390,7 +2399,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2532,7 +2541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2540,11 +2549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ135"/>
+  <dimension ref="A1:AJ136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D132" sqref="D132"/>
+      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15131,7 +15140,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A134" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A136" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -17500,6 +17509,119 @@
       </c>
       <c r="AJ135" s="28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A136" s="25">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="25" t="str">
+        <f t="shared" ref="B136" si="14">"magicBook"&amp;A136</f>
+        <v>magicBook134</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="D136" s="25">
+        <v>34</v>
+      </c>
+      <c r="E136" s="25">
+        <v>4</v>
+      </c>
+      <c r="F136" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G136" s="25">
+        <v>200</v>
+      </c>
+      <c r="H136" s="25">
+        <v>252</v>
+      </c>
+      <c r="I136" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" s="26">
+        <v>0</v>
+      </c>
+      <c r="K136" s="26">
+        <v>0</v>
+      </c>
+      <c r="L136" s="26">
+        <v>0</v>
+      </c>
+      <c r="M136" s="26">
+        <v>0</v>
+      </c>
+      <c r="N136" s="26">
+        <v>0</v>
+      </c>
+      <c r="O136" s="26">
+        <v>0</v>
+      </c>
+      <c r="P136" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q136" s="26">
+        <v>0</v>
+      </c>
+      <c r="R136" s="26">
+        <v>0</v>
+      </c>
+      <c r="S136" s="26">
+        <v>0</v>
+      </c>
+      <c r="T136" s="25">
+        <v>2</v>
+      </c>
+      <c r="U136" s="25">
+        <v>10</v>
+      </c>
+      <c r="V136" s="25">
+        <v>1</v>
+      </c>
+      <c r="W136" s="25">
+        <v>7</v>
+      </c>
+      <c r="X136" s="25">
+        <v>172000</v>
+      </c>
+      <c r="Y136" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z136" s="14">
+        <v>470000</v>
+      </c>
+      <c r="AA136" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB136" s="14">
+        <v>470000</v>
+      </c>
+      <c r="AC136" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD136" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="9">
+        <v>600000000</v>
+      </c>
+      <c r="AF136" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="AG136" s="28">
+        <f>ROW()-2</f>
+        <v>134</v>
+      </c>
+      <c r="AH136" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI136" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ136" s="28">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF61B4A4-4A3E-40EE-9A44-848AED90AB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077D502C-39CE-4026-9B89-1E6D7CA120FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="524">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1984,6 +1984,15 @@
   <si>
     <t>극락
 온화천왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명상제 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+광명상제에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2549,11 +2558,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ136"/>
+  <dimension ref="A1:AJ137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15140,7 +15149,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A136" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A137" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -17621,6 +17630,119 @@
         <v>76</v>
       </c>
       <c r="AJ136" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A137" s="25">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="25" t="str">
+        <f t="shared" ref="B137" si="15">"magicBook"&amp;A137</f>
+        <v>magicBook135</v>
+      </c>
+      <c r="C137" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="D137" s="25">
+        <v>34</v>
+      </c>
+      <c r="E137" s="25">
+        <v>4</v>
+      </c>
+      <c r="F137" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G137" s="25">
+        <v>200</v>
+      </c>
+      <c r="H137" s="25">
+        <v>256</v>
+      </c>
+      <c r="I137" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" s="26">
+        <v>0</v>
+      </c>
+      <c r="K137" s="26">
+        <v>0</v>
+      </c>
+      <c r="L137" s="26">
+        <v>0</v>
+      </c>
+      <c r="M137" s="26">
+        <v>0</v>
+      </c>
+      <c r="N137" s="26">
+        <v>0</v>
+      </c>
+      <c r="O137" s="26">
+        <v>0</v>
+      </c>
+      <c r="P137" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q137" s="26">
+        <v>0</v>
+      </c>
+      <c r="R137" s="26">
+        <v>0</v>
+      </c>
+      <c r="S137" s="26">
+        <v>0</v>
+      </c>
+      <c r="T137" s="25">
+        <v>2</v>
+      </c>
+      <c r="U137" s="25">
+        <v>10</v>
+      </c>
+      <c r="V137" s="25">
+        <v>1</v>
+      </c>
+      <c r="W137" s="25">
+        <v>7</v>
+      </c>
+      <c r="X137" s="25">
+        <v>174000</v>
+      </c>
+      <c r="Y137" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z137" s="14">
+        <v>490000</v>
+      </c>
+      <c r="AA137" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB137" s="14">
+        <v>490000</v>
+      </c>
+      <c r="AC137" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD137" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE137" s="9">
+        <v>620000000</v>
+      </c>
+      <c r="AF137" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="AG137" s="28">
+        <f>ROW()-2</f>
+        <v>135</v>
+      </c>
+      <c r="AH137" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI137" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ137" s="28">
         <v>0.5</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077D502C-39CE-4026-9B89-1E6D7CA120FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36487792-6055-4AE7-9D52-E903F93655CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="529">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1993,6 +1993,29 @@
   <si>
     <t>극락
 광명상제에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수월경화 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+04월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극락
+극락천왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 임무
+누적 보상으로 획득가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2558,11 +2581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ137"/>
+  <dimension ref="A1:AJ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomLeft" activeCell="AF140" sqref="AF140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15149,7 +15172,7 @@
     </row>
     <row r="115" spans="1:36" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
-        <f t="shared" ref="A115:A137" si="2">ROW()-2</f>
+        <f t="shared" ref="A115:A138" si="2">ROW()-2</f>
         <v>113</v>
       </c>
       <c r="B115" s="25" t="str">
@@ -17744,6 +17767,345 @@
       </c>
       <c r="AJ137" s="28">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A138" s="25">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="25" t="str">
+        <f t="shared" ref="B138:B140" si="16">"magicBook"&amp;A138</f>
+        <v>magicBook136</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="D138" s="25">
+        <v>34</v>
+      </c>
+      <c r="E138" s="25">
+        <v>4</v>
+      </c>
+      <c r="F138" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G138" s="25">
+        <v>200</v>
+      </c>
+      <c r="H138" s="25">
+        <v>261</v>
+      </c>
+      <c r="I138" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" s="26">
+        <v>0</v>
+      </c>
+      <c r="K138" s="26">
+        <v>0</v>
+      </c>
+      <c r="L138" s="26">
+        <v>0</v>
+      </c>
+      <c r="M138" s="26">
+        <v>0</v>
+      </c>
+      <c r="N138" s="26">
+        <v>0</v>
+      </c>
+      <c r="O138" s="26">
+        <v>0</v>
+      </c>
+      <c r="P138" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="26">
+        <v>0</v>
+      </c>
+      <c r="R138" s="26">
+        <v>0</v>
+      </c>
+      <c r="S138" s="26">
+        <v>0</v>
+      </c>
+      <c r="T138" s="25">
+        <v>2</v>
+      </c>
+      <c r="U138" s="25">
+        <v>10</v>
+      </c>
+      <c r="V138" s="25">
+        <v>1</v>
+      </c>
+      <c r="W138" s="25">
+        <v>7</v>
+      </c>
+      <c r="X138" s="25">
+        <v>176000</v>
+      </c>
+      <c r="Y138" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z138" s="14">
+        <v>510000</v>
+      </c>
+      <c r="AA138" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB138" s="14">
+        <v>510000</v>
+      </c>
+      <c r="AC138" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD138" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE138" s="9">
+        <v>640000000</v>
+      </c>
+      <c r="AF138" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="AG138" s="28">
+        <f>ROW()-2</f>
+        <v>136</v>
+      </c>
+      <c r="AH138" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI138" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ138" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="25">
+        <f>ROW()-2</f>
+        <v>137</v>
+      </c>
+      <c r="B139" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>magicBook137</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="D139" s="10">
+        <v>9</v>
+      </c>
+      <c r="E139" s="10">
+        <v>4</v>
+      </c>
+      <c r="F139" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G139" s="10">
+        <v>200</v>
+      </c>
+      <c r="H139" s="10">
+        <v>75</v>
+      </c>
+      <c r="I139" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" s="11">
+        <v>0</v>
+      </c>
+      <c r="K139" s="11">
+        <v>0</v>
+      </c>
+      <c r="L139" s="11">
+        <v>0</v>
+      </c>
+      <c r="M139" s="11">
+        <v>0</v>
+      </c>
+      <c r="N139" s="11">
+        <v>0</v>
+      </c>
+      <c r="O139" s="11">
+        <v>0</v>
+      </c>
+      <c r="P139" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q139" s="11">
+        <v>0</v>
+      </c>
+      <c r="R139" s="11">
+        <v>0</v>
+      </c>
+      <c r="S139" s="11">
+        <v>0</v>
+      </c>
+      <c r="T139" s="10">
+        <v>2</v>
+      </c>
+      <c r="U139" s="10">
+        <v>10</v>
+      </c>
+      <c r="V139" s="10">
+        <v>1</v>
+      </c>
+      <c r="W139" s="10">
+        <v>7</v>
+      </c>
+      <c r="X139" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB139" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC139" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD139" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE139" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF139" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG139" s="28">
+        <f t="shared" ref="AG139:AG140" si="17">ROW()-2</f>
+        <v>137</v>
+      </c>
+      <c r="AH139" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI139" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ139" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="25">
+        <f>ROW()-2</f>
+        <v>138</v>
+      </c>
+      <c r="B140" s="25" t="str">
+        <f t="shared" si="16"/>
+        <v>magicBook138</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D140" s="10">
+        <v>9</v>
+      </c>
+      <c r="E140" s="10">
+        <v>4</v>
+      </c>
+      <c r="F140" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G140" s="10">
+        <v>200</v>
+      </c>
+      <c r="H140" s="10">
+        <v>75</v>
+      </c>
+      <c r="I140" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" s="11">
+        <v>0</v>
+      </c>
+      <c r="K140" s="11">
+        <v>0</v>
+      </c>
+      <c r="L140" s="11">
+        <v>0</v>
+      </c>
+      <c r="M140" s="11">
+        <v>0</v>
+      </c>
+      <c r="N140" s="11">
+        <v>0</v>
+      </c>
+      <c r="O140" s="11">
+        <v>0</v>
+      </c>
+      <c r="P140" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q140" s="11">
+        <v>0</v>
+      </c>
+      <c r="R140" s="11">
+        <v>0</v>
+      </c>
+      <c r="S140" s="11">
+        <v>0</v>
+      </c>
+      <c r="T140" s="10">
+        <v>2</v>
+      </c>
+      <c r="U140" s="10">
+        <v>10</v>
+      </c>
+      <c r="V140" s="10">
+        <v>1</v>
+      </c>
+      <c r="W140" s="10">
+        <v>7</v>
+      </c>
+      <c r="X140" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB140" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD140" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE140" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF140" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="AG140" s="28">
+        <f t="shared" si="17"/>
+        <v>138</v>
+      </c>
+      <c r="AH140" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI140" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ140" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36487792-6055-4AE7-9D52-E903F93655CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B7DC7-099A-4057-9EB9-DD0EB8C7CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="530">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2016,6 +2016,10 @@
   <si>
     <t>특별 임무
 누적 보상으로 획득가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용태자 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2581,11 +2585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ140"/>
+  <dimension ref="A1:AJ141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF140" sqref="AF140"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17982,7 +17986,7 @@
         <v>528</v>
       </c>
       <c r="AG139" s="28">
-        <f t="shared" ref="AG139:AG140" si="17">ROW()-2</f>
+        <f t="shared" ref="AG139:AG141" si="17">ROW()-2</f>
         <v>137</v>
       </c>
       <c r="AH139" s="28">
@@ -18105,6 +18109,119 @@
         <v>76</v>
       </c>
       <c r="AJ140" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="25">
+        <f>ROW()-2</f>
+        <v>139</v>
+      </c>
+      <c r="B141" s="25" t="str">
+        <f t="shared" ref="B141" si="18">"magicBook"&amp;A141</f>
+        <v>magicBook139</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="D141" s="10">
+        <v>9</v>
+      </c>
+      <c r="E141" s="10">
+        <v>4</v>
+      </c>
+      <c r="F141" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G141" s="10">
+        <v>200</v>
+      </c>
+      <c r="H141" s="10">
+        <v>75</v>
+      </c>
+      <c r="I141" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" s="11">
+        <v>0</v>
+      </c>
+      <c r="K141" s="11">
+        <v>0</v>
+      </c>
+      <c r="L141" s="11">
+        <v>0</v>
+      </c>
+      <c r="M141" s="11">
+        <v>0</v>
+      </c>
+      <c r="N141" s="11">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11">
+        <v>0</v>
+      </c>
+      <c r="P141" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q141" s="11">
+        <v>0</v>
+      </c>
+      <c r="R141" s="11">
+        <v>0</v>
+      </c>
+      <c r="S141" s="11">
+        <v>0</v>
+      </c>
+      <c r="T141" s="10">
+        <v>2</v>
+      </c>
+      <c r="U141" s="10">
+        <v>10</v>
+      </c>
+      <c r="V141" s="10">
+        <v>1</v>
+      </c>
+      <c r="W141" s="10">
+        <v>7</v>
+      </c>
+      <c r="X141" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB141" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC141" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD141" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE141" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF141" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG141" s="28">
+        <f t="shared" si="17"/>
+        <v>139</v>
+      </c>
+      <c r="AH141" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI141" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ141" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255B7DC7-099A-4057-9EB9-DD0EB8C7CDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F05CF-E914-4F05-A329-B45784262D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="534">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2020,6 +2020,24 @@
   </si>
   <si>
     <t>용태자 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명월도령 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+05월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+지옥 문지기에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥 문지기 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2585,11 +2603,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ141"/>
+  <dimension ref="A1:AJ144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17986,7 +18004,7 @@
         <v>528</v>
       </c>
       <c r="AG139" s="28">
-        <f t="shared" ref="AG139:AG141" si="17">ROW()-2</f>
+        <f t="shared" ref="AG139:AG144" si="17">ROW()-2</f>
         <v>137</v>
       </c>
       <c r="AH139" s="28">
@@ -18118,7 +18136,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="25" t="str">
-        <f t="shared" ref="B141" si="18">"magicBook"&amp;A141</f>
+        <f t="shared" ref="B141:B144" si="18">"magicBook"&amp;A141</f>
         <v>magicBook139</v>
       </c>
       <c r="C141" s="10" t="s">
@@ -18222,6 +18240,345 @@
         <v>76</v>
       </c>
       <c r="AJ141" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A142" s="25">
+        <f t="shared" ref="A142" si="19">ROW()-2</f>
+        <v>140</v>
+      </c>
+      <c r="B142" s="25" t="str">
+        <f t="shared" si="18"/>
+        <v>magicBook140</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D142" s="10">
+        <v>9</v>
+      </c>
+      <c r="E142" s="10">
+        <v>4</v>
+      </c>
+      <c r="F142" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G142" s="10">
+        <v>200</v>
+      </c>
+      <c r="H142" s="10">
+        <v>75</v>
+      </c>
+      <c r="I142" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" s="11">
+        <v>0</v>
+      </c>
+      <c r="K142" s="11">
+        <v>0</v>
+      </c>
+      <c r="L142" s="11">
+        <v>0</v>
+      </c>
+      <c r="M142" s="11">
+        <v>0</v>
+      </c>
+      <c r="N142" s="11">
+        <v>0</v>
+      </c>
+      <c r="O142" s="11">
+        <v>0</v>
+      </c>
+      <c r="P142" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="11">
+        <v>0</v>
+      </c>
+      <c r="R142" s="11">
+        <v>0</v>
+      </c>
+      <c r="S142" s="11">
+        <v>0</v>
+      </c>
+      <c r="T142" s="10">
+        <v>2</v>
+      </c>
+      <c r="U142" s="10">
+        <v>10</v>
+      </c>
+      <c r="V142" s="10">
+        <v>1</v>
+      </c>
+      <c r="W142" s="10">
+        <v>7</v>
+      </c>
+      <c r="X142" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB142" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD142" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF142" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG142" s="28">
+        <f t="shared" si="17"/>
+        <v>140</v>
+      </c>
+      <c r="AH142" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI142" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ142" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="25">
+        <f>ROW()-2</f>
+        <v>141</v>
+      </c>
+      <c r="B143" s="25" t="str">
+        <f t="shared" si="18"/>
+        <v>magicBook141</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="D143" s="25">
+        <v>37</v>
+      </c>
+      <c r="E143" s="25">
+        <v>4</v>
+      </c>
+      <c r="F143" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G143" s="25">
+        <v>200</v>
+      </c>
+      <c r="H143" s="25">
+        <v>269</v>
+      </c>
+      <c r="I143" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" s="26">
+        <v>0</v>
+      </c>
+      <c r="K143" s="26">
+        <v>0</v>
+      </c>
+      <c r="L143" s="26">
+        <v>0</v>
+      </c>
+      <c r="M143" s="26">
+        <v>0</v>
+      </c>
+      <c r="N143" s="26">
+        <v>0</v>
+      </c>
+      <c r="O143" s="26">
+        <v>0</v>
+      </c>
+      <c r="P143" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="26">
+        <v>0</v>
+      </c>
+      <c r="R143" s="26">
+        <v>0</v>
+      </c>
+      <c r="S143" s="26">
+        <v>0</v>
+      </c>
+      <c r="T143" s="25">
+        <v>2</v>
+      </c>
+      <c r="U143" s="25">
+        <v>10</v>
+      </c>
+      <c r="V143" s="25">
+        <v>1</v>
+      </c>
+      <c r="W143" s="25">
+        <v>7</v>
+      </c>
+      <c r="X143" s="25">
+        <v>178000</v>
+      </c>
+      <c r="Y143" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z143" s="14">
+        <v>530000</v>
+      </c>
+      <c r="AA143" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB143" s="14">
+        <v>530000</v>
+      </c>
+      <c r="AC143" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD143" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE143" s="9">
+        <v>660000000</v>
+      </c>
+      <c r="AF143" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="AG143" s="28">
+        <f>ROW()-2</f>
+        <v>141</v>
+      </c>
+      <c r="AH143" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI143" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ143" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="25">
+        <f>ROW()-2</f>
+        <v>142</v>
+      </c>
+      <c r="B144" s="25" t="str">
+        <f t="shared" si="18"/>
+        <v>magicBook142</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D144" s="10">
+        <v>9</v>
+      </c>
+      <c r="E144" s="10">
+        <v>4</v>
+      </c>
+      <c r="F144" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G144" s="10">
+        <v>200</v>
+      </c>
+      <c r="H144" s="10">
+        <v>75</v>
+      </c>
+      <c r="I144" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" s="11">
+        <v>0</v>
+      </c>
+      <c r="K144" s="11">
+        <v>0</v>
+      </c>
+      <c r="L144" s="11">
+        <v>0</v>
+      </c>
+      <c r="M144" s="11">
+        <v>0</v>
+      </c>
+      <c r="N144" s="11">
+        <v>0</v>
+      </c>
+      <c r="O144" s="11">
+        <v>0</v>
+      </c>
+      <c r="P144" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="11">
+        <v>0</v>
+      </c>
+      <c r="R144" s="11">
+        <v>0</v>
+      </c>
+      <c r="S144" s="11">
+        <v>0</v>
+      </c>
+      <c r="T144" s="10">
+        <v>2</v>
+      </c>
+      <c r="U144" s="10">
+        <v>10</v>
+      </c>
+      <c r="V144" s="10">
+        <v>1</v>
+      </c>
+      <c r="W144" s="10">
+        <v>7</v>
+      </c>
+      <c r="X144" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD144" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF144" s="27" t="s">
+        <v>531</v>
+      </c>
+      <c r="AG144" s="28">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="AH144" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ144" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661F05CF-E914-4F05-A329-B45784262D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D640A-A4A9-4201-9ECA-90A32501008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="537">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2038,6 +2038,19 @@
   </si>
   <si>
     <t>지옥 문지기 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오조사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진광대왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+진광대왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2603,11 +2616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ144"/>
+  <dimension ref="A1:AJ146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A143" sqref="A143"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18004,7 +18017,7 @@
         <v>528</v>
       </c>
       <c r="AG139" s="28">
-        <f t="shared" ref="AG139:AG144" si="17">ROW()-2</f>
+        <f t="shared" ref="AG139:AG145" si="17">ROW()-2</f>
         <v>137</v>
       </c>
       <c r="AH139" s="28">
@@ -18580,6 +18593,232 @@
       </c>
       <c r="AJ144" s="28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A145" s="25">
+        <f t="shared" ref="A145" si="20">ROW()-2</f>
+        <v>143</v>
+      </c>
+      <c r="B145" s="25" t="str">
+        <f t="shared" ref="B145:B146" si="21">"magicBook"&amp;A145</f>
+        <v>magicBook143</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="D145" s="10">
+        <v>9</v>
+      </c>
+      <c r="E145" s="10">
+        <v>4</v>
+      </c>
+      <c r="F145" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G145" s="10">
+        <v>200</v>
+      </c>
+      <c r="H145" s="10">
+        <v>75</v>
+      </c>
+      <c r="I145" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" s="11">
+        <v>0</v>
+      </c>
+      <c r="K145" s="11">
+        <v>0</v>
+      </c>
+      <c r="L145" s="11">
+        <v>0</v>
+      </c>
+      <c r="M145" s="11">
+        <v>0</v>
+      </c>
+      <c r="N145" s="11">
+        <v>0</v>
+      </c>
+      <c r="O145" s="11">
+        <v>0</v>
+      </c>
+      <c r="P145" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="11">
+        <v>0</v>
+      </c>
+      <c r="R145" s="11">
+        <v>0</v>
+      </c>
+      <c r="S145" s="11">
+        <v>0</v>
+      </c>
+      <c r="T145" s="10">
+        <v>2</v>
+      </c>
+      <c r="U145" s="10">
+        <v>10</v>
+      </c>
+      <c r="V145" s="10">
+        <v>1</v>
+      </c>
+      <c r="W145" s="10">
+        <v>7</v>
+      </c>
+      <c r="X145" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD145" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF145" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG145" s="28">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="AH145" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI145" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ145" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="25">
+        <f>ROW()-2</f>
+        <v>144</v>
+      </c>
+      <c r="B146" s="25" t="str">
+        <f t="shared" si="21"/>
+        <v>magicBook144</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D146" s="25">
+        <v>37</v>
+      </c>
+      <c r="E146" s="25">
+        <v>4</v>
+      </c>
+      <c r="F146" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G146" s="25">
+        <v>200</v>
+      </c>
+      <c r="H146" s="25">
+        <v>273</v>
+      </c>
+      <c r="I146" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" s="26">
+        <v>0</v>
+      </c>
+      <c r="K146" s="26">
+        <v>0</v>
+      </c>
+      <c r="L146" s="26">
+        <v>0</v>
+      </c>
+      <c r="M146" s="26">
+        <v>0</v>
+      </c>
+      <c r="N146" s="26">
+        <v>0</v>
+      </c>
+      <c r="O146" s="26">
+        <v>0</v>
+      </c>
+      <c r="P146" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="26">
+        <v>0</v>
+      </c>
+      <c r="R146" s="26">
+        <v>0</v>
+      </c>
+      <c r="S146" s="26">
+        <v>0</v>
+      </c>
+      <c r="T146" s="25">
+        <v>2</v>
+      </c>
+      <c r="U146" s="25">
+        <v>10</v>
+      </c>
+      <c r="V146" s="25">
+        <v>1</v>
+      </c>
+      <c r="W146" s="25">
+        <v>7</v>
+      </c>
+      <c r="X146" s="25">
+        <v>180000</v>
+      </c>
+      <c r="Y146" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z146" s="14">
+        <v>550000</v>
+      </c>
+      <c r="AA146" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB146" s="14">
+        <v>550000</v>
+      </c>
+      <c r="AC146" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD146" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="9">
+        <v>680000000</v>
+      </c>
+      <c r="AF146" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="AG146" s="28">
+        <f>ROW()-2</f>
+        <v>144</v>
+      </c>
+      <c r="AH146" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI146" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ146" s="28">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D640A-A4A9-4201-9ECA-90A32501008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A5097-70CD-4C8B-AD59-76526F1D3102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="540">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2051,6 +2051,19 @@
   <si>
     <t>지옥도
 진광대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+태산대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산대왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영술사 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2616,11 +2629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ146"/>
+  <dimension ref="A1:AJ148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18017,7 +18030,7 @@
         <v>528</v>
       </c>
       <c r="AG139" s="28">
-        <f t="shared" ref="AG139:AG145" si="17">ROW()-2</f>
+        <f t="shared" ref="AG139:AG148" si="17">ROW()-2</f>
         <v>137</v>
       </c>
       <c r="AH139" s="28">
@@ -18597,11 +18610,11 @@
     </row>
     <row r="145" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
-        <f t="shared" ref="A145" si="20">ROW()-2</f>
+        <f t="shared" ref="A145:A148" si="20">ROW()-2</f>
         <v>143</v>
       </c>
       <c r="B145" s="25" t="str">
-        <f t="shared" ref="B145:B146" si="21">"magicBook"&amp;A145</f>
+        <f t="shared" ref="B145:B147" si="21">"magicBook"&amp;A145</f>
         <v>magicBook143</v>
       </c>
       <c r="C145" s="10" t="s">
@@ -18819,6 +18832,232 @@
       </c>
       <c r="AJ146" s="28">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="25">
+        <f>ROW()-2</f>
+        <v>145</v>
+      </c>
+      <c r="B147" s="25" t="str">
+        <f t="shared" si="21"/>
+        <v>magicBook145</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D147" s="25">
+        <v>37</v>
+      </c>
+      <c r="E147" s="25">
+        <v>4</v>
+      </c>
+      <c r="F147" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G147" s="25">
+        <v>200</v>
+      </c>
+      <c r="H147" s="25">
+        <v>277</v>
+      </c>
+      <c r="I147" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" s="26">
+        <v>0</v>
+      </c>
+      <c r="K147" s="26">
+        <v>0</v>
+      </c>
+      <c r="L147" s="26">
+        <v>0</v>
+      </c>
+      <c r="M147" s="26">
+        <v>0</v>
+      </c>
+      <c r="N147" s="26">
+        <v>0</v>
+      </c>
+      <c r="O147" s="26">
+        <v>0</v>
+      </c>
+      <c r="P147" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="26">
+        <v>0</v>
+      </c>
+      <c r="R147" s="26">
+        <v>0</v>
+      </c>
+      <c r="S147" s="26">
+        <v>0</v>
+      </c>
+      <c r="T147" s="25">
+        <v>2</v>
+      </c>
+      <c r="U147" s="25">
+        <v>10</v>
+      </c>
+      <c r="V147" s="25">
+        <v>1</v>
+      </c>
+      <c r="W147" s="25">
+        <v>7</v>
+      </c>
+      <c r="X147" s="25">
+        <v>182000</v>
+      </c>
+      <c r="Y147" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z147" s="14">
+        <v>570000</v>
+      </c>
+      <c r="AA147" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB147" s="14">
+        <v>570000</v>
+      </c>
+      <c r="AC147" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD147" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="9">
+        <v>700000000</v>
+      </c>
+      <c r="AF147" s="27" t="s">
+        <v>537</v>
+      </c>
+      <c r="AG147" s="28">
+        <f>ROW()-2</f>
+        <v>145</v>
+      </c>
+      <c r="AH147" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI147" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ147" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A148" s="25">
+        <f t="shared" si="20"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="25" t="str">
+        <f t="shared" ref="B148" si="22">"magicBook"&amp;A148</f>
+        <v>magicBook146</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="D148" s="10">
+        <v>9</v>
+      </c>
+      <c r="E148" s="10">
+        <v>4</v>
+      </c>
+      <c r="F148" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G148" s="10">
+        <v>200</v>
+      </c>
+      <c r="H148" s="10">
+        <v>75</v>
+      </c>
+      <c r="I148" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" s="11">
+        <v>0</v>
+      </c>
+      <c r="K148" s="11">
+        <v>0</v>
+      </c>
+      <c r="L148" s="11">
+        <v>0</v>
+      </c>
+      <c r="M148" s="11">
+        <v>0</v>
+      </c>
+      <c r="N148" s="11">
+        <v>0</v>
+      </c>
+      <c r="O148" s="11">
+        <v>0</v>
+      </c>
+      <c r="P148" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="11">
+        <v>0</v>
+      </c>
+      <c r="R148" s="11">
+        <v>0</v>
+      </c>
+      <c r="S148" s="11">
+        <v>0</v>
+      </c>
+      <c r="T148" s="10">
+        <v>2</v>
+      </c>
+      <c r="U148" s="10">
+        <v>10</v>
+      </c>
+      <c r="V148" s="10">
+        <v>1</v>
+      </c>
+      <c r="W148" s="10">
+        <v>7</v>
+      </c>
+      <c r="X148" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD148" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE148" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF148" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG148" s="28">
+        <f t="shared" si="17"/>
+        <v>146</v>
+      </c>
+      <c r="AH148" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ148" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A5097-70CD-4C8B-AD59-76526F1D3102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94723692-DFC1-4890-B0DE-61DCF2F69CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="544">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2064,6 +2064,24 @@
   </si>
   <si>
     <t>영술사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초광대왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청령화 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+초광대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+06월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2629,11 +2647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ148"/>
+  <dimension ref="A1:AJ151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18030,7 +18048,7 @@
         <v>528</v>
       </c>
       <c r="AG139" s="28">
-        <f t="shared" ref="AG139:AG148" si="17">ROW()-2</f>
+        <f t="shared" ref="AG139:AG151" si="17">ROW()-2</f>
         <v>137</v>
       </c>
       <c r="AH139" s="28">
@@ -18610,7 +18628,7 @@
     </row>
     <row r="145" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
-        <f t="shared" ref="A145:A148" si="20">ROW()-2</f>
+        <f t="shared" ref="A145:A151" si="20">ROW()-2</f>
         <v>143</v>
       </c>
       <c r="B145" s="25" t="str">
@@ -18953,7 +18971,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="25" t="str">
-        <f t="shared" ref="B148" si="22">"magicBook"&amp;A148</f>
+        <f t="shared" ref="B148:B149" si="22">"magicBook"&amp;A148</f>
         <v>magicBook146</v>
       </c>
       <c r="C148" s="10" t="s">
@@ -19057,6 +19075,345 @@
         <v>76</v>
       </c>
       <c r="AJ148" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="25">
+        <f>ROW()-2</f>
+        <v>147</v>
+      </c>
+      <c r="B149" s="25" t="str">
+        <f t="shared" si="22"/>
+        <v>magicBook147</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D149" s="25">
+        <v>37</v>
+      </c>
+      <c r="E149" s="25">
+        <v>4</v>
+      </c>
+      <c r="F149" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G149" s="25">
+        <v>200</v>
+      </c>
+      <c r="H149" s="25">
+        <v>281</v>
+      </c>
+      <c r="I149" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" s="26">
+        <v>0</v>
+      </c>
+      <c r="K149" s="26">
+        <v>0</v>
+      </c>
+      <c r="L149" s="26">
+        <v>0</v>
+      </c>
+      <c r="M149" s="26">
+        <v>0</v>
+      </c>
+      <c r="N149" s="26">
+        <v>0</v>
+      </c>
+      <c r="O149" s="26">
+        <v>0</v>
+      </c>
+      <c r="P149" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="26">
+        <v>0</v>
+      </c>
+      <c r="R149" s="26">
+        <v>0</v>
+      </c>
+      <c r="S149" s="26">
+        <v>0</v>
+      </c>
+      <c r="T149" s="25">
+        <v>2</v>
+      </c>
+      <c r="U149" s="25">
+        <v>10</v>
+      </c>
+      <c r="V149" s="25">
+        <v>1</v>
+      </c>
+      <c r="W149" s="25">
+        <v>7</v>
+      </c>
+      <c r="X149" s="25">
+        <v>184000</v>
+      </c>
+      <c r="Y149" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z149" s="14">
+        <v>590000</v>
+      </c>
+      <c r="AA149" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB149" s="14">
+        <v>590000</v>
+      </c>
+      <c r="AC149" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD149" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="9">
+        <v>720000000</v>
+      </c>
+      <c r="AF149" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="AG149" s="28">
+        <f>ROW()-2</f>
+        <v>147</v>
+      </c>
+      <c r="AH149" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI149" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ149" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A150" s="25">
+        <f t="shared" si="20"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="25" t="str">
+        <f t="shared" ref="B150" si="23">"magicBook"&amp;A150</f>
+        <v>magicBook148</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D150" s="10">
+        <v>9</v>
+      </c>
+      <c r="E150" s="10">
+        <v>4</v>
+      </c>
+      <c r="F150" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G150" s="10">
+        <v>200</v>
+      </c>
+      <c r="H150" s="10">
+        <v>75</v>
+      </c>
+      <c r="I150" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" s="11">
+        <v>0</v>
+      </c>
+      <c r="K150" s="11">
+        <v>0</v>
+      </c>
+      <c r="L150" s="11">
+        <v>0</v>
+      </c>
+      <c r="M150" s="11">
+        <v>0</v>
+      </c>
+      <c r="N150" s="11">
+        <v>0</v>
+      </c>
+      <c r="O150" s="11">
+        <v>0</v>
+      </c>
+      <c r="P150" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="11">
+        <v>0</v>
+      </c>
+      <c r="R150" s="11">
+        <v>0</v>
+      </c>
+      <c r="S150" s="11">
+        <v>0</v>
+      </c>
+      <c r="T150" s="10">
+        <v>2</v>
+      </c>
+      <c r="U150" s="10">
+        <v>10</v>
+      </c>
+      <c r="V150" s="10">
+        <v>1</v>
+      </c>
+      <c r="W150" s="10">
+        <v>7</v>
+      </c>
+      <c r="X150" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD150" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE150" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF150" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG150" s="28">
+        <f t="shared" si="17"/>
+        <v>148</v>
+      </c>
+      <c r="AH150" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ150" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="25">
+        <f t="shared" si="20"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="25" t="str">
+        <f t="shared" ref="B151" si="24">"magicBook"&amp;A151</f>
+        <v>magicBook149</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D151" s="10">
+        <v>9</v>
+      </c>
+      <c r="E151" s="10">
+        <v>4</v>
+      </c>
+      <c r="F151" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G151" s="10">
+        <v>200</v>
+      </c>
+      <c r="H151" s="10">
+        <v>75</v>
+      </c>
+      <c r="I151" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" s="11">
+        <v>0</v>
+      </c>
+      <c r="K151" s="11">
+        <v>0</v>
+      </c>
+      <c r="L151" s="11">
+        <v>0</v>
+      </c>
+      <c r="M151" s="11">
+        <v>0</v>
+      </c>
+      <c r="N151" s="11">
+        <v>0</v>
+      </c>
+      <c r="O151" s="11">
+        <v>0</v>
+      </c>
+      <c r="P151" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="11">
+        <v>0</v>
+      </c>
+      <c r="R151" s="11">
+        <v>0</v>
+      </c>
+      <c r="S151" s="11">
+        <v>0</v>
+      </c>
+      <c r="T151" s="10">
+        <v>2</v>
+      </c>
+      <c r="U151" s="10">
+        <v>10</v>
+      </c>
+      <c r="V151" s="10">
+        <v>1</v>
+      </c>
+      <c r="W151" s="10">
+        <v>7</v>
+      </c>
+      <c r="X151" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD151" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE151" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF151" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG151" s="28">
+        <f t="shared" si="17"/>
+        <v>149</v>
+      </c>
+      <c r="AH151" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI151" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ151" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94723692-DFC1-4890-B0DE-61DCF2F69CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96D2BD-6C4E-4A7E-A1C2-451EE82AB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="547">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,6 +2082,19 @@
   <si>
     <t>2024
 06월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전륜대왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호접 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥도
+전륜대왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2647,11 +2660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ151"/>
+  <dimension ref="A1:AJ153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A149" sqref="A149"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18048,7 +18061,7 @@
         <v>528</v>
       </c>
       <c r="AG139" s="28">
-        <f t="shared" ref="AG139:AG151" si="17">ROW()-2</f>
+        <f t="shared" ref="AG139:AG153" si="17">ROW()-2</f>
         <v>137</v>
       </c>
       <c r="AH139" s="28">
@@ -18628,7 +18641,7 @@
     </row>
     <row r="145" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
-        <f t="shared" ref="A145:A151" si="20">ROW()-2</f>
+        <f t="shared" ref="A145:A153" si="20">ROW()-2</f>
         <v>143</v>
       </c>
       <c r="B145" s="25" t="str">
@@ -19310,7 +19323,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="25" t="str">
-        <f t="shared" ref="B151" si="24">"magicBook"&amp;A151</f>
+        <f t="shared" ref="B151:B153" si="24">"magicBook"&amp;A151</f>
         <v>magicBook149</v>
       </c>
       <c r="C151" s="10" t="s">
@@ -19414,6 +19427,232 @@
         <v>76</v>
       </c>
       <c r="AJ151" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="25">
+        <f>ROW()-2</f>
+        <v>150</v>
+      </c>
+      <c r="B152" s="25" t="str">
+        <f t="shared" si="24"/>
+        <v>magicBook150</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D152" s="25">
+        <v>37</v>
+      </c>
+      <c r="E152" s="25">
+        <v>4</v>
+      </c>
+      <c r="F152" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G152" s="25">
+        <v>200</v>
+      </c>
+      <c r="H152" s="25">
+        <v>285</v>
+      </c>
+      <c r="I152" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" s="26">
+        <v>0</v>
+      </c>
+      <c r="K152" s="26">
+        <v>0</v>
+      </c>
+      <c r="L152" s="26">
+        <v>0</v>
+      </c>
+      <c r="M152" s="26">
+        <v>0</v>
+      </c>
+      <c r="N152" s="26">
+        <v>0</v>
+      </c>
+      <c r="O152" s="26">
+        <v>0</v>
+      </c>
+      <c r="P152" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q152" s="26">
+        <v>0</v>
+      </c>
+      <c r="R152" s="26">
+        <v>0</v>
+      </c>
+      <c r="S152" s="26">
+        <v>0</v>
+      </c>
+      <c r="T152" s="25">
+        <v>2</v>
+      </c>
+      <c r="U152" s="25">
+        <v>10</v>
+      </c>
+      <c r="V152" s="25">
+        <v>1</v>
+      </c>
+      <c r="W152" s="25">
+        <v>7</v>
+      </c>
+      <c r="X152" s="25">
+        <v>186000</v>
+      </c>
+      <c r="Y152" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z152" s="14">
+        <v>610000</v>
+      </c>
+      <c r="AA152" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB152" s="14">
+        <v>610000</v>
+      </c>
+      <c r="AC152" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD152" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE152" s="9">
+        <v>740000000</v>
+      </c>
+      <c r="AF152" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="AG152" s="28">
+        <f>ROW()-2</f>
+        <v>150</v>
+      </c>
+      <c r="AH152" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI152" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ152" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A153" s="25">
+        <f t="shared" si="20"/>
+        <v>151</v>
+      </c>
+      <c r="B153" s="25" t="str">
+        <f t="shared" si="24"/>
+        <v>magicBook151</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D153" s="10">
+        <v>9</v>
+      </c>
+      <c r="E153" s="10">
+        <v>4</v>
+      </c>
+      <c r="F153" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G153" s="10">
+        <v>200</v>
+      </c>
+      <c r="H153" s="10">
+        <v>75</v>
+      </c>
+      <c r="I153" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" s="11">
+        <v>0</v>
+      </c>
+      <c r="K153" s="11">
+        <v>0</v>
+      </c>
+      <c r="L153" s="11">
+        <v>0</v>
+      </c>
+      <c r="M153" s="11">
+        <v>0</v>
+      </c>
+      <c r="N153" s="11">
+        <v>0</v>
+      </c>
+      <c r="O153" s="11">
+        <v>0</v>
+      </c>
+      <c r="P153" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="11">
+        <v>0</v>
+      </c>
+      <c r="R153" s="11">
+        <v>0</v>
+      </c>
+      <c r="S153" s="11">
+        <v>0</v>
+      </c>
+      <c r="T153" s="10">
+        <v>2</v>
+      </c>
+      <c r="U153" s="10">
+        <v>10</v>
+      </c>
+      <c r="V153" s="10">
+        <v>1</v>
+      </c>
+      <c r="W153" s="10">
+        <v>7</v>
+      </c>
+      <c r="X153" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y153" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB153" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD153" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE153" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF153" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG153" s="28">
+        <f t="shared" si="17"/>
+        <v>151</v>
+      </c>
+      <c r="AH153" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI153" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ153" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96D2BD-6C4E-4A7E-A1C2-451EE82AB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA81C19-0286-44C3-9460-8D3C45D1D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="549">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2095,6 +2095,15 @@
   <si>
     <t>지옥도
 전륜대왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백련화신 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+백련화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2660,11 +2669,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ153"/>
+  <dimension ref="A1:AJ155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18061,7 +18070,7 @@
         <v>528</v>
       </c>
       <c r="AG139" s="28">
-        <f t="shared" ref="AG139:AG153" si="17">ROW()-2</f>
+        <f t="shared" ref="AG139:AG155" si="17">ROW()-2</f>
         <v>137</v>
       </c>
       <c r="AH139" s="28">
@@ -18641,7 +18650,7 @@
     </row>
     <row r="145" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
-        <f t="shared" ref="A145:A153" si="20">ROW()-2</f>
+        <f t="shared" ref="A145:A155" si="20">ROW()-2</f>
         <v>143</v>
       </c>
       <c r="B145" s="25" t="str">
@@ -19653,6 +19662,232 @@
         <v>76</v>
       </c>
       <c r="AJ153" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="25">
+        <f>ROW()-2</f>
+        <v>152</v>
+      </c>
+      <c r="B154" s="25" t="str">
+        <f t="shared" ref="B154:B155" si="25">"magicBook"&amp;A154</f>
+        <v>magicBook152</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D154" s="25">
+        <v>38</v>
+      </c>
+      <c r="E154" s="25">
+        <v>4</v>
+      </c>
+      <c r="F154" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G154" s="25">
+        <v>200</v>
+      </c>
+      <c r="H154" s="25">
+        <v>287</v>
+      </c>
+      <c r="I154" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" s="26">
+        <v>0</v>
+      </c>
+      <c r="K154" s="26">
+        <v>0</v>
+      </c>
+      <c r="L154" s="26">
+        <v>0</v>
+      </c>
+      <c r="M154" s="26">
+        <v>0</v>
+      </c>
+      <c r="N154" s="26">
+        <v>0</v>
+      </c>
+      <c r="O154" s="26">
+        <v>0</v>
+      </c>
+      <c r="P154" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="26">
+        <v>0</v>
+      </c>
+      <c r="R154" s="26">
+        <v>0</v>
+      </c>
+      <c r="S154" s="26">
+        <v>0</v>
+      </c>
+      <c r="T154" s="25">
+        <v>2</v>
+      </c>
+      <c r="U154" s="25">
+        <v>10</v>
+      </c>
+      <c r="V154" s="25">
+        <v>1</v>
+      </c>
+      <c r="W154" s="25">
+        <v>7</v>
+      </c>
+      <c r="X154" s="25">
+        <v>188000</v>
+      </c>
+      <c r="Y154" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z154" s="14">
+        <v>630000</v>
+      </c>
+      <c r="AA154" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB154" s="14">
+        <v>630000</v>
+      </c>
+      <c r="AC154" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD154" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE154" s="9">
+        <v>760000000</v>
+      </c>
+      <c r="AF154" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="AG154" s="28">
+        <f>ROW()-2</f>
+        <v>152</v>
+      </c>
+      <c r="AH154" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI154" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ154" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A155" s="25">
+        <f t="shared" si="20"/>
+        <v>153</v>
+      </c>
+      <c r="B155" s="25" t="str">
+        <f t="shared" si="25"/>
+        <v>magicBook153</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D155" s="10">
+        <v>9</v>
+      </c>
+      <c r="E155" s="10">
+        <v>4</v>
+      </c>
+      <c r="F155" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G155" s="10">
+        <v>200</v>
+      </c>
+      <c r="H155" s="10">
+        <v>75</v>
+      </c>
+      <c r="I155" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" s="11">
+        <v>0</v>
+      </c>
+      <c r="K155" s="11">
+        <v>0</v>
+      </c>
+      <c r="L155" s="11">
+        <v>0</v>
+      </c>
+      <c r="M155" s="11">
+        <v>0</v>
+      </c>
+      <c r="N155" s="11">
+        <v>0</v>
+      </c>
+      <c r="O155" s="11">
+        <v>0</v>
+      </c>
+      <c r="P155" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="11">
+        <v>0</v>
+      </c>
+      <c r="R155" s="11">
+        <v>0</v>
+      </c>
+      <c r="S155" s="11">
+        <v>0</v>
+      </c>
+      <c r="T155" s="10">
+        <v>2</v>
+      </c>
+      <c r="U155" s="10">
+        <v>10</v>
+      </c>
+      <c r="V155" s="10">
+        <v>1</v>
+      </c>
+      <c r="W155" s="10">
+        <v>7</v>
+      </c>
+      <c r="X155" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y155" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA155" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB155" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC155" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD155" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE155" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF155" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="AG155" s="28">
+        <f t="shared" si="17"/>
+        <v>153</v>
+      </c>
+      <c r="AH155" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI155" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ155" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA81C19-0286-44C3-9460-8D3C45D1D7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB10B10-8296-435A-89F4-9038A86D5B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="551">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2104,6 +2104,15 @@
   <si>
     <t>천상도
 백련화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑오화신 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+흑오화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2669,11 +2678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ155"/>
+  <dimension ref="A1:AJ156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19891,6 +19900,119 @@
         <v>0</v>
       </c>
     </row>
+    <row r="156" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="25">
+        <f>ROW()-2</f>
+        <v>154</v>
+      </c>
+      <c r="B156" s="25" t="str">
+        <f t="shared" ref="B156" si="26">"magicBook"&amp;A156</f>
+        <v>magicBook154</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D156" s="25">
+        <v>38</v>
+      </c>
+      <c r="E156" s="25">
+        <v>4</v>
+      </c>
+      <c r="F156" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G156" s="25">
+        <v>200</v>
+      </c>
+      <c r="H156" s="25">
+        <v>289</v>
+      </c>
+      <c r="I156" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" s="26">
+        <v>0</v>
+      </c>
+      <c r="K156" s="26">
+        <v>0</v>
+      </c>
+      <c r="L156" s="26">
+        <v>0</v>
+      </c>
+      <c r="M156" s="26">
+        <v>0</v>
+      </c>
+      <c r="N156" s="26">
+        <v>0</v>
+      </c>
+      <c r="O156" s="26">
+        <v>0</v>
+      </c>
+      <c r="P156" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="26">
+        <v>0</v>
+      </c>
+      <c r="R156" s="26">
+        <v>0</v>
+      </c>
+      <c r="S156" s="26">
+        <v>0</v>
+      </c>
+      <c r="T156" s="25">
+        <v>2</v>
+      </c>
+      <c r="U156" s="25">
+        <v>10</v>
+      </c>
+      <c r="V156" s="25">
+        <v>1</v>
+      </c>
+      <c r="W156" s="25">
+        <v>7</v>
+      </c>
+      <c r="X156" s="25">
+        <v>190000</v>
+      </c>
+      <c r="Y156" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z156" s="14">
+        <v>650000</v>
+      </c>
+      <c r="AA156" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB156" s="14">
+        <v>650000</v>
+      </c>
+      <c r="AC156" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD156" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE156" s="9">
+        <v>780000000</v>
+      </c>
+      <c r="AF156" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="AG156" s="28">
+        <f>ROW()-2</f>
+        <v>154</v>
+      </c>
+      <c r="AH156" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI156" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ156" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE60" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB10B10-8296-435A-89F4-9038A86D5B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729A3961-A1EA-44D2-A013-07F733AEF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="558">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2113,6 +2113,37 @@
   <si>
     <t>천상도
 흑오화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍나비 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자령화신 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑청나비 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+자령화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+07월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+08월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 패스에서 획득 가능!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2678,11 +2709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ156"/>
+  <dimension ref="A1:AJ160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19884,7 +19915,7 @@
         <v>1000000</v>
       </c>
       <c r="AF155" s="27" t="s">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="AG155" s="28">
         <f t="shared" si="17"/>
@@ -20011,6 +20042,458 @@
       </c>
       <c r="AJ156" s="28">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="25">
+        <f>ROW()-2</f>
+        <v>155</v>
+      </c>
+      <c r="B157" s="25" t="str">
+        <f t="shared" ref="B157:B160" si="27">"magicBook"&amp;A157</f>
+        <v>magicBook155</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D157" s="25">
+        <v>38</v>
+      </c>
+      <c r="E157" s="25">
+        <v>4</v>
+      </c>
+      <c r="F157" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G157" s="25">
+        <v>200</v>
+      </c>
+      <c r="H157" s="25">
+        <v>291</v>
+      </c>
+      <c r="I157" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" s="26">
+        <v>0</v>
+      </c>
+      <c r="K157" s="26">
+        <v>0</v>
+      </c>
+      <c r="L157" s="26">
+        <v>0</v>
+      </c>
+      <c r="M157" s="26">
+        <v>0</v>
+      </c>
+      <c r="N157" s="26">
+        <v>0</v>
+      </c>
+      <c r="O157" s="26">
+        <v>0</v>
+      </c>
+      <c r="P157" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q157" s="26">
+        <v>0</v>
+      </c>
+      <c r="R157" s="26">
+        <v>0</v>
+      </c>
+      <c r="S157" s="26">
+        <v>0</v>
+      </c>
+      <c r="T157" s="25">
+        <v>2</v>
+      </c>
+      <c r="U157" s="25">
+        <v>10</v>
+      </c>
+      <c r="V157" s="25">
+        <v>1</v>
+      </c>
+      <c r="W157" s="25">
+        <v>7</v>
+      </c>
+      <c r="X157" s="25">
+        <v>192000</v>
+      </c>
+      <c r="Y157" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z157" s="14">
+        <v>670000</v>
+      </c>
+      <c r="AA157" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB157" s="14">
+        <v>670000</v>
+      </c>
+      <c r="AC157" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD157" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE157" s="9">
+        <v>800000000</v>
+      </c>
+      <c r="AF157" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG157" s="28">
+        <f>ROW()-2</f>
+        <v>155</v>
+      </c>
+      <c r="AH157" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI157" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ157" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A158" s="25">
+        <f t="shared" ref="A158:A160" si="28">ROW()-2</f>
+        <v>156</v>
+      </c>
+      <c r="B158" s="25" t="str">
+        <f t="shared" si="27"/>
+        <v>magicBook156</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D158" s="10">
+        <v>9</v>
+      </c>
+      <c r="E158" s="10">
+        <v>4</v>
+      </c>
+      <c r="F158" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G158" s="10">
+        <v>200</v>
+      </c>
+      <c r="H158" s="10">
+        <v>75</v>
+      </c>
+      <c r="I158" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" s="11">
+        <v>0</v>
+      </c>
+      <c r="K158" s="11">
+        <v>0</v>
+      </c>
+      <c r="L158" s="11">
+        <v>0</v>
+      </c>
+      <c r="M158" s="11">
+        <v>0</v>
+      </c>
+      <c r="N158" s="11">
+        <v>0</v>
+      </c>
+      <c r="O158" s="11">
+        <v>0</v>
+      </c>
+      <c r="P158" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="11">
+        <v>0</v>
+      </c>
+      <c r="R158" s="11">
+        <v>0</v>
+      </c>
+      <c r="S158" s="11">
+        <v>0</v>
+      </c>
+      <c r="T158" s="10">
+        <v>2</v>
+      </c>
+      <c r="U158" s="10">
+        <v>10</v>
+      </c>
+      <c r="V158" s="10">
+        <v>1</v>
+      </c>
+      <c r="W158" s="10">
+        <v>7</v>
+      </c>
+      <c r="X158" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB158" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD158" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE158" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF158" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG158" s="28">
+        <f t="shared" ref="AG158:AG160" si="29">ROW()-2</f>
+        <v>156</v>
+      </c>
+      <c r="AH158" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI158" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ158" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+      <c r="A159" s="25">
+        <f t="shared" si="28"/>
+        <v>157</v>
+      </c>
+      <c r="B159" s="25" t="str">
+        <f t="shared" si="27"/>
+        <v>magicBook157</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="D159" s="10">
+        <v>9</v>
+      </c>
+      <c r="E159" s="10">
+        <v>4</v>
+      </c>
+      <c r="F159" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G159" s="10">
+        <v>200</v>
+      </c>
+      <c r="H159" s="10">
+        <v>75</v>
+      </c>
+      <c r="I159" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" s="11">
+        <v>0</v>
+      </c>
+      <c r="K159" s="11">
+        <v>0</v>
+      </c>
+      <c r="L159" s="11">
+        <v>0</v>
+      </c>
+      <c r="M159" s="11">
+        <v>0</v>
+      </c>
+      <c r="N159" s="11">
+        <v>0</v>
+      </c>
+      <c r="O159" s="11">
+        <v>0</v>
+      </c>
+      <c r="P159" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="11">
+        <v>0</v>
+      </c>
+      <c r="R159" s="11">
+        <v>0</v>
+      </c>
+      <c r="S159" s="11">
+        <v>0</v>
+      </c>
+      <c r="T159" s="10">
+        <v>2</v>
+      </c>
+      <c r="U159" s="10">
+        <v>10</v>
+      </c>
+      <c r="V159" s="10">
+        <v>1</v>
+      </c>
+      <c r="W159" s="10">
+        <v>7</v>
+      </c>
+      <c r="X159" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z159" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA159" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB159" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD159" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE159" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF159" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG159" s="28">
+        <f t="shared" si="29"/>
+        <v>157</v>
+      </c>
+      <c r="AH159" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI159" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ159" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+      <c r="A160" s="25">
+        <f t="shared" si="28"/>
+        <v>158</v>
+      </c>
+      <c r="B160" s="25" t="str">
+        <f t="shared" si="27"/>
+        <v>magicBook158</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D160" s="10">
+        <v>9</v>
+      </c>
+      <c r="E160" s="10">
+        <v>4</v>
+      </c>
+      <c r="F160" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G160" s="10">
+        <v>200</v>
+      </c>
+      <c r="H160" s="10">
+        <v>75</v>
+      </c>
+      <c r="I160" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" s="11">
+        <v>0</v>
+      </c>
+      <c r="K160" s="11">
+        <v>0</v>
+      </c>
+      <c r="L160" s="11">
+        <v>0</v>
+      </c>
+      <c r="M160" s="11">
+        <v>0</v>
+      </c>
+      <c r="N160" s="11">
+        <v>0</v>
+      </c>
+      <c r="O160" s="11">
+        <v>0</v>
+      </c>
+      <c r="P160" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="11">
+        <v>0</v>
+      </c>
+      <c r="R160" s="11">
+        <v>0</v>
+      </c>
+      <c r="S160" s="11">
+        <v>0</v>
+      </c>
+      <c r="T160" s="10">
+        <v>2</v>
+      </c>
+      <c r="U160" s="10">
+        <v>10</v>
+      </c>
+      <c r="V160" s="10">
+        <v>1</v>
+      </c>
+      <c r="W160" s="10">
+        <v>7</v>
+      </c>
+      <c r="X160" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z160" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB160" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD160" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE160" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF160" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="AG160" s="28">
+        <f t="shared" si="29"/>
+        <v>158</v>
+      </c>
+      <c r="AH160" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI160" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ160" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729A3961-A1EA-44D2-A013-07F733AEF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16EC48-F170-4834-B08F-D2D57EA89E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="560">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2144,6 +2144,15 @@
   </si>
   <si>
     <t>이벤트 패스에서 획득 가능!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백열화신 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+백열화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2709,11 +2718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ160"/>
+  <dimension ref="A1:AJ161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20496,6 +20505,119 @@
         <v>0</v>
       </c>
     </row>
+    <row r="161" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="25">
+        <f>ROW()-2</f>
+        <v>159</v>
+      </c>
+      <c r="B161" s="25" t="str">
+        <f t="shared" ref="B161" si="30">"magicBook"&amp;A161</f>
+        <v>magicBook159</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D161" s="25">
+        <v>38</v>
+      </c>
+      <c r="E161" s="25">
+        <v>4</v>
+      </c>
+      <c r="F161" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G161" s="25">
+        <v>200</v>
+      </c>
+      <c r="H161" s="25">
+        <v>293</v>
+      </c>
+      <c r="I161" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" s="26">
+        <v>0</v>
+      </c>
+      <c r="K161" s="26">
+        <v>0</v>
+      </c>
+      <c r="L161" s="26">
+        <v>0</v>
+      </c>
+      <c r="M161" s="26">
+        <v>0</v>
+      </c>
+      <c r="N161" s="26">
+        <v>0</v>
+      </c>
+      <c r="O161" s="26">
+        <v>0</v>
+      </c>
+      <c r="P161" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="26">
+        <v>0</v>
+      </c>
+      <c r="R161" s="26">
+        <v>0</v>
+      </c>
+      <c r="S161" s="26">
+        <v>0</v>
+      </c>
+      <c r="T161" s="25">
+        <v>2</v>
+      </c>
+      <c r="U161" s="25">
+        <v>10</v>
+      </c>
+      <c r="V161" s="25">
+        <v>1</v>
+      </c>
+      <c r="W161" s="25">
+        <v>7</v>
+      </c>
+      <c r="X161" s="25">
+        <v>194000</v>
+      </c>
+      <c r="Y161" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z161" s="14">
+        <v>680000</v>
+      </c>
+      <c r="AA161" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB161" s="14">
+        <v>690000</v>
+      </c>
+      <c r="AC161" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD161" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE161" s="9">
+        <v>820000000</v>
+      </c>
+      <c r="AF161" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG161" s="28">
+        <f>ROW()-2</f>
+        <v>159</v>
+      </c>
+      <c r="AH161" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI161" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ161" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE60" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B16EC48-F170-4834-B08F-D2D57EA89E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2835A25-2899-421B-BBED-9F5962D3EC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="560">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2718,11 +2718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ161"/>
+  <dimension ref="A1:AJ162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A161" sqref="A161"/>
+      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20168,7 +20168,7 @@
     </row>
     <row r="158" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
-        <f t="shared" ref="A158:A160" si="28">ROW()-2</f>
+        <f t="shared" ref="A158:A162" si="28">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="B158" s="25" t="str">
@@ -20266,7 +20266,7 @@
         <v>556</v>
       </c>
       <c r="AG158" s="28">
-        <f t="shared" ref="AG158:AG160" si="29">ROW()-2</f>
+        <f t="shared" ref="AG158:AG162" si="29">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="AH158" s="28">
@@ -20392,7 +20392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="33" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
         <f t="shared" si="28"/>
         <v>158</v>
@@ -20511,7 +20511,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="25" t="str">
-        <f t="shared" ref="B161" si="30">"magicBook"&amp;A161</f>
+        <f t="shared" ref="B161:B162" si="30">"magicBook"&amp;A161</f>
         <v>magicBook159</v>
       </c>
       <c r="C161" s="10" t="s">
@@ -20616,6 +20616,119 @@
       </c>
       <c r="AJ161" s="28">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A162" s="25">
+        <f t="shared" si="28"/>
+        <v>160</v>
+      </c>
+      <c r="B162" s="25" t="str">
+        <f t="shared" si="30"/>
+        <v>magicBook160</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D162" s="10">
+        <v>9</v>
+      </c>
+      <c r="E162" s="10">
+        <v>4</v>
+      </c>
+      <c r="F162" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G162" s="10">
+        <v>200</v>
+      </c>
+      <c r="H162" s="10">
+        <v>75</v>
+      </c>
+      <c r="I162" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" s="11">
+        <v>0</v>
+      </c>
+      <c r="K162" s="11">
+        <v>0</v>
+      </c>
+      <c r="L162" s="11">
+        <v>0</v>
+      </c>
+      <c r="M162" s="11">
+        <v>0</v>
+      </c>
+      <c r="N162" s="11">
+        <v>0</v>
+      </c>
+      <c r="O162" s="11">
+        <v>0</v>
+      </c>
+      <c r="P162" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="11">
+        <v>0</v>
+      </c>
+      <c r="R162" s="11">
+        <v>0</v>
+      </c>
+      <c r="S162" s="11">
+        <v>0</v>
+      </c>
+      <c r="T162" s="10">
+        <v>2</v>
+      </c>
+      <c r="U162" s="10">
+        <v>10</v>
+      </c>
+      <c r="V162" s="10">
+        <v>1</v>
+      </c>
+      <c r="W162" s="10">
+        <v>7</v>
+      </c>
+      <c r="X162" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD162" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF162" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG162" s="28">
+        <f t="shared" si="29"/>
+        <v>160</v>
+      </c>
+      <c r="AH162" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI162" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ162" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2835A25-2899-421B-BBED-9F5962D3EC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50591917-DCC1-474E-AF6B-83BEE57DA472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="564">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2153,6 +2153,25 @@
   <si>
     <t>천상도
 백열화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+09월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑열화신 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+10월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상도
+흑열화신에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2718,11 +2737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ162"/>
+  <dimension ref="A1:AJ164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF164" sqref="AF164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20168,7 +20187,7 @@
     </row>
     <row r="158" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
-        <f t="shared" ref="A158:A162" si="28">ROW()-2</f>
+        <f t="shared" ref="A158:A164" si="28">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="B158" s="25" t="str">
@@ -20266,7 +20285,7 @@
         <v>556</v>
       </c>
       <c r="AG158" s="28">
-        <f t="shared" ref="AG158:AG162" si="29">ROW()-2</f>
+        <f t="shared" ref="AG158:AG164" si="29">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="AH158" s="28">
@@ -20715,7 +20734,7 @@
         <v>1000000</v>
       </c>
       <c r="AF162" s="27" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AG162" s="28">
         <f t="shared" si="29"/>
@@ -20728,6 +20747,232 @@
         <v>76</v>
       </c>
       <c r="AJ162" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:36" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="25">
+        <f>ROW()-2</f>
+        <v>161</v>
+      </c>
+      <c r="B163" s="25" t="str">
+        <f t="shared" ref="B163:B164" si="31">"magicBook"&amp;A163</f>
+        <v>magicBook161</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D163" s="25">
+        <v>38</v>
+      </c>
+      <c r="E163" s="25">
+        <v>4</v>
+      </c>
+      <c r="F163" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G163" s="25">
+        <v>200</v>
+      </c>
+      <c r="H163" s="25">
+        <v>295</v>
+      </c>
+      <c r="I163" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" s="26">
+        <v>0</v>
+      </c>
+      <c r="K163" s="26">
+        <v>0</v>
+      </c>
+      <c r="L163" s="26">
+        <v>0</v>
+      </c>
+      <c r="M163" s="26">
+        <v>0</v>
+      </c>
+      <c r="N163" s="26">
+        <v>0</v>
+      </c>
+      <c r="O163" s="26">
+        <v>0</v>
+      </c>
+      <c r="P163" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="26">
+        <v>0</v>
+      </c>
+      <c r="R163" s="26">
+        <v>0</v>
+      </c>
+      <c r="S163" s="26">
+        <v>0</v>
+      </c>
+      <c r="T163" s="25">
+        <v>2</v>
+      </c>
+      <c r="U163" s="25">
+        <v>10</v>
+      </c>
+      <c r="V163" s="25">
+        <v>1</v>
+      </c>
+      <c r="W163" s="25">
+        <v>7</v>
+      </c>
+      <c r="X163" s="25">
+        <v>196000</v>
+      </c>
+      <c r="Y163" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z163" s="14">
+        <v>690000</v>
+      </c>
+      <c r="AA163" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB163" s="14">
+        <v>700000</v>
+      </c>
+      <c r="AC163" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD163" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE163" s="9">
+        <v>840000000</v>
+      </c>
+      <c r="AF163" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG163" s="28">
+        <f>ROW()-2</f>
+        <v>161</v>
+      </c>
+      <c r="AH163" s="28">
+        <v>20</v>
+      </c>
+      <c r="AI163" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ163" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A164" s="25">
+        <f t="shared" si="28"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="25" t="str">
+        <f t="shared" si="31"/>
+        <v>magicBook162</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D164" s="10">
+        <v>9</v>
+      </c>
+      <c r="E164" s="10">
+        <v>4</v>
+      </c>
+      <c r="F164" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G164" s="10">
+        <v>200</v>
+      </c>
+      <c r="H164" s="10">
+        <v>75</v>
+      </c>
+      <c r="I164" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J164" s="11">
+        <v>0</v>
+      </c>
+      <c r="K164" s="11">
+        <v>0</v>
+      </c>
+      <c r="L164" s="11">
+        <v>0</v>
+      </c>
+      <c r="M164" s="11">
+        <v>0</v>
+      </c>
+      <c r="N164" s="11">
+        <v>0</v>
+      </c>
+      <c r="O164" s="11">
+        <v>0</v>
+      </c>
+      <c r="P164" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="11">
+        <v>0</v>
+      </c>
+      <c r="R164" s="11">
+        <v>0</v>
+      </c>
+      <c r="S164" s="11">
+        <v>0</v>
+      </c>
+      <c r="T164" s="10">
+        <v>2</v>
+      </c>
+      <c r="U164" s="10">
+        <v>10</v>
+      </c>
+      <c r="V164" s="10">
+        <v>1</v>
+      </c>
+      <c r="W164" s="10">
+        <v>7</v>
+      </c>
+      <c r="X164" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB164" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD164" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE164" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF164" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG164" s="28">
+        <f t="shared" si="29"/>
+        <v>162</v>
+      </c>
+      <c r="AH164" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ164" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50591917-DCC1-474E-AF6B-83BEE57DA472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBAAB39-AD07-4715-BAEF-69AED1C0A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="565">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2172,6 +2172,11 @@
   <si>
     <t>천상도
 흑열화신에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+11월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2737,11 +2742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ164"/>
+  <dimension ref="A1:AJ165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF164" sqref="AF164"/>
+      <selection pane="bottomLeft" activeCell="AF165" sqref="AF165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20187,7 +20192,7 @@
     </row>
     <row r="158" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
-        <f t="shared" ref="A158:A164" si="28">ROW()-2</f>
+        <f t="shared" ref="A158:A165" si="28">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="B158" s="25" t="str">
@@ -20285,7 +20290,7 @@
         <v>556</v>
       </c>
       <c r="AG158" s="28">
-        <f t="shared" ref="AG158:AG164" si="29">ROW()-2</f>
+        <f t="shared" ref="AG158:AG165" si="29">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="AH158" s="28">
@@ -20973,6 +20978,119 @@
         <v>76</v>
       </c>
       <c r="AJ164" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A165" s="25">
+        <f t="shared" si="28"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="25" t="str">
+        <f t="shared" ref="B165" si="32">"magicBook"&amp;A165</f>
+        <v>magicBook163</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D165" s="10">
+        <v>9</v>
+      </c>
+      <c r="E165" s="10">
+        <v>4</v>
+      </c>
+      <c r="F165" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G165" s="10">
+        <v>200</v>
+      </c>
+      <c r="H165" s="10">
+        <v>75</v>
+      </c>
+      <c r="I165" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J165" s="11">
+        <v>0</v>
+      </c>
+      <c r="K165" s="11">
+        <v>0</v>
+      </c>
+      <c r="L165" s="11">
+        <v>0</v>
+      </c>
+      <c r="M165" s="11">
+        <v>0</v>
+      </c>
+      <c r="N165" s="11">
+        <v>0</v>
+      </c>
+      <c r="O165" s="11">
+        <v>0</v>
+      </c>
+      <c r="P165" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="11">
+        <v>0</v>
+      </c>
+      <c r="R165" s="11">
+        <v>0</v>
+      </c>
+      <c r="S165" s="11">
+        <v>0</v>
+      </c>
+      <c r="T165" s="10">
+        <v>2</v>
+      </c>
+      <c r="U165" s="10">
+        <v>10</v>
+      </c>
+      <c r="V165" s="10">
+        <v>1</v>
+      </c>
+      <c r="W165" s="10">
+        <v>7</v>
+      </c>
+      <c r="X165" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD165" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE165" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF165" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="AG165" s="28">
+        <f t="shared" si="29"/>
+        <v>163</v>
+      </c>
+      <c r="AH165" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI165" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ165" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBAAB39-AD07-4715-BAEF-69AED1C0A32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B0FCE-ACD5-440B-B856-EB2A2C835A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="566">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2177,6 +2177,11 @@
   <si>
     <t>2024
 11월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024
+12월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2742,11 +2747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ165"/>
+  <dimension ref="A1:AJ166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF165" sqref="AF165"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20192,7 +20197,7 @@
     </row>
     <row r="158" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
-        <f t="shared" ref="A158:A165" si="28">ROW()-2</f>
+        <f t="shared" ref="A158:A166" si="28">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="B158" s="25" t="str">
@@ -20290,7 +20295,7 @@
         <v>556</v>
       </c>
       <c r="AG158" s="28">
-        <f t="shared" ref="AG158:AG165" si="29">ROW()-2</f>
+        <f t="shared" ref="AG158:AG166" si="29">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="AH158" s="28">
@@ -21091,6 +21096,119 @@
         <v>76</v>
       </c>
       <c r="AJ165" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A166" s="25">
+        <f t="shared" si="28"/>
+        <v>164</v>
+      </c>
+      <c r="B166" s="25" t="str">
+        <f t="shared" ref="B166" si="33">"magicBook"&amp;A166</f>
+        <v>magicBook164</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D166" s="10">
+        <v>9</v>
+      </c>
+      <c r="E166" s="10">
+        <v>4</v>
+      </c>
+      <c r="F166" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G166" s="10">
+        <v>200</v>
+      </c>
+      <c r="H166" s="10">
+        <v>75</v>
+      </c>
+      <c r="I166" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J166" s="11">
+        <v>0</v>
+      </c>
+      <c r="K166" s="11">
+        <v>0</v>
+      </c>
+      <c r="L166" s="11">
+        <v>0</v>
+      </c>
+      <c r="M166" s="11">
+        <v>0</v>
+      </c>
+      <c r="N166" s="11">
+        <v>0</v>
+      </c>
+      <c r="O166" s="11">
+        <v>0</v>
+      </c>
+      <c r="P166" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="11">
+        <v>0</v>
+      </c>
+      <c r="R166" s="11">
+        <v>0</v>
+      </c>
+      <c r="S166" s="11">
+        <v>0</v>
+      </c>
+      <c r="T166" s="10">
+        <v>2</v>
+      </c>
+      <c r="U166" s="10">
+        <v>10</v>
+      </c>
+      <c r="V166" s="10">
+        <v>1</v>
+      </c>
+      <c r="W166" s="10">
+        <v>7</v>
+      </c>
+      <c r="X166" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB166" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD166" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE166" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF166" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="AG166" s="28">
+        <f t="shared" si="29"/>
+        <v>164</v>
+      </c>
+      <c r="AH166" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ166" s="28">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662B0FCE-ACD5-440B-B856-EB2A2C835A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAC8F4F-A8DE-4F88-96D1-4A31DA83E347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="568">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2182,6 +2182,15 @@
   <si>
     <t>2024
 12월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025
+01월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2747,11 +2756,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ166"/>
+  <dimension ref="A1:AJ167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A166" sqref="A166"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20197,7 +20206,7 @@
     </row>
     <row r="158" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
-        <f t="shared" ref="A158:A166" si="28">ROW()-2</f>
+        <f t="shared" ref="A158:A167" si="28">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="B158" s="25" t="str">
@@ -20295,7 +20304,7 @@
         <v>556</v>
       </c>
       <c r="AG158" s="28">
-        <f t="shared" ref="AG158:AG166" si="29">ROW()-2</f>
+        <f t="shared" ref="AG158:AG167" si="29">ROW()-2</f>
         <v>156</v>
       </c>
       <c r="AH158" s="28">
@@ -21209,6 +21218,119 @@
         <v>76</v>
       </c>
       <c r="AJ166" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:36" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A167" s="25">
+        <f t="shared" si="28"/>
+        <v>165</v>
+      </c>
+      <c r="B167" s="25" t="str">
+        <f t="shared" ref="B167" si="34">"magicBook"&amp;A167</f>
+        <v>magicBook165</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D167" s="10">
+        <v>9</v>
+      </c>
+      <c r="E167" s="10">
+        <v>4</v>
+      </c>
+      <c r="F167" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G167" s="10">
+        <v>200</v>
+      </c>
+      <c r="H167" s="10">
+        <v>75</v>
+      </c>
+      <c r="I167" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J167" s="11">
+        <v>0</v>
+      </c>
+      <c r="K167" s="11">
+        <v>0</v>
+      </c>
+      <c r="L167" s="11">
+        <v>0</v>
+      </c>
+      <c r="M167" s="11">
+        <v>0</v>
+      </c>
+      <c r="N167" s="11">
+        <v>0</v>
+      </c>
+      <c r="O167" s="11">
+        <v>0</v>
+      </c>
+      <c r="P167" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="11">
+        <v>0</v>
+      </c>
+      <c r="R167" s="11">
+        <v>0</v>
+      </c>
+      <c r="S167" s="11">
+        <v>0</v>
+      </c>
+      <c r="T167" s="10">
+        <v>2</v>
+      </c>
+      <c r="U167" s="10">
+        <v>10</v>
+      </c>
+      <c r="V167" s="10">
+        <v>1</v>
+      </c>
+      <c r="W167" s="10">
+        <v>7</v>
+      </c>
+      <c r="X167" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD167" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE167" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF167" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG167" s="28">
+        <f t="shared" si="29"/>
+        <v>165</v>
+      </c>
+      <c r="AH167" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI167" s="28">
+        <v>76</v>
+      </c>
+      <c r="AJ167" s="28">
         <v>0</v>
       </c>
     </row>
